--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\TeamProject\TeamDoZip\DoZip\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\boot-3\220607\TeamProject\TeamDoZip\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F3582B-E977-4DB3-836A-CE9F4CA97B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEEA90F-7745-4A15-84BF-5B019C0B033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="16380" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,29 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}</author>
+  </authors>
+  <commentList>
+    <comment ref="H165" authorId="0" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    업체 문의라면 해당 컬럼에 값을 넣음.
+null인 경우에는 관리자문의가 됨.
+테이블은 null 허용으로 하고,
+업체문의를 통해 글을 작성하는 경우 유효성 검증으로 사업자번호를 넣게 할 예정</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="207">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -555,10 +576,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>customer_qna</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>customer_review</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -684,6 +701,122 @@
   </si>
   <si>
     <t>sysdate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_qnaT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문유형</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글제목</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글내용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 level (정렬순서)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 ref (그룹번호)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호(시퀀스)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변상태</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미답변</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_no</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체문의-사업자번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_title</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_cont</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_ref</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_step</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 step(원본글:0)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +824,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +878,12 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -979,6 +1118,15 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,20 +1145,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,6 +1166,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="yang jihye" id="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" userId="70b20236ac8febe2" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1225,49 +1370,60 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H165" dT="2022-09-15T04:33:24.07" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+    <text>업체 문의라면 해당 컬럼에 값을 넣음.
+null인 경우에는 관리자문의가 됨.
+테이블은 null 허용으로 하고,
+업체문의를 통해 글을 작성하는 경우 유효성 검증으로 사업자번호를 넣게 할 예정</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1062"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L174" sqref="L174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" style="18" customWidth="1"/>
-    <col min="10" max="25" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="18" customWidth="1"/>
+    <col min="10" max="25" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -1285,27 +1441,27 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="C5" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
@@ -1332,7 +1488,7 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>132</v>
@@ -1353,7 +1509,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>132</v>
@@ -1372,7 +1528,7 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>132</v>
@@ -1391,7 +1547,7 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>132</v>
@@ -1410,7 +1566,7 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>132</v>
@@ -1429,7 +1585,7 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>132</v>
@@ -1448,7 +1604,7 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>133</v>
@@ -1467,7 +1623,7 @@
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>132</v>
@@ -1485,102 +1641,102 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B15" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="20">
         <v>100</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="21">
+        <v>20</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B17" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="21">
+        <v>20</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B18" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="21">
+        <v>10</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="30" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B19" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D19" s="21">
         <v>20</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B17" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="30">
-        <v>20</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B18" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="30">
-        <v>10</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B19" s="30" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="30">
-        <v>20</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1">
@@ -1601,27 +1757,27 @@
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
@@ -1841,28 +1997,28 @@
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
@@ -1997,28 +2153,28 @@
       <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="22"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
       <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1">
@@ -2361,27 +2517,27 @@
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="22"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="B83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="22"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="B84" s="3" t="s">
@@ -2718,14 +2874,14 @@
       <c r="B116" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D116" s="21"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="22"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="25"/>
       <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" customHeight="1">
@@ -2733,14 +2889,14 @@
       <c r="B117" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="22"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="25"/>
       <c r="I117" s="19"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1">
@@ -2909,28 +3065,28 @@
       <c r="B132" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="22"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="25"/>
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1">
       <c r="B133" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="22"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="25"/>
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
@@ -3234,7 +3390,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I157" s="19"/>
     </row>
@@ -3262,284 +3418,406 @@
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="22"/>
+      <c r="C160" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="28"/>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="22"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="28"/>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="E162" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F162" s="3" t="s">
+      <c r="F162" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G162" s="3" t="s">
+      <c r="G162" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
+      <c r="B163" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D163" s="13">
+        <v>38</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F163" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="I163" s="19"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
+      <c r="B164" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D164" s="13">
+        <v>20</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="I164" s="19"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
+      <c r="B165" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D165" s="13">
+        <v>10</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F165" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="I165" s="19"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
+      <c r="B166" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D166" s="13">
+        <v>20</v>
+      </c>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="I166" s="19"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
+      <c r="B167" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D167" s="13">
+        <v>200</v>
+      </c>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="I167" s="19"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
+      <c r="B168" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D168" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="I168" s="19"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
+      <c r="B169" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D169" s="13">
+        <v>20</v>
+      </c>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="I169" s="19"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
+      <c r="B170" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D170" s="13">
+        <v>38</v>
+      </c>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="I170" s="19"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
+      <c r="B171" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D171" s="13">
+        <v>38</v>
+      </c>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="I171" s="19"/>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
+      <c r="B172" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D172" s="13">
+        <v>38</v>
+      </c>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="I172" s="19"/>
     </row>
     <row r="173" spans="1:9" ht="16.5" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
+      <c r="B173" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D173" s="13">
+        <v>20</v>
+      </c>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H173" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="I173" s="19"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D174" s="21"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="22"/>
+      <c r="B174" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D174" s="13">
+        <v>20</v>
+      </c>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="I174" s="19"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C175" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D175" s="21"/>
-      <c r="E175" s="21"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
-      <c r="H175" s="22"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
       <c r="I175" s="19"/>
     </row>
     <row r="176" spans="1:9" ht="16.5" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E176" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
       <c r="I176" s="19"/>
     </row>
     <row r="177" spans="1:9" ht="16.5" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
       <c r="I177" s="19"/>
     </row>
     <row r="178" spans="1:9" ht="16.5" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="B178" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="25"/>
       <c r="I178" s="19"/>
     </row>
     <row r="179" spans="1:9" ht="16.5" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="B179" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="25"/>
       <c r="I179" s="19"/>
     </row>
     <row r="180" spans="1:9" ht="16.5" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
+      <c r="B180" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H180" s="3" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="I180" s="19"/>
     </row>
@@ -3548,11 +3826,11 @@
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
+      <c r="E181" s="15"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="I181" s="19"/>
     </row>
@@ -3561,24 +3839,24 @@
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
+      <c r="E182" s="15"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="I182" s="19"/>
     </row>
     <row r="183" spans="1:9" ht="16.5" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="6"/>
+      <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="I183" s="19"/>
     </row>
@@ -3591,7 +3869,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="I184" s="19"/>
     </row>
@@ -3604,7 +3882,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I185" s="19"/>
     </row>
@@ -3617,20 +3895,20 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="I186" s="19"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="3"/>
+      <c r="B187" s="6"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="I187" s="19"/>
     </row>
@@ -3643,52 +3921,60 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I188" s="19"/>
     </row>
     <row r="189" spans="1:9" ht="16.5" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="I189" s="19"/>
     </row>
     <row r="190" spans="1:9" ht="16.5" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="I190" s="19"/>
     </row>
     <row r="191" spans="1:9" ht="16.5" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="I191" s="19"/>
     </row>
     <row r="192" spans="1:9" ht="16.5" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="I192" s="19"/>
     </row>
     <row r="193" spans="1:9" ht="16.5" customHeight="1">
@@ -12821,7 +13107,7 @@
       <c r="H1022" s="1"/>
       <c r="I1022" s="19"/>
     </row>
-    <row r="1023" spans="1:9" ht="15" customHeight="1">
+    <row r="1023" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1023" s="1"/>
       <c r="B1023" s="1"/>
       <c r="C1023" s="1"/>
@@ -12830,8 +13116,9 @@
       <c r="F1023" s="1"/>
       <c r="G1023" s="1"/>
       <c r="H1023" s="1"/>
-    </row>
-    <row r="1024" spans="1:9" ht="15" customHeight="1">
+      <c r="I1023" s="19"/>
+    </row>
+    <row r="1024" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1024" s="1"/>
       <c r="B1024" s="1"/>
       <c r="C1024" s="1"/>
@@ -12840,8 +13127,9 @@
       <c r="F1024" s="1"/>
       <c r="G1024" s="1"/>
       <c r="H1024" s="1"/>
-    </row>
-    <row r="1025" spans="1:8" ht="15" customHeight="1">
+      <c r="I1024" s="19"/>
+    </row>
+    <row r="1025" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1025" s="1"/>
       <c r="B1025" s="1"/>
       <c r="C1025" s="1"/>
@@ -12850,8 +13138,9 @@
       <c r="F1025" s="1"/>
       <c r="G1025" s="1"/>
       <c r="H1025" s="1"/>
-    </row>
-    <row r="1026" spans="1:8" ht="15" customHeight="1">
+      <c r="I1025" s="19"/>
+    </row>
+    <row r="1026" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1026" s="1"/>
       <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
@@ -12860,8 +13149,9 @@
       <c r="F1026" s="1"/>
       <c r="G1026" s="1"/>
       <c r="H1026" s="1"/>
-    </row>
-    <row r="1027" spans="1:8" ht="15" customHeight="1">
+      <c r="I1026" s="19"/>
+    </row>
+    <row r="1027" spans="1:9" ht="15" customHeight="1">
       <c r="A1027" s="1"/>
       <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
@@ -12871,39 +13161,47 @@
       <c r="G1027" s="1"/>
       <c r="H1027" s="1"/>
     </row>
-    <row r="1028" spans="1:8" ht="15" customHeight="1">
+    <row r="1028" spans="1:9" ht="15" customHeight="1">
       <c r="A1028" s="1"/>
       <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
       <c r="D1028" s="1"/>
       <c r="E1028" s="1"/>
       <c r="F1028" s="1"/>
-    </row>
-    <row r="1029" spans="1:8" ht="15" customHeight="1">
+      <c r="G1028" s="1"/>
+      <c r="H1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:9" ht="15" customHeight="1">
       <c r="A1029" s="1"/>
       <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
       <c r="D1029" s="1"/>
       <c r="E1029" s="1"/>
       <c r="F1029" s="1"/>
-    </row>
-    <row r="1030" spans="1:8" ht="15" customHeight="1">
+      <c r="G1029" s="1"/>
+      <c r="H1029" s="1"/>
+    </row>
+    <row r="1030" spans="1:9" ht="15" customHeight="1">
       <c r="A1030" s="1"/>
       <c r="B1030" s="1"/>
       <c r="C1030" s="1"/>
       <c r="D1030" s="1"/>
       <c r="E1030" s="1"/>
       <c r="F1030" s="1"/>
-    </row>
-    <row r="1031" spans="1:8" ht="15" customHeight="1">
+      <c r="G1030" s="1"/>
+      <c r="H1030" s="1"/>
+    </row>
+    <row r="1031" spans="1:9" ht="15" customHeight="1">
       <c r="A1031" s="1"/>
       <c r="B1031" s="1"/>
       <c r="C1031" s="1"/>
       <c r="D1031" s="1"/>
       <c r="E1031" s="1"/>
       <c r="F1031" s="1"/>
-    </row>
-    <row r="1032" spans="1:8" ht="15" customHeight="1">
+      <c r="G1031" s="1"/>
+      <c r="H1031" s="1"/>
+    </row>
+    <row r="1032" spans="1:9" ht="15" customHeight="1">
       <c r="A1032" s="1"/>
       <c r="B1032" s="1"/>
       <c r="C1032" s="1"/>
@@ -12911,7 +13209,7 @@
       <c r="E1032" s="1"/>
       <c r="F1032" s="1"/>
     </row>
-    <row r="1033" spans="1:8" ht="15" customHeight="1">
+    <row r="1033" spans="1:9" ht="15" customHeight="1">
       <c r="A1033" s="1"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
@@ -12919,7 +13217,7 @@
       <c r="E1033" s="1"/>
       <c r="F1033" s="1"/>
     </row>
-    <row r="1034" spans="1:8" ht="15" customHeight="1">
+    <row r="1034" spans="1:9" ht="15" customHeight="1">
       <c r="A1034" s="1"/>
       <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
@@ -12927,7 +13225,7 @@
       <c r="E1034" s="1"/>
       <c r="F1034" s="1"/>
     </row>
-    <row r="1035" spans="1:8" ht="15" customHeight="1">
+    <row r="1035" spans="1:9" ht="15" customHeight="1">
       <c r="A1035" s="1"/>
       <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
@@ -12935,7 +13233,7 @@
       <c r="E1035" s="1"/>
       <c r="F1035" s="1"/>
     </row>
-    <row r="1036" spans="1:8" ht="15" customHeight="1">
+    <row r="1036" spans="1:9" ht="15" customHeight="1">
       <c r="A1036" s="1"/>
       <c r="B1036" s="1"/>
       <c r="C1036" s="1"/>
@@ -12943,7 +13241,7 @@
       <c r="E1036" s="1"/>
       <c r="F1036" s="1"/>
     </row>
-    <row r="1037" spans="1:8" ht="15" customHeight="1">
+    <row r="1037" spans="1:9" ht="15" customHeight="1">
       <c r="A1037" s="1"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
@@ -12951,7 +13249,7 @@
       <c r="E1037" s="1"/>
       <c r="F1037" s="1"/>
     </row>
-    <row r="1038" spans="1:8" ht="15" customHeight="1">
+    <row r="1038" spans="1:9" ht="15" customHeight="1">
       <c r="A1038" s="1"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
@@ -12959,7 +13257,7 @@
       <c r="E1038" s="1"/>
       <c r="F1038" s="1"/>
     </row>
-    <row r="1039" spans="1:8" ht="15" customHeight="1">
+    <row r="1039" spans="1:9" ht="15" customHeight="1">
       <c r="A1039" s="1"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
@@ -12967,7 +13265,7 @@
       <c r="E1039" s="1"/>
       <c r="F1039" s="1"/>
     </row>
-    <row r="1040" spans="1:8" ht="15" customHeight="1">
+    <row r="1040" spans="1:9" ht="15" customHeight="1">
       <c r="A1040" s="1"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
@@ -13112,6 +13410,7 @@
       <c r="F1057" s="1"/>
     </row>
     <row r="1058" spans="1:6" ht="15" customHeight="1">
+      <c r="A1058" s="1"/>
       <c r="B1058" s="1"/>
       <c r="C1058" s="1"/>
       <c r="D1058" s="1"/>
@@ -13119,6 +13418,7 @@
       <c r="F1058" s="1"/>
     </row>
     <row r="1059" spans="1:6" ht="15" customHeight="1">
+      <c r="A1059" s="1"/>
       <c r="B1059" s="1"/>
       <c r="C1059" s="1"/>
       <c r="D1059" s="1"/>
@@ -13126,6 +13426,7 @@
       <c r="F1059" s="1"/>
     </row>
     <row r="1060" spans="1:6" ht="15" customHeight="1">
+      <c r="A1060" s="1"/>
       <c r="B1060" s="1"/>
       <c r="C1060" s="1"/>
       <c r="D1060" s="1"/>
@@ -13133,6 +13434,7 @@
       <c r="F1060" s="1"/>
     </row>
     <row r="1061" spans="1:6" ht="15" customHeight="1">
+      <c r="A1061" s="1"/>
       <c r="B1061" s="1"/>
       <c r="C1061" s="1"/>
       <c r="D1061" s="1"/>
@@ -13146,8 +13448,45 @@
       <c r="E1062" s="1"/>
       <c r="F1062" s="1"/>
     </row>
+    <row r="1063" spans="1:6" ht="15" customHeight="1">
+      <c r="B1063" s="1"/>
+      <c r="C1063" s="1"/>
+      <c r="D1063" s="1"/>
+      <c r="E1063" s="1"/>
+      <c r="F1063" s="1"/>
+    </row>
+    <row r="1064" spans="1:6" ht="15" customHeight="1">
+      <c r="B1064" s="1"/>
+      <c r="C1064" s="1"/>
+      <c r="D1064" s="1"/>
+      <c r="E1064" s="1"/>
+      <c r="F1064" s="1"/>
+    </row>
+    <row r="1065" spans="1:6" ht="15" customHeight="1">
+      <c r="B1065" s="1"/>
+      <c r="C1065" s="1"/>
+      <c r="D1065" s="1"/>
+      <c r="E1065" s="1"/>
+      <c r="F1065" s="1"/>
+    </row>
+    <row r="1066" spans="1:6" ht="15" customHeight="1">
+      <c r="B1066" s="1"/>
+      <c r="C1066" s="1"/>
+      <c r="D1066" s="1"/>
+      <c r="E1066" s="1"/>
+      <c r="F1066" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="C178:H178"/>
+    <mergeCell ref="C179:H179"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C117:H117"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C50:H50"/>
@@ -13158,19 +13497,11 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="C174:H174"/>
-    <mergeCell ref="C175:H175"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C117:H117"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13182,24 +13513,24 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" customWidth="1"/>
-    <col min="5" max="5" width="69.21875" customWidth="1"/>
-    <col min="6" max="26" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\teamproject\DoZip\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958D4986-4738-4DCB-A456-1BF2EB6FAC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4415F3-41EC-4602-B097-0FD83C59B03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14430" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="213">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -1315,6 +1315,30 @@
   </si>
   <si>
     <t>답글 step(원본글:0)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴여부(가입 1, 탈퇴 2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pState</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴사유</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pDelcont</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDeldate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pDate</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1624,13 +1648,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,7 +1660,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1883,47 +1907,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1066"/>
+  <dimension ref="A1:Q1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="25.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" style="18" customWidth="1"/>
-    <col min="10" max="25" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="18" customWidth="1"/>
+    <col min="10" max="25" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -1941,27 +1965,27 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
@@ -2178,7 +2202,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1">
+    <row r="17" spans="1:17" ht="16.5" customHeight="1">
       <c r="B17" s="21" t="s">
         <v>173</v>
       </c>
@@ -2199,7 +2223,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1">
+    <row r="18" spans="1:17" ht="16.5" customHeight="1">
       <c r="B18" s="21" t="s">
         <v>172</v>
       </c>
@@ -2220,7 +2244,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" customHeight="1">
+    <row r="19" spans="1:17" ht="16.5" customHeight="1">
       <c r="B19" s="21" t="s">
         <v>175</v>
       </c>
@@ -2239,7 +2263,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1">
+    <row r="20" spans="1:17" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2250,36 +2274,58 @@
       <c r="H20" s="1"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5" customHeight="1">
+    <row r="21" spans="1:17" ht="16.5" customHeight="1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="16.5" customHeight="1">
+    <row r="22" spans="1:17" ht="16.5" customHeight="1">
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" customHeight="1">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="K22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" customHeight="1">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="K23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="25"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
         <v>3</v>
       </c>
@@ -2301,8 +2347,29 @@
       <c r="H24" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" customHeight="1">
+      <c r="K24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" customHeight="1">
       <c r="B25" s="13" t="s">
         <v>137</v>
       </c>
@@ -2324,8 +2391,19 @@
       <c r="H25" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" customHeight="1">
       <c r="B26" s="13" t="s">
         <v>136</v>
       </c>
@@ -2345,8 +2423,15 @@
       <c r="H26" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" customHeight="1">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" customHeight="1">
       <c r="B27" s="13" t="s">
         <v>138</v>
       </c>
@@ -2366,8 +2451,15 @@
       <c r="H27" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" customHeight="1">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="16.5" customHeight="1">
       <c r="B28" s="13" t="s">
         <v>139</v>
       </c>
@@ -2387,8 +2479,15 @@
       <c r="H28" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" customHeight="1">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" customHeight="1">
       <c r="B29" s="13" t="s">
         <v>140</v>
       </c>
@@ -2408,8 +2507,15 @@
       <c r="H29" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" customHeight="1">
+      <c r="K29" s="6"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" customHeight="1">
       <c r="B30" s="13" t="s">
         <v>141</v>
       </c>
@@ -2429,8 +2535,15 @@
       <c r="H30" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" customHeight="1">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" customHeight="1">
       <c r="B31" s="13" t="s">
         <v>143</v>
       </c>
@@ -2450,8 +2563,15 @@
       <c r="H31" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" customHeight="1">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" ht="16.5" customHeight="1">
       <c r="B32" s="13" t="s">
         <v>142</v>
       </c>
@@ -2471,177 +2591,135 @@
       <c r="H32" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" customHeight="1">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B33" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="13">
+        <v>15</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B34" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="13">
+        <v>15</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="13">
+        <v>400</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="13">
+        <v>5</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="13">
         <v>1</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" customHeight="1">
+      <c r="H36" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="I37" s="19"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" customHeight="1">
+    <row r="38" spans="1:17" ht="16.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" customHeight="1">
+    <row r="39" spans="1:17" ht="16.5" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
       <c r="I39" s="19"/>
     </row>
-    <row r="40" spans="1:9" ht="16.5" customHeight="1">
+    <row r="40" spans="1:17" ht="16.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="41" spans="1:17" ht="16.5" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="42" spans="1:17" ht="16.5" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="43" spans="1:17" ht="16.5" customHeight="1"/>
+    <row r="44" spans="1:17" ht="16.5" customHeight="1"/>
+    <row r="45" spans="1:17" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:17" ht="16.5" customHeight="1"/>
+    <row r="47" spans="1:17" ht="16.5" customHeight="1">
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" customHeight="1">
+    <row r="48" spans="1:17" ht="16.5" customHeight="1">
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -2653,28 +2731,28 @@
       <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
       <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1">
@@ -3017,27 +3095,27 @@
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="B83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="27"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="B84" s="3" t="s">
@@ -3374,14 +3452,14 @@
       <c r="B116" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="27"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="25"/>
       <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" customHeight="1">
@@ -3389,14 +3467,14 @@
       <c r="B117" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="27"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="25"/>
       <c r="I117" s="19"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1">
@@ -3565,28 +3643,28 @@
       <c r="B132" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="27"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="25"/>
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1">
       <c r="B133" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="27"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="25"/>
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
@@ -3921,14 +3999,14 @@
       <c r="B160" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="24"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="28"/>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
@@ -3936,14 +4014,14 @@
       <c r="B161" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C161" s="22" t="s">
+      <c r="C161" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="24"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="28"/>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
@@ -4271,14 +4349,14 @@
       <c r="B178" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="26"/>
-      <c r="H178" s="27"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="25"/>
       <c r="I178" s="19"/>
     </row>
     <row r="179" spans="1:9" ht="16.5" customHeight="1">
@@ -4286,14 +4364,14 @@
       <c r="B179" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C179" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26"/>
-      <c r="H179" s="27"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="25"/>
       <c r="I179" s="19"/>
     </row>
     <row r="180" spans="1:9" ht="16.5" customHeight="1">
@@ -13978,16 +14056,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C35:H35"/>
     <mergeCell ref="C160:H160"/>
     <mergeCell ref="C161:H161"/>
     <mergeCell ref="C178:H178"/>
@@ -13997,6 +14065,16 @@
     <mergeCell ref="C132:H132"/>
     <mergeCell ref="C133:H133"/>
     <mergeCell ref="C117:H117"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="L22:Q22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -14013,14 +14091,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" customWidth="1"/>
-    <col min="5" max="5" width="69.26953125" customWidth="1"/>
-    <col min="6" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4415F3-41EC-4602-B097-0FD83C59B03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8236FF82-8248-48F8-93AE-5A9D8CA53853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14430" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>tc={6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}</author>
   </authors>
   <commentList>
-    <comment ref="H165" authorId="0" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+    <comment ref="H166" authorId="0" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="217">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t>대표자이름</t>
-  </si>
-  <si>
-    <t>대표자 연락처</t>
   </si>
   <si>
     <t>null</t>
@@ -1062,10 +1059,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>pMail</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>그외 파트너스의 정보를 담는 테이블</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1339,6 +1332,29 @@
   </si>
   <si>
     <t>pDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pMail_domain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자 이메일 도메인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pMail_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자 연락처</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1648,7 +1664,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,13 +1682,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1907,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1066"/>
+  <dimension ref="A1:Q1067"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1928,26 +1944,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -1965,27 +1981,27 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="C5" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
@@ -1998,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>6</v>
@@ -2012,255 +2028,255 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="13">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="13">
         <v>20</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="13">
         <v>20</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="13">
         <v>20</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="13">
         <v>20</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="13">
         <v>20</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="13">
         <v>100</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1">
       <c r="B15" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="20">
         <v>100</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1">
       <c r="B16" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="21">
         <v>20</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1">
       <c r="B17" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="21">
         <v>20</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1">
       <c r="B18" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="21">
         <v>10</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="21">
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1">
       <c r="B19" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="21">
         <v>20</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1">
@@ -2281,49 +2297,49 @@
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="K22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
+      <c r="L22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="K23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
+      <c r="L23" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
@@ -2336,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>6</v>
@@ -2357,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>6</v>
@@ -2371,13 +2387,13 @@
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="D25" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>10</v>
@@ -2385,9 +2401,7 @@
       <c r="F25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" s="13"/>
       <c r="H25" s="13" t="s">
         <v>15</v>
       </c>
@@ -2395,7 +2409,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -2405,10 +2419,10 @@
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="D26" s="13">
         <v>20</v>
@@ -2417,11 +2431,9 @@
       <c r="F26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2433,10 +2445,10 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="D27" s="13">
         <v>20</v>
@@ -2445,9 +2457,7 @@
       <c r="F27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
         <v>13</v>
       </c>
@@ -2461,10 +2471,10 @@
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="D28" s="13">
         <v>20</v>
@@ -2473,9 +2483,7 @@
       <c r="F28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
         <v>14</v>
       </c>
@@ -2489,10 +2497,10 @@
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="D29" s="13">
         <v>10</v>
@@ -2501,9 +2509,7 @@
       <c r="F29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" s="13"/>
       <c r="H29" s="13" t="s">
         <v>16</v>
       </c>
@@ -2517,10 +2523,10 @@
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="D30" s="13">
         <v>12</v>
@@ -2529,11 +2535,9 @@
       <c r="F30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2545,23 +2549,21 @@
     </row>
     <row r="31" spans="1:17" ht="16.5" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="D31" s="13">
         <v>30</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G31" s="13"/>
       <c r="H31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2573,23 +2575,21 @@
     </row>
     <row r="32" spans="1:17" ht="16.5" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="D32" s="13">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G32" s="13"/>
       <c r="H32" s="13" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2602,23 +2602,23 @@
     <row r="33" spans="1:17" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="13" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="D33" s="13">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2631,41 +2631,43 @@
     <row r="34" spans="1:17" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="D34" s="13">
         <v>15</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="H34" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="D35" s="13">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" customHeight="1">
@@ -2673,25 +2675,42 @@
       <c r="B36" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>133</v>
+      <c r="C36" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="D36" s="13">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="13">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" s="13"/>
       <c r="H36" s="13" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
+      <c r="B37" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="13">
+        <v>5</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>205</v>
+      </c>
       <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:17" ht="16.5" customHeight="1">
@@ -2715,10 +2734,7 @@
     <row r="44" spans="1:17" ht="16.5" customHeight="1"/>
     <row r="45" spans="1:17" ht="16.5" customHeight="1"/>
     <row r="46" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="47" spans="1:17" ht="16.5" customHeight="1">
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
+    <row r="47" spans="1:17" ht="16.5" customHeight="1"/>
     <row r="48" spans="1:17" ht="16.5" customHeight="1">
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2728,70 +2744,59 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1">
       <c r="B52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="E53" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="I53" s="19"/>
     </row>
@@ -2799,15 +2804,15 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" customHeight="1">
@@ -2815,11 +2820,15 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1">
@@ -2831,7 +2840,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1">
@@ -2842,7 +2851,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1">
@@ -2853,7 +2862,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" customHeight="1">
@@ -2864,7 +2873,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1">
@@ -2875,7 +2884,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" customHeight="1">
@@ -2886,7 +2895,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" customHeight="1">
@@ -2897,7 +2906,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I62" s="19"/>
     </row>
@@ -2909,7 +2918,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I63" s="19"/>
     </row>
@@ -2921,7 +2930,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I64" s="19"/>
     </row>
@@ -2933,7 +2942,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I65" s="19"/>
     </row>
@@ -2945,7 +2954,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="16.5" customHeight="1">
@@ -2956,7 +2965,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="16.5" customHeight="1">
@@ -2967,7 +2976,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="16.5" customHeight="1">
@@ -2978,7 +2987,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="16.5" customHeight="1">
@@ -2989,7 +2998,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="16.5" customHeight="1">
@@ -3000,7 +3009,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="16.5" customHeight="1">
@@ -3011,7 +3020,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="16.5" customHeight="1">
@@ -3033,7 +3042,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="16.5" customHeight="1">
@@ -3044,7 +3053,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="16.5" customHeight="1">
@@ -3055,7 +3064,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I76" s="19"/>
     </row>
@@ -3066,7 +3075,9 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="I77" s="19"/>
     </row>
     <row r="78" spans="2:9" ht="16.5" customHeight="1">
@@ -3080,8 +3091,13 @@
       <c r="I78" s="19"/>
     </row>
     <row r="79" spans="2:9" ht="16.5" customHeight="1">
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
     </row>
     <row r="80" spans="2:9" ht="16.5" customHeight="1">
       <c r="G80" s="1"/>
@@ -3092,67 +3108,56 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="B83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="B84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B85" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="E85" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
@@ -3160,15 +3165,15 @@
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1">
@@ -3177,10 +3182,10 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
@@ -3191,11 +3196,15 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" customHeight="1">
@@ -3206,7 +3215,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.5" customHeight="1">
@@ -3217,7 +3226,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" customHeight="1">
@@ -3228,7 +3237,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16.5" customHeight="1">
@@ -3239,7 +3248,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16.5" customHeight="1">
@@ -3250,7 +3259,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.5" customHeight="1">
@@ -3261,7 +3270,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" customHeight="1">
@@ -3272,7 +3281,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.5" customHeight="1">
@@ -3283,7 +3292,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="16.5" customHeight="1">
@@ -3294,7 +3303,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="16.5" customHeight="1">
@@ -3305,7 +3314,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="16.5" customHeight="1">
@@ -3316,7 +3325,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="16.5" customHeight="1">
@@ -3327,7 +3336,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="16.5" customHeight="1">
@@ -3337,7 +3346,9 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="102" spans="2:9" ht="16.5" customHeight="1">
       <c r="B102" s="3"/>
@@ -3346,9 +3357,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="H102" s="3"/>
     </row>
     <row r="103" spans="2:9" ht="16.5" customHeight="1">
       <c r="B103" s="3"/>
@@ -3357,7 +3366,9 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="H103" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="104" spans="2:9" ht="16.5" customHeight="1">
       <c r="B104" s="3"/>
@@ -3384,9 +3395,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="11" t="s">
-        <v>111</v>
-      </c>
+      <c r="H106" s="3"/>
     </row>
     <row r="107" spans="2:9" ht="16.5" customHeight="1">
       <c r="B107" s="3"/>
@@ -3395,7 +3404,9 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
+      <c r="H107" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="108" spans="2:9" ht="16.5" customHeight="1">
       <c r="B108" s="3"/>
@@ -3425,8 +3436,13 @@
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="2:9" ht="16.5" customHeight="1">
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
     </row>
     <row r="112" spans="2:9" ht="16.5" customHeight="1">
       <c r="G112" s="1"/>
@@ -3449,70 +3465,61 @@
       <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B116" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="25"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
       <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
       <c r="I117" s="19"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="19"/>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F118" s="3" t="s">
+      <c r="E119" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G119" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H119" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I118" s="19"/>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="I119" s="19"/>
     </row>
@@ -3521,12 +3528,12 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I120" s="19"/>
     </row>
@@ -3535,7 +3542,7 @@
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -3548,35 +3555,37 @@
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I122" s="19"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B123" s="6"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B124" s="3"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I124" s="19"/>
     </row>
@@ -3588,7 +3597,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I125" s="19"/>
     </row>
@@ -3599,12 +3608,19 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
       <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1">
@@ -3619,11 +3635,6 @@
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="19"/>
@@ -3640,68 +3651,64 @@
       <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="25"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1">
       <c r="B133" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="25"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="27"/>
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
       <c r="B134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="19"/>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B135" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F134" s="3" t="s">
+      <c r="E135" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I134" s="19"/>
-    </row>
-    <row r="135" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="I135" s="19"/>
     </row>
@@ -3710,7 +3717,7 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -3723,11 +3730,13 @@
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I137" s="19"/>
     </row>
@@ -3739,7 +3748,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I138" s="19"/>
     </row>
@@ -3751,7 +3760,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I139" s="19"/>
     </row>
@@ -3763,7 +3772,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="I140" s="19"/>
     </row>
@@ -3775,7 +3784,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I141" s="19"/>
     </row>
@@ -3787,7 +3796,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="I142" s="19"/>
     </row>
@@ -3799,7 +3808,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I143" s="19"/>
     </row>
@@ -3811,7 +3820,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="I144" s="19"/>
     </row>
@@ -3823,7 +3832,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="I145" s="19"/>
     </row>
@@ -3835,7 +3844,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="I146" s="19"/>
     </row>
@@ -3847,7 +3856,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="I147" s="19"/>
     </row>
@@ -3859,7 +3868,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I148" s="19"/>
     </row>
@@ -3871,7 +3880,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I149" s="19"/>
     </row>
@@ -3883,7 +3892,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I150" s="19"/>
     </row>
@@ -3895,7 +3904,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I151" s="19"/>
     </row>
@@ -3907,7 +3916,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I152" s="19"/>
     </row>
@@ -3919,7 +3928,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I153" s="19"/>
     </row>
@@ -3931,7 +3940,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I154" s="19"/>
     </row>
@@ -3943,7 +3952,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I155" s="19"/>
     </row>
@@ -3955,7 +3964,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I156" s="19"/>
     </row>
@@ -3968,19 +3977,21 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I157" s="19"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:9" ht="16.5" customHeight="1">
@@ -3996,330 +4007,330 @@
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="28"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C161" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="24"/>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F162" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G162" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H162" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="B162" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="24"/>
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D163" s="13">
-        <v>38</v>
-      </c>
-      <c r="E163" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F163" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G163" s="13"/>
-      <c r="H163" s="13" t="s">
-        <v>188</v>
+      <c r="B163" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F163" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H163" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="I163" s="19"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="13" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>132</v>
       </c>
       <c r="D164" s="13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G164" s="13"/>
       <c r="H164" s="13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I164" s="19"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="13" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D165" s="13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G165" s="13"/>
       <c r="H165" s="13" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="I165" s="19"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="13" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>132</v>
       </c>
       <c r="D166" s="13">
-        <v>20</v>
-      </c>
-      <c r="E166" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="F166" s="13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G166" s="13"/>
       <c r="H166" s="13" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="I166" s="19"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D167" s="13">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E167" s="13"/>
       <c r="F167" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G167" s="13"/>
       <c r="H167" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I167" s="19"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D168" s="13">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="E168" s="13"/>
       <c r="F168" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G168" s="13"/>
       <c r="H168" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I168" s="19"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D169" s="13">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>190</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G169" s="13"/>
       <c r="H169" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I169" s="19"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D170" s="13">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E170" s="13"/>
       <c r="F170" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G170" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="H170" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I170" s="19"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D171" s="13">
         <v>38</v>
       </c>
       <c r="E171" s="13"/>
       <c r="F171" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G171" s="13"/>
       <c r="H171" s="13" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="I171" s="19"/>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D172" s="13">
         <v>38</v>
       </c>
       <c r="E172" s="13"/>
       <c r="F172" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G172" s="13"/>
       <c r="H172" s="13" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="I172" s="19"/>
     </row>
     <row r="173" spans="1:9" ht="16.5" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>132</v>
       </c>
       <c r="D173" s="13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G173" s="13" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G173" s="13"/>
       <c r="H173" s="13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I173" s="19"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D174" s="13">
         <v>20</v>
       </c>
       <c r="E174" s="13"/>
       <c r="F174" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G174" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>190</v>
+      </c>
       <c r="H174" s="13" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="I174" s="19"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
+      <c r="B175" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D175" s="13">
+        <v>20</v>
+      </c>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="I175" s="19"/>
     </row>
     <row r="176" spans="1:9" ht="16.5" customHeight="1">
@@ -4346,69 +4357,67 @@
     </row>
     <row r="178" spans="1:9" ht="16.5" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="25"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
       <c r="I178" s="19"/>
     </row>
     <row r="179" spans="1:9" ht="16.5" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C179" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
-      <c r="H179" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="C179" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="27"/>
       <c r="I179" s="19"/>
     </row>
     <row r="180" spans="1:9" ht="16.5" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="26"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="27"/>
       <c r="I180" s="19"/>
     </row>
     <row r="181" spans="1:9" ht="16.5" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
+      <c r="B181" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H181" s="3" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="I181" s="19"/>
     </row>
@@ -4421,7 +4430,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="I182" s="19"/>
     </row>
@@ -4430,11 +4439,11 @@
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
+      <c r="E183" s="15"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I183" s="19"/>
     </row>
@@ -4447,7 +4456,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="I184" s="19"/>
     </row>
@@ -4460,7 +4469,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I185" s="19"/>
     </row>
@@ -4473,33 +4482,33 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="I186" s="19"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="6"/>
+      <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="I187" s="19"/>
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="3"/>
+      <c r="B188" s="6"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="I188" s="19"/>
     </row>
@@ -4512,7 +4521,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I189" s="19"/>
     </row>
@@ -4525,7 +4534,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I190" s="19"/>
     </row>
@@ -4538,7 +4547,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I191" s="19"/>
     </row>
@@ -4551,19 +4560,21 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I192" s="19"/>
     </row>
     <row r="193" spans="1:9" ht="16.5" customHeight="1">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="I193" s="19"/>
     </row>
     <row r="194" spans="1:9" ht="16.5" customHeight="1">
@@ -13786,6 +13797,8 @@
       <c r="D1032" s="1"/>
       <c r="E1032" s="1"/>
       <c r="F1032" s="1"/>
+      <c r="G1032" s="1"/>
+      <c r="H1032" s="1"/>
     </row>
     <row r="1033" spans="1:9" ht="15" customHeight="1">
       <c r="A1033" s="1"/>
@@ -14054,27 +14067,34 @@
       <c r="E1066" s="1"/>
       <c r="F1066" s="1"/>
     </row>
+    <row r="1067" spans="1:6" ht="15" customHeight="1">
+      <c r="B1067" s="1"/>
+      <c r="C1067" s="1"/>
+      <c r="D1067" s="1"/>
+      <c r="E1067" s="1"/>
+      <c r="F1067" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="C178:H178"/>
-    <mergeCell ref="C179:H179"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C117:H117"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="C50:H50"/>
     <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C117:H117"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="C162:H162"/>
+    <mergeCell ref="C179:H179"/>
+    <mergeCell ref="C180:H180"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C118:H118"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -14103,7 +14123,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -14112,16 +14132,16 @@
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>8</v>
@@ -14129,70 +14149,70 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\teamproject\DoZip\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\TeamProject\TeamDoZip\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4415F3-41EC-4602-B097-0FD83C59B03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A25D59-1A87-4C4E-8523-82551179340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14430" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -23,516 +23,27 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={429FC897-D674-4B07-BD63-9DF9A7733D31}</author>
     <author>tc={6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}</author>
   </authors>
   <commentList>
-    <comment ref="H165" authorId="0" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{429FC897-D674-4B07-BD63-9DF9A7733D31}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>댓글</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">:
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>업체</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>문의라면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>컬럼에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>값을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>넣음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>.
-null</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>인</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>경우에는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>관리자문의가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>됨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>테이블은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> null </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>허용으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>하고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>업체문의를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>통해</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>글을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>작성하는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>유효성</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>검증으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>사업자번호를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>넣게</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>예정</t>
-        </r>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Int 타입은 값이 없으면  0으로 나타나서 뷰페이지에서 값이 없으면 0으로 뜸. null값으로 받기 위해서 string 타입으로 변경</t>
+      </text>
+    </comment>
+    <comment ref="H165" authorId="1" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    업체 문의라면 해당 컬럼에 값을 넣음.
+null인 경우에는 관리자문의가 됨.
+테이블은 null 허용으로 하고,
+업체문의를 통해 글을 작성하는 경우 유효성 검증으로 사업자번호를 넣게 할 예정</t>
       </text>
     </comment>
   </commentList>
@@ -1402,12 +913,10 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1648,7 +1157,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,13 +1175,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1896,6 +1405,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C13" dT="2022-09-18T16:35:04.75" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{429FC897-D674-4B07-BD63-9DF9A7733D31}">
+    <text>Int 타입은 값이 없으면  0으로 나타나서 뷰페이지에서 값이 없으면 0으로 뜸. null값으로 받기 위해서 string 타입으로 변경</text>
+  </threadedComment>
   <threadedComment ref="H165" dT="2022-09-15T04:33:24.07" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
     <text>업체 문의라면 해당 컬럼에 값을 넣음.
 null인 경우에는 관리자문의가 됨.
@@ -1909,45 +1421,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="18" customWidth="1"/>
-    <col min="10" max="25" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="18" customWidth="1"/>
+    <col min="10" max="25" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -1965,27 +1477,27 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
@@ -2131,7 +1643,7 @@
         <v>163</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -2281,49 +1793,49 @@
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="K22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="K23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
@@ -2731,28 +2243,28 @@
       <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
       <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1">
@@ -3095,27 +2607,27 @@
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="B83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="25"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="B84" s="3" t="s">
@@ -3452,14 +2964,14 @@
       <c r="B116" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="25"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="27"/>
       <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" customHeight="1">
@@ -3467,14 +2979,14 @@
       <c r="B117" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C117" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="25"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
       <c r="I117" s="19"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1">
@@ -3643,28 +3155,28 @@
       <c r="B132" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="25"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="27"/>
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1">
       <c r="B133" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="25"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="27"/>
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
@@ -3999,14 +3511,14 @@
       <c r="B160" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="28"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="24"/>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
@@ -4014,14 +3526,14 @@
       <c r="B161" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="28"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="24"/>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
@@ -4349,14 +3861,14 @@
       <c r="B178" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C178" s="23" t="s">
+      <c r="C178" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="25"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="27"/>
       <c r="I178" s="19"/>
     </row>
     <row r="179" spans="1:9" ht="16.5" customHeight="1">
@@ -4364,14 +3876,14 @@
       <c r="B179" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C179" s="23" t="s">
+      <c r="C179" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
-      <c r="H179" s="25"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="27"/>
       <c r="I179" s="19"/>
     </row>
     <row r="180" spans="1:9" ht="16.5" customHeight="1">
@@ -14056,15 +13568,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="C178:H178"/>
-    <mergeCell ref="C179:H179"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C117:H117"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="C50:H50"/>
@@ -14075,6 +13578,15 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="C178:H178"/>
+    <mergeCell ref="C179:H179"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C117:H117"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -14091,14 +13603,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="69.28515625" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="69.33203125" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8236FF82-8248-48F8-93AE-5A9D8CA53853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA05B302-0262-4AA8-B017-55FC41C88796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,19 @@
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
     <sheet name="쿼리문" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,513 +38,15 @@
     <author>tc={6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}</author>
   </authors>
   <commentList>
-    <comment ref="H166" authorId="0" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+    <comment ref="H153" authorId="0" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>댓글</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">:
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>업체</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>문의라면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>컬럼에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>값을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>넣음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>.
-null</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>인</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>경우에는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>관리자문의가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>됨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>테이블은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> null </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>허용으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>하고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>업체문의를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>통해</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>글을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>작성하는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>유효성</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>검증으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>사업자번호를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>넣게</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>예정</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    업체 문의라면 해당 컬럼에 값을 넣음.
+null인 경우에는 관리자문의가 됨.
+테이블은 null 허용으로 하고,
+업체문의를 통해 글을 작성하는 경우 유효성 검증으로 사업자번호를 넣게 할 예정</t>
       </text>
     </comment>
   </commentList>
@@ -540,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="214">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -548,9 +62,17 @@
     <t>테이블명</t>
   </si>
   <si>
+    <t>memberT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>테이블설명</t>
   </si>
   <si>
+    <t>회원 정보를 담는 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>컬럼명</t>
   </si>
   <si>
@@ -558,187 +80,530 @@
   </si>
   <si>
     <t>길이</t>
-  </si>
-  <si>
-    <t>Null 여부</t>
-  </si>
-  <si>
-    <t>디폴트값</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>회원가입시 필요한 파트너스의 정보를 담는 테이블</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>not null</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>아이디</t>
-  </si>
-  <si>
-    <t>비밀번호</t>
-  </si>
-  <si>
-    <t>사업자번호</t>
-  </si>
-  <si>
-    <t>대표자이름</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>영업장 주소</t>
-  </si>
-  <si>
-    <t>partnersT_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">각자 필요한 메서드, 쿼리문 만들어서 기록해두고 나중에 공유해요~~ </t>
-  </si>
-  <si>
-    <t>UI Class</t>
-  </si>
-  <si>
-    <t>DAO Class</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>SQL쿼리문장</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>ImsiDAO</t>
-  </si>
-  <si>
-    <t>logincheck(Login login)</t>
-  </si>
-  <si>
-    <t>insert into imsi_table (m_id) values(?)</t>
-  </si>
-  <si>
-    <t>저장된 값이 없으면 임시테이블에 로그인하는 회원 아이디를 insert하는 메서드</t>
-  </si>
-  <si>
-    <t>check()</t>
-  </si>
-  <si>
-    <t>select count(*) from imsi_table</t>
-  </si>
-  <si>
-    <t>임시 테이블에 레코드가 있는지 확인하는 메서드</t>
-  </si>
-  <si>
-    <t>imsi_delete()</t>
-  </si>
-  <si>
-    <t>delete from imsi_table</t>
-  </si>
-  <si>
-    <t>임시 테이블에 저장되어 있는 값을 제거하는 메서드</t>
-  </si>
-  <si>
-    <t>BuyTicket_Pay</t>
-  </si>
-  <si>
-    <t>imsi_select()</t>
-  </si>
-  <si>
-    <t>select*from imsi_table</t>
-  </si>
-  <si>
-    <t>임시테이블에 저장되어있는 예매 정보를 불러옴</t>
   </si>
   <si>
     <t>key(PK,FK)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Null 여부</t>
+  </si>
+  <si>
+    <t>디폴트값</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>mem_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_pwd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원비밀번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_tel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_email</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_domain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일DOMAIN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_zip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_addr1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_addr2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_joinType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입유형</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_joinDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입날짜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_withdraw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴여부(탈퇴:1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_withdrawDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴날짜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnersT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnersT_sub</t>
+  </si>
+  <si>
+    <t>회원가입시 필요한 파트너스의 정보를 담는 테이블</t>
+  </si>
+  <si>
+    <t>그외 파트너스의 정보를 담는 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>사업자번호</t>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>pPw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>pName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자이름</t>
+  </si>
+  <si>
+    <t>pTel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+  </si>
+  <si>
+    <t>대표자 연락처</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pMail_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자 이메일 ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pMail_domain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자 이메일 도메인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pAddress</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>영업장 주소</t>
+  </si>
+  <si>
+    <t>pDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDeldate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pDelcont</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴사유</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pState</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴여부(가입 1, 탈퇴 2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimateT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적서의 정보를 담는 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+  </si>
+  <si>
+    <t>고유번호 E00000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 유형(주거, 상가)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 유형</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>평수(평)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>평수(제곱미터)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부인테리어01</t>
+  </si>
+  <si>
+    <t>세부인테리어02</t>
+  </si>
+  <si>
+    <t>세부인테리어03</t>
+  </si>
+  <si>
+    <t>세부인테리어04</t>
+  </si>
+  <si>
+    <t>세부인테리어05</t>
+  </si>
+  <si>
+    <t>세부인테리어06</t>
+  </si>
+  <si>
+    <t>세부인테리어07</t>
+  </si>
+  <si>
+    <t>세부인테리어08</t>
+  </si>
+  <si>
+    <t>예산</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>희망시공 시작일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>희망시공 종료일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>견적신청 일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date+10</t>
+  </si>
+  <si>
+    <t>견적신청 마감일자(+10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>의뢰인 이름 입력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>의뢰인 휴대폰 번호 입력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타일 설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일첨부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 선택</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약서의 정보를 담는 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유번호(C000000)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 회원아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 사업자 번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사장소</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사면적</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사기간(착공)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사기간(준공)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>총공사대금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 지급일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>중도금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>중도금 지급일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔금 지급일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발주자 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰에 대한 정보를 담는 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>key (PK,FK)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FK</t>
+    <t>사업자번호</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>not null</t>
+    <t>업체명</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PK</t>
+    <t>업체가 올리는 입찰금액</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>회원아이디</t>
+    <t>공사기간 (7일, 10일 …)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>회원비밀번호</t>
+    <t>어필내용</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
+    <t>마감여부</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>연락처</t>
+    <t>portfolioT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">NULL </t>
+    <t>포트폴리오에 대한 정보를 담는 테이블</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>우편번호</t>
+    <t>글번호(시퀀스)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>주소1</t>
+    <t>파트너스 사업자번호</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>주소2</t>
+    <t>제목</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>이메일ID</t>
+    <t>공사유형</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>이메일DOMAIN</t>
+    <t>공사세부유형</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>대표자 이메일 ID</t>
+    <t>상세주소</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>estimateT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적서의 정보를 담는 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 유형(주거, 상가)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 유형</t>
+    <t>참고항목</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -746,100 +611,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>평수(평)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>평수(제곱미터)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>원하는공간선택 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>원하는공간선택 2</t>
-  </si>
-  <si>
-    <t>원하는공간선택 3</t>
-  </si>
-  <si>
-    <t>원하는공간선택 4</t>
-  </si>
-  <si>
-    <t>원하는공간선택 5</t>
-  </si>
-  <si>
-    <t>원하는공간선택 6</t>
-  </si>
-  <si>
-    <t>원하는공간선택 7</t>
-  </si>
-  <si>
-    <t>원하는공간선택 8</t>
-  </si>
-  <si>
-    <t>예산</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망시공 시작일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망시공 종료일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적신청 일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>의뢰인 휴대폰 번호 입력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>의뢰인 이름 입력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스타일 설명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일첨부</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체 선택</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적신청 마감일자(+10)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약서의 정보를 담는 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유번호 E00000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업자번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체가 올리는 입찰금액</t>
+    <t>공사비용</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -847,138 +619,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>공사기간 (7일, 10일 …)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어필내용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감여부</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bidT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰에 대한 정보를 담는 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유번호(C000000)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체 사업자 번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 회원아이디</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사장소</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사면적</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사기간(착공)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사기간(준공)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>총공사대금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>중도금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약금 지급일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>중도금 지급일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔금 지급일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">발주자 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>시공자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오에 대한 정보를 담는 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>portfolioT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파트너스 사업자번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호(시퀀스)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사유형</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사세부유형</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세주소</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고항목</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사비용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>시공컨셉</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1015,51 +655,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2</t>
+    <t>작성일자</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>partnersT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_num</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pPw</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pTel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pAddress</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그외 파트너스의 정보를 담는 테이블</t>
+    <t>customer_qnaT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1067,6 +667,94 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>qna_no</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체문의-사업자번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문유형</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_title</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글제목</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_cont</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글내용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_ref</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 ref (그룹번호)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_step</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 step(원본글:0)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 level (정렬순서)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미답변</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변상태</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>customer_review</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1075,6 +763,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>글번호</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1103,266 +795,71 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>작성일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객아이디</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_pwd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_tel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_domain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_zip</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_addr1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_addr2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보를 담는 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_email</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입유형</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_joinType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴여부(탈퇴:1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_withdraw</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_joinDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입날짜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_withdrawDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴날짜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysdate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_qnaT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객아이디</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문유형</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>글제목</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>글내용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글 level (정렬순서)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글 ref (그룹번호)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호(시퀀스)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysdate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변상태</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미답변</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_no</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체문의-사업자번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_title</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_cont</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_ref</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_step</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_level</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_state</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>reply_date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글 step(원본글:0)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴여부(가입 1, 탈퇴 2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pState</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴사유</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pDelcont</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDeldate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pMail_domain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표자 이메일 도메인</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pMail_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar2</t>
-  </si>
-  <si>
-    <t>nvarchar2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표자 연락처</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t xml:space="preserve">각자 필요한 메서드, 쿼리문 만들어서 기록해두고 나중에 공유해요~~ </t>
+  </si>
+  <si>
+    <t>UI Class</t>
+  </si>
+  <si>
+    <t>DAO Class</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>SQL쿼리문장</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>ImsiDAO</t>
+  </si>
+  <si>
+    <t>logincheck(Login login)</t>
+  </si>
+  <si>
+    <t>insert into imsi_table (m_id) values(?)</t>
+  </si>
+  <si>
+    <t>저장된 값이 없으면 임시테이블에 로그인하는 회원 아이디를 insert하는 메서드</t>
+  </si>
+  <si>
+    <t>check()</t>
+  </si>
+  <si>
+    <t>select count(*) from imsi_table</t>
+  </si>
+  <si>
+    <t>임시 테이블에 레코드가 있는지 확인하는 메서드</t>
+  </si>
+  <si>
+    <t>imsi_delete()</t>
+  </si>
+  <si>
+    <t>delete from imsi_table</t>
+  </si>
+  <si>
+    <t>임시 테이블에 저장되어 있는 값을 제거하는 메서드</t>
+  </si>
+  <si>
+    <t>BuyTicket_Pay</t>
+  </si>
+  <si>
+    <t>imsi_select()</t>
+  </si>
+  <si>
+    <t>select*from imsi_table</t>
+  </si>
+  <si>
+    <t>임시테이블에 저장되어있는 예매 정보를 불러옴</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,16 +914,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1472,6 +961,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1664,13 +1171,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,7 +1183,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1690,6 +1197,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1912,7 +1443,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H165" dT="2022-09-15T04:33:24.07" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+  <threadedComment ref="H153" dT="2022-09-15T04:33:24.07" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
     <text>업체 문의라면 해당 컬럼에 값을 넣음.
 null인 경우에는 관리자문의가 됨.
 테이블은 null 허용으로 하고,
@@ -1923,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1067"/>
+  <dimension ref="A1:Q1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1936,7 +1467,7 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="18" customWidth="1"/>
@@ -1944,26 +1475,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -1981,302 +1512,302 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D7" s="13">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D8" s="13">
         <v>20</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D9" s="13">
         <v>20</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D10" s="13">
         <v>20</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D11" s="13">
         <v>20</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D12" s="13">
         <v>20</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D14" s="13">
         <v>100</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1">
       <c r="B15" s="20" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D15" s="20">
         <v>100</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1">
       <c r="B16" s="21" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D16" s="21">
         <v>20</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="20" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1">
       <c r="B17" s="21" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D17" s="21">
         <v>20</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1">
       <c r="B18" s="21" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="D18" s="21">
         <v>10</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G18" s="21">
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1">
       <c r="B19" s="21" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D19" s="21">
         <v>20</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1">
@@ -2297,143 +1828,143 @@
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="C22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
       <c r="K22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
+      <c r="L22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
       <c r="K23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="16" t="s">
+      <c r="L24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="M24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="N24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="O24" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D25" s="13">
         <v>12</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D26" s="13">
         <v>20</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="13" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2445,21 +1976,21 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D27" s="13">
         <v>20</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2471,21 +2002,21 @@
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D28" s="13">
         <v>20</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2497,21 +2028,21 @@
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D29" s="13">
         <v>10</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="3"/>
@@ -2523,21 +2054,21 @@
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="D30" s="13">
         <v>12</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2549,21 +2080,21 @@
     </row>
     <row r="31" spans="1:17" ht="16.5" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D31" s="13">
         <v>30</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2575,21 +2106,21 @@
     </row>
     <row r="32" spans="1:17" ht="16.5" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D32" s="13">
         <v>30</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2602,23 +2133,23 @@
     <row r="33" spans="1:17" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="13" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D33" s="13">
         <v>500</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2631,85 +2162,85 @@
     <row r="34" spans="1:17" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="13" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D34" s="13">
         <v>15</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="13" t="s">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D35" s="13">
         <v>15</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="13" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D36" s="13">
         <v>400</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13" t="s">
-        <v>207</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="D37" s="13">
         <v>5</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G37" s="13">
         <v>1</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="I37" s="19"/>
     </row>
@@ -2718,345 +2249,539 @@
       <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A40" s="1"/>
+      <c r="B40" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A41" s="1"/>
+      <c r="B41" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="44" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="45" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="46" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="47" spans="1:17" ht="16.5" customHeight="1"/>
+      <c r="B42" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="1:17" ht="16.5" customHeight="1">
+      <c r="B43" s="37"/>
+      <c r="C43" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="16.5" customHeight="1">
+      <c r="B46" s="37"/>
+      <c r="C46" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="16.5" customHeight="1">
+      <c r="B47" s="37"/>
+      <c r="C47" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="48" spans="1:17" ht="16.5" customHeight="1">
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B51" s="3" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B50" s="37"/>
+      <c r="C50" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B52" s="37"/>
+      <c r="C52" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B53" s="37"/>
+      <c r="C53" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B54" s="37"/>
+      <c r="C54" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B55" s="37"/>
+      <c r="C55" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B56" s="37"/>
+      <c r="C56" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B57" s="37"/>
+      <c r="C57" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B58" s="37"/>
+      <c r="C58" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B59" s="37"/>
+      <c r="C59" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B60" s="37"/>
+      <c r="C60" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B61" s="37"/>
+      <c r="C61" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B62" s="37"/>
+      <c r="C62" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B63" s="37"/>
+      <c r="C63" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B64" s="37"/>
+      <c r="C64" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B65" s="37"/>
+      <c r="C65" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B66" s="37"/>
+      <c r="C66" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I66" s="19"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B53" s="3" t="s">
+      <c r="C70" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="C71" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="E72" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I63" s="19"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I64" s="19"/>
-    </row>
-    <row r="65" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I65" s="19"/>
-    </row>
-    <row r="66" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H72" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="16.5" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A73" s="1"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="E73" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="16.5" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="16.5" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" customHeight="1">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" ht="16.5" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" customHeight="1">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3064,11 +2789,10 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="2:9" ht="16.5" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" customHeight="1">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3076,387 +2800,401 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="2:9" ht="16.5" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" customHeight="1">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="19"/>
-    </row>
-    <row r="79" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H78" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" customHeight="1">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="2:9" ht="16.5" customHeight="1">
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" customHeight="1">
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" customHeight="1">
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="27"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="27"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B85" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H79" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A86" s="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="16.5" customHeight="1">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A87" s="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="16.5" customHeight="1">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="16.5" customHeight="1">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="16.5" customHeight="1">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="2:8" ht="16.5" customHeight="1">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H90" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="16.5" customHeight="1">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" ht="16.5" customHeight="1">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="2:8" ht="16.5" customHeight="1">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="2:8" ht="16.5" customHeight="1">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H94" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="16.5" customHeight="1">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="2:8" ht="16.5" customHeight="1">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" customHeight="1">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" customHeight="1">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-    </row>
-    <row r="105" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="19"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="19"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="19"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="19"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="19"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A104" s="1"/>
+      <c r="B104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="19"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A105" s="1"/>
+      <c r="B105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="19"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" s="19"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" customHeight="1">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H107" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I107" s="19"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" customHeight="1">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H108" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I108" s="19"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" customHeight="1">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H109" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I109" s="19"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" customHeight="1">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B111" s="3"/>
+      <c r="H110" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B111" s="6"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="2:9" ht="16.5" customHeight="1">
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
+      <c r="H111" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I111" s="19"/>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="I113" s="19"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
       <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" customHeight="1">
@@ -3471,97 +3209,80 @@
     </row>
     <row r="117" spans="1:9" ht="16.5" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="27"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
       <c r="I117" s="19"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="27"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
       <c r="I118" s="19"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="19"/>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="19"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B121" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="3" t="s">
+      <c r="C121" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="19"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B122" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I119" s="19"/>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I121" s="19"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="E122" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H122" s="3" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="I122" s="19"/>
     </row>
@@ -3569,23 +3290,27 @@
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B124" s="6"/>
+      <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I124" s="19"/>
     </row>
@@ -3597,7 +3322,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="I125" s="19"/>
     </row>
@@ -3609,7 +3334,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="I126" s="19"/>
     </row>
@@ -3620,95 +3345,104 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I128" s="19"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I129" s="19"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="I130" s="19"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B133" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="27"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="27"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="I134" s="19"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B135" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
       <c r="H135" s="3" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="I135" s="19"/>
     </row>
@@ -3716,13 +3450,11 @@
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="I136" s="19"/>
     </row>
@@ -3730,13 +3462,11 @@
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="I137" s="19"/>
     </row>
@@ -3748,7 +3478,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="I138" s="19"/>
     </row>
@@ -3760,7 +3490,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="I139" s="19"/>
     </row>
@@ -3772,7 +3502,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="I140" s="19"/>
     </row>
@@ -3784,7 +3514,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="I141" s="19"/>
     </row>
@@ -3796,7 +3526,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="I142" s="19"/>
     </row>
@@ -3808,11 +3538,12 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="I143" s="19"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A144" s="1"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -3820,11 +3551,12 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -3832,749 +3564,734 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="I145" s="19"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
       <c r="I146" s="19"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
       <c r="I147" s="19"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="28"/>
       <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="28"/>
       <c r="I149" s="19"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3" t="s">
-        <v>123</v>
+      <c r="A150" s="1"/>
+      <c r="B150" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="I150" s="19"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3" t="s">
-        <v>124</v>
+      <c r="A151" s="1"/>
+      <c r="B151" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="13">
+        <v>38</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="I151" s="19"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3" t="s">
-        <v>125</v>
+      <c r="A152" s="1"/>
+      <c r="B152" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="13">
+        <v>20</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="I152" s="19"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3" t="s">
-        <v>126</v>
+      <c r="A153" s="1"/>
+      <c r="B153" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" s="13">
+        <v>10</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="I153" s="19"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3" t="s">
-        <v>127</v>
+      <c r="A154" s="1"/>
+      <c r="B154" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="13">
+        <v>20</v>
+      </c>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="I154" s="19"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3" t="s">
-        <v>128</v>
+      <c r="A155" s="1"/>
+      <c r="B155" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="13">
+        <v>200</v>
+      </c>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="I155" s="19"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3" t="s">
-        <v>129</v>
+      <c r="A156" s="1"/>
+      <c r="B156" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="I156" s="19"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3" t="s">
-        <v>130</v>
+      <c r="B157" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="13">
+        <v>20</v>
+      </c>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="I157" s="19"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3" t="s">
-        <v>153</v>
+      <c r="B158" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="13">
+        <v>38</v>
+      </c>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:9" ht="16.5" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
+      <c r="B159" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" s="13">
+        <v>38</v>
+      </c>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="I159" s="19"/>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
+      <c r="B160" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" s="13">
+        <v>38</v>
+      </c>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="24"/>
+      <c r="B161" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="13">
+        <v>20</v>
+      </c>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
-      <c r="G162" s="23"/>
-      <c r="H162" s="24"/>
+      <c r="B162" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="13">
+        <v>20</v>
+      </c>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F163" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G163" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H163" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
       <c r="I163" s="19"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D164" s="13">
-        <v>38</v>
-      </c>
-      <c r="E164" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F164" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13" t="s">
-        <v>186</v>
-      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
       <c r="I164" s="19"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D165" s="13">
-        <v>20</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F165" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
       <c r="I165" s="19"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D166" s="13">
-        <v>10</v>
-      </c>
-      <c r="E166" s="13" t="s">
+      <c r="B166" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="F166" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13" t="s">
-        <v>193</v>
-      </c>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="25"/>
       <c r="I166" s="19"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D167" s="13">
-        <v>20</v>
-      </c>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13" t="s">
+      <c r="B167" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G167" s="13"/>
-      <c r="H167" s="13" t="s">
-        <v>178</v>
-      </c>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="25"/>
       <c r="I167" s="19"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D168" s="13">
-        <v>200</v>
-      </c>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13" t="s">
-        <v>179</v>
+      <c r="B168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="I168" s="19"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C169" s="13" t="s">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D169" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="I169" s="19"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D170" s="13">
-        <v>20</v>
-      </c>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G170" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H170" s="13" t="s">
-        <v>181</v>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="I170" s="19"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D171" s="13">
-        <v>38</v>
-      </c>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13" t="s">
-        <v>183</v>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="I171" s="19"/>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C172" s="13" t="s">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D172" s="13">
-        <v>38</v>
-      </c>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G172" s="13"/>
-      <c r="H172" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="I172" s="19"/>
     </row>
     <row r="173" spans="1:9" ht="16.5" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D173" s="13">
-        <v>38</v>
-      </c>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G173" s="13"/>
-      <c r="H173" s="13" t="s">
-        <v>182</v>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="I173" s="19"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D174" s="13">
-        <v>20</v>
-      </c>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G174" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H174" s="13" t="s">
-        <v>189</v>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="I174" s="19"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D175" s="13">
-        <v>20</v>
-      </c>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G175" s="13"/>
-      <c r="H175" s="13" t="s">
-        <v>198</v>
+      <c r="B175" s="6"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="I175" s="19"/>
     </row>
     <row r="176" spans="1:9" ht="16.5" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="I176" s="19"/>
     </row>
     <row r="177" spans="1:9" ht="16.5" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="I177" s="19"/>
     </row>
     <row r="178" spans="1:9" ht="16.5" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="I178" s="19"/>
     </row>
     <row r="179" spans="1:9" ht="16.5" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C179" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26"/>
-      <c r="H179" s="27"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="I179" s="19"/>
     </row>
     <row r="180" spans="1:9" ht="16.5" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C180" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26"/>
-      <c r="H180" s="27"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="I180" s="19"/>
     </row>
     <row r="181" spans="1:9" ht="16.5" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E181" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
       <c r="I181" s="19"/>
     </row>
     <row r="182" spans="1:9" ht="16.5" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
       <c r="I182" s="19"/>
     </row>
     <row r="183" spans="1:9" ht="16.5" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
       <c r="I183" s="19"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
       <c r="I184" s="19"/>
     </row>
     <row r="185" spans="1:9" ht="16.5" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
       <c r="I185" s="19"/>
     </row>
     <row r="186" spans="1:9" ht="16.5" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
       <c r="I186" s="19"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
       <c r="I187" s="19"/>
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
       <c r="I188" s="19"/>
     </row>
     <row r="189" spans="1:9" ht="16.5" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
       <c r="I189" s="19"/>
     </row>
     <row r="190" spans="1:9" ht="16.5" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
       <c r="I190" s="19"/>
     </row>
     <row r="191" spans="1:9" ht="16.5" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
       <c r="I191" s="19"/>
     </row>
     <row r="192" spans="1:9" ht="16.5" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
       <c r="I192" s="19"/>
     </row>
     <row r="193" spans="1:9" ht="16.5" customHeight="1">
       <c r="A193" s="1"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
       <c r="I193" s="19"/>
     </row>
     <row r="194" spans="1:9" ht="16.5" customHeight="1">
@@ -13597,7 +13314,7 @@
       <c r="H1013" s="1"/>
       <c r="I1013" s="19"/>
     </row>
-    <row r="1014" spans="1:9" ht="16.5" customHeight="1">
+    <row r="1014" spans="1:9" ht="15" customHeight="1">
       <c r="A1014" s="1"/>
       <c r="B1014" s="1"/>
       <c r="C1014" s="1"/>
@@ -13606,9 +13323,8 @@
       <c r="F1014" s="1"/>
       <c r="G1014" s="1"/>
       <c r="H1014" s="1"/>
-      <c r="I1014" s="19"/>
-    </row>
-    <row r="1015" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1015" spans="1:9" ht="15" customHeight="1">
       <c r="A1015" s="1"/>
       <c r="B1015" s="1"/>
       <c r="C1015" s="1"/>
@@ -13617,9 +13333,8 @@
       <c r="F1015" s="1"/>
       <c r="G1015" s="1"/>
       <c r="H1015" s="1"/>
-      <c r="I1015" s="19"/>
-    </row>
-    <row r="1016" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1016" spans="1:9" ht="15" customHeight="1">
       <c r="A1016" s="1"/>
       <c r="B1016" s="1"/>
       <c r="C1016" s="1"/>
@@ -13628,9 +13343,8 @@
       <c r="F1016" s="1"/>
       <c r="G1016" s="1"/>
       <c r="H1016" s="1"/>
-      <c r="I1016" s="19"/>
-    </row>
-    <row r="1017" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1017" spans="1:9" ht="15" customHeight="1">
       <c r="A1017" s="1"/>
       <c r="B1017" s="1"/>
       <c r="C1017" s="1"/>
@@ -13639,9 +13353,8 @@
       <c r="F1017" s="1"/>
       <c r="G1017" s="1"/>
       <c r="H1017" s="1"/>
-      <c r="I1017" s="19"/>
-    </row>
-    <row r="1018" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1018" spans="1:9" ht="15" customHeight="1">
       <c r="A1018" s="1"/>
       <c r="B1018" s="1"/>
       <c r="C1018" s="1"/>
@@ -13650,9 +13363,8 @@
       <c r="F1018" s="1"/>
       <c r="G1018" s="1"/>
       <c r="H1018" s="1"/>
-      <c r="I1018" s="19"/>
-    </row>
-    <row r="1019" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1019" spans="1:9" ht="15" customHeight="1">
       <c r="A1019" s="1"/>
       <c r="B1019" s="1"/>
       <c r="C1019" s="1"/>
@@ -13661,146 +13373,112 @@
       <c r="F1019" s="1"/>
       <c r="G1019" s="1"/>
       <c r="H1019" s="1"/>
-      <c r="I1019" s="19"/>
-    </row>
-    <row r="1020" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1020" spans="1:9" ht="15" customHeight="1">
       <c r="A1020" s="1"/>
       <c r="B1020" s="1"/>
       <c r="C1020" s="1"/>
       <c r="D1020" s="1"/>
       <c r="E1020" s="1"/>
       <c r="F1020" s="1"/>
-      <c r="G1020" s="1"/>
-      <c r="H1020" s="1"/>
-      <c r="I1020" s="19"/>
-    </row>
-    <row r="1021" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1021" spans="1:9" ht="15" customHeight="1">
       <c r="A1021" s="1"/>
       <c r="B1021" s="1"/>
       <c r="C1021" s="1"/>
       <c r="D1021" s="1"/>
       <c r="E1021" s="1"/>
       <c r="F1021" s="1"/>
-      <c r="G1021" s="1"/>
-      <c r="H1021" s="1"/>
-      <c r="I1021" s="19"/>
-    </row>
-    <row r="1022" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1022" spans="1:9" ht="15" customHeight="1">
       <c r="A1022" s="1"/>
       <c r="B1022" s="1"/>
       <c r="C1022" s="1"/>
       <c r="D1022" s="1"/>
       <c r="E1022" s="1"/>
       <c r="F1022" s="1"/>
-      <c r="G1022" s="1"/>
-      <c r="H1022" s="1"/>
-      <c r="I1022" s="19"/>
-    </row>
-    <row r="1023" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1023" spans="1:9" ht="15" customHeight="1">
       <c r="A1023" s="1"/>
       <c r="B1023" s="1"/>
       <c r="C1023" s="1"/>
       <c r="D1023" s="1"/>
       <c r="E1023" s="1"/>
       <c r="F1023" s="1"/>
-      <c r="G1023" s="1"/>
-      <c r="H1023" s="1"/>
-      <c r="I1023" s="19"/>
-    </row>
-    <row r="1024" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1024" spans="1:9" ht="15" customHeight="1">
       <c r="A1024" s="1"/>
       <c r="B1024" s="1"/>
       <c r="C1024" s="1"/>
       <c r="D1024" s="1"/>
       <c r="E1024" s="1"/>
       <c r="F1024" s="1"/>
-      <c r="G1024" s="1"/>
-      <c r="H1024" s="1"/>
-      <c r="I1024" s="19"/>
-    </row>
-    <row r="1025" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1025" spans="1:6" ht="15" customHeight="1">
       <c r="A1025" s="1"/>
       <c r="B1025" s="1"/>
       <c r="C1025" s="1"/>
       <c r="D1025" s="1"/>
       <c r="E1025" s="1"/>
       <c r="F1025" s="1"/>
-      <c r="G1025" s="1"/>
-      <c r="H1025" s="1"/>
-      <c r="I1025" s="19"/>
-    </row>
-    <row r="1026" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1026" spans="1:6" ht="15" customHeight="1">
       <c r="A1026" s="1"/>
       <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
       <c r="D1026" s="1"/>
       <c r="E1026" s="1"/>
       <c r="F1026" s="1"/>
-      <c r="G1026" s="1"/>
-      <c r="H1026" s="1"/>
-      <c r="I1026" s="19"/>
-    </row>
-    <row r="1027" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1027" spans="1:6" ht="15" customHeight="1">
       <c r="A1027" s="1"/>
       <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
       <c r="D1027" s="1"/>
       <c r="E1027" s="1"/>
       <c r="F1027" s="1"/>
-      <c r="G1027" s="1"/>
-      <c r="H1027" s="1"/>
-    </row>
-    <row r="1028" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1028" spans="1:6" ht="15" customHeight="1">
       <c r="A1028" s="1"/>
       <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
       <c r="D1028" s="1"/>
       <c r="E1028" s="1"/>
       <c r="F1028" s="1"/>
-      <c r="G1028" s="1"/>
-      <c r="H1028" s="1"/>
-    </row>
-    <row r="1029" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1029" spans="1:6" ht="15" customHeight="1">
       <c r="A1029" s="1"/>
       <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
       <c r="D1029" s="1"/>
       <c r="E1029" s="1"/>
       <c r="F1029" s="1"/>
-      <c r="G1029" s="1"/>
-      <c r="H1029" s="1"/>
-    </row>
-    <row r="1030" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1030" spans="1:6" ht="15" customHeight="1">
       <c r="A1030" s="1"/>
       <c r="B1030" s="1"/>
       <c r="C1030" s="1"/>
       <c r="D1030" s="1"/>
       <c r="E1030" s="1"/>
       <c r="F1030" s="1"/>
-      <c r="G1030" s="1"/>
-      <c r="H1030" s="1"/>
-    </row>
-    <row r="1031" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1031" spans="1:6" ht="15" customHeight="1">
       <c r="A1031" s="1"/>
       <c r="B1031" s="1"/>
       <c r="C1031" s="1"/>
       <c r="D1031" s="1"/>
       <c r="E1031" s="1"/>
       <c r="F1031" s="1"/>
-      <c r="G1031" s="1"/>
-      <c r="H1031" s="1"/>
-    </row>
-    <row r="1032" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1032" spans="1:6" ht="15" customHeight="1">
       <c r="A1032" s="1"/>
       <c r="B1032" s="1"/>
       <c r="C1032" s="1"/>
       <c r="D1032" s="1"/>
       <c r="E1032" s="1"/>
       <c r="F1032" s="1"/>
-      <c r="G1032" s="1"/>
-      <c r="H1032" s="1"/>
-    </row>
-    <row r="1033" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1033" spans="1:6" ht="15" customHeight="1">
       <c r="A1033" s="1"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
@@ -13808,7 +13486,7 @@
       <c r="E1033" s="1"/>
       <c r="F1033" s="1"/>
     </row>
-    <row r="1034" spans="1:9" ht="15" customHeight="1">
+    <row r="1034" spans="1:6" ht="15" customHeight="1">
       <c r="A1034" s="1"/>
       <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
@@ -13816,7 +13494,7 @@
       <c r="E1034" s="1"/>
       <c r="F1034" s="1"/>
     </row>
-    <row r="1035" spans="1:9" ht="15" customHeight="1">
+    <row r="1035" spans="1:6" ht="15" customHeight="1">
       <c r="A1035" s="1"/>
       <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
@@ -13824,7 +13502,7 @@
       <c r="E1035" s="1"/>
       <c r="F1035" s="1"/>
     </row>
-    <row r="1036" spans="1:9" ht="15" customHeight="1">
+    <row r="1036" spans="1:6" ht="15" customHeight="1">
       <c r="A1036" s="1"/>
       <c r="B1036" s="1"/>
       <c r="C1036" s="1"/>
@@ -13832,7 +13510,7 @@
       <c r="E1036" s="1"/>
       <c r="F1036" s="1"/>
     </row>
-    <row r="1037" spans="1:9" ht="15" customHeight="1">
+    <row r="1037" spans="1:6" ht="15" customHeight="1">
       <c r="A1037" s="1"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
@@ -13840,7 +13518,7 @@
       <c r="E1037" s="1"/>
       <c r="F1037" s="1"/>
     </row>
-    <row r="1038" spans="1:9" ht="15" customHeight="1">
+    <row r="1038" spans="1:6" ht="15" customHeight="1">
       <c r="A1038" s="1"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
@@ -13848,7 +13526,7 @@
       <c r="E1038" s="1"/>
       <c r="F1038" s="1"/>
     </row>
-    <row r="1039" spans="1:9" ht="15" customHeight="1">
+    <row r="1039" spans="1:6" ht="15" customHeight="1">
       <c r="A1039" s="1"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
@@ -13856,7 +13534,7 @@
       <c r="E1039" s="1"/>
       <c r="F1039" s="1"/>
     </row>
-    <row r="1040" spans="1:9" ht="15" customHeight="1">
+    <row r="1040" spans="1:6" ht="15" customHeight="1">
       <c r="A1040" s="1"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
@@ -13929,7 +13607,6 @@
       <c r="F1048" s="1"/>
     </row>
     <row r="1049" spans="1:6" ht="15" customHeight="1">
-      <c r="A1049" s="1"/>
       <c r="B1049" s="1"/>
       <c r="C1049" s="1"/>
       <c r="D1049" s="1"/>
@@ -13937,7 +13614,6 @@
       <c r="F1049" s="1"/>
     </row>
     <row r="1050" spans="1:6" ht="15" customHeight="1">
-      <c r="A1050" s="1"/>
       <c r="B1050" s="1"/>
       <c r="C1050" s="1"/>
       <c r="D1050" s="1"/>
@@ -13945,7 +13621,6 @@
       <c r="F1050" s="1"/>
     </row>
     <row r="1051" spans="1:6" ht="15" customHeight="1">
-      <c r="A1051" s="1"/>
       <c r="B1051" s="1"/>
       <c r="C1051" s="1"/>
       <c r="D1051" s="1"/>
@@ -13953,7 +13628,6 @@
       <c r="F1051" s="1"/>
     </row>
     <row r="1052" spans="1:6" ht="15" customHeight="1">
-      <c r="A1052" s="1"/>
       <c r="B1052" s="1"/>
       <c r="C1052" s="1"/>
       <c r="D1052" s="1"/>
@@ -13961,7 +13635,6 @@
       <c r="F1052" s="1"/>
     </row>
     <row r="1053" spans="1:6" ht="15" customHeight="1">
-      <c r="A1053" s="1"/>
       <c r="B1053" s="1"/>
       <c r="C1053" s="1"/>
       <c r="D1053" s="1"/>
@@ -13969,132 +13642,33 @@
       <c r="F1053" s="1"/>
     </row>
     <row r="1054" spans="1:6" ht="15" customHeight="1">
-      <c r="A1054" s="1"/>
       <c r="B1054" s="1"/>
       <c r="C1054" s="1"/>
       <c r="D1054" s="1"/>
       <c r="E1054" s="1"/>
       <c r="F1054" s="1"/>
     </row>
-    <row r="1055" spans="1:6" ht="15" customHeight="1">
-      <c r="A1055" s="1"/>
-      <c r="B1055" s="1"/>
-      <c r="C1055" s="1"/>
-      <c r="D1055" s="1"/>
-      <c r="E1055" s="1"/>
-      <c r="F1055" s="1"/>
-    </row>
-    <row r="1056" spans="1:6" ht="15" customHeight="1">
-      <c r="A1056" s="1"/>
-      <c r="B1056" s="1"/>
-      <c r="C1056" s="1"/>
-      <c r="D1056" s="1"/>
-      <c r="E1056" s="1"/>
-      <c r="F1056" s="1"/>
-    </row>
-    <row r="1057" spans="1:6" ht="15" customHeight="1">
-      <c r="A1057" s="1"/>
-      <c r="B1057" s="1"/>
-      <c r="C1057" s="1"/>
-      <c r="D1057" s="1"/>
-      <c r="E1057" s="1"/>
-      <c r="F1057" s="1"/>
-    </row>
-    <row r="1058" spans="1:6" ht="15" customHeight="1">
-      <c r="A1058" s="1"/>
-      <c r="B1058" s="1"/>
-      <c r="C1058" s="1"/>
-      <c r="D1058" s="1"/>
-      <c r="E1058" s="1"/>
-      <c r="F1058" s="1"/>
-    </row>
-    <row r="1059" spans="1:6" ht="15" customHeight="1">
-      <c r="A1059" s="1"/>
-      <c r="B1059" s="1"/>
-      <c r="C1059" s="1"/>
-      <c r="D1059" s="1"/>
-      <c r="E1059" s="1"/>
-      <c r="F1059" s="1"/>
-    </row>
-    <row r="1060" spans="1:6" ht="15" customHeight="1">
-      <c r="A1060" s="1"/>
-      <c r="B1060" s="1"/>
-      <c r="C1060" s="1"/>
-      <c r="D1060" s="1"/>
-      <c r="E1060" s="1"/>
-      <c r="F1060" s="1"/>
-    </row>
-    <row r="1061" spans="1:6" ht="15" customHeight="1">
-      <c r="A1061" s="1"/>
-      <c r="B1061" s="1"/>
-      <c r="C1061" s="1"/>
-      <c r="D1061" s="1"/>
-      <c r="E1061" s="1"/>
-      <c r="F1061" s="1"/>
-    </row>
-    <row r="1062" spans="1:6" ht="15" customHeight="1">
-      <c r="B1062" s="1"/>
-      <c r="C1062" s="1"/>
-      <c r="D1062" s="1"/>
-      <c r="E1062" s="1"/>
-      <c r="F1062" s="1"/>
-    </row>
-    <row r="1063" spans="1:6" ht="15" customHeight="1">
-      <c r="B1063" s="1"/>
-      <c r="C1063" s="1"/>
-      <c r="D1063" s="1"/>
-      <c r="E1063" s="1"/>
-      <c r="F1063" s="1"/>
-    </row>
-    <row r="1064" spans="1:6" ht="15" customHeight="1">
-      <c r="B1064" s="1"/>
-      <c r="C1064" s="1"/>
-      <c r="D1064" s="1"/>
-      <c r="E1064" s="1"/>
-      <c r="F1064" s="1"/>
-    </row>
-    <row r="1065" spans="1:6" ht="15" customHeight="1">
-      <c r="B1065" s="1"/>
-      <c r="C1065" s="1"/>
-      <c r="D1065" s="1"/>
-      <c r="E1065" s="1"/>
-      <c r="F1065" s="1"/>
-    </row>
-    <row r="1066" spans="1:6" ht="15" customHeight="1">
-      <c r="B1066" s="1"/>
-      <c r="C1066" s="1"/>
-      <c r="D1066" s="1"/>
-      <c r="E1066" s="1"/>
-      <c r="F1066" s="1"/>
-    </row>
-    <row r="1067" spans="1:6" ht="15" customHeight="1">
-      <c r="B1067" s="1"/>
-      <c r="C1067" s="1"/>
-      <c r="D1067" s="1"/>
-      <c r="E1067" s="1"/>
-      <c r="F1067" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="C167:H167"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C104:H104"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="C162:H162"/>
-    <mergeCell ref="C179:H179"/>
-    <mergeCell ref="C180:H180"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C118:H118"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -14123,7 +13697,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -14132,87 +13706,87 @@
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -5,29 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\teamproject\DoZip\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1106FCC-B2F6-4F58-8379-526B95D50C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2C9920-B4C2-42EC-8F9A-CDBA4E2B32F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
     <sheet name="쿼리문" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={429FC897-D674-4B07-BD63-9DF9A7733D31}</author>
     <author>tc={6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}</author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{429FC897-D674-4B07-BD63-9DF9A7733D31}">
+    <comment ref="H153" authorId="0" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
       <text>
         <r>
           <rPr>
@@ -36,8 +45,10 @@
             <rFont val="Calibri"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    </t>
         </r>
         <r>
           <rPr>
@@ -48,28 +59,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>댓글</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">:
-    Int </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>타입은</t>
+          <t>업체</t>
         </r>
         <r>
           <rPr>
@@ -89,7 +79,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>값이</t>
+          <t>문의라면</t>
         </r>
         <r>
           <rPr>
@@ -109,27 +99,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>없으면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">  0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>으로</t>
+          <t>해당</t>
         </r>
         <r>
           <rPr>
@@ -149,7 +119,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>나타나서</t>
+          <t>컬럼에</t>
         </r>
         <r>
           <rPr>
@@ -169,7 +139,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>뷰페이지에서</t>
+          <t>값을</t>
         </r>
         <r>
           <rPr>
@@ -189,7 +159,28 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>값이</t>
+          <t>넣음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>.
+null</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>인</t>
         </r>
         <r>
           <rPr>
@@ -209,27 +200,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>없으면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> 0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>으로</t>
+          <t>경우에는</t>
         </r>
         <r>
           <rPr>
@@ -249,27 +220,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>뜸</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>. null</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>값으로</t>
+          <t>관리자문의가</t>
         </r>
         <r>
           <rPr>
@@ -289,7 +240,48 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>받기</t>
+          <t>됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>테이블은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> null </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>허용으로</t>
         </r>
         <r>
           <rPr>
@@ -309,7 +301,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>위해서</t>
+          <t>하고</t>
         </r>
         <r>
           <rPr>
@@ -318,7 +310,8 @@
             <rFont val="Calibri"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> string </t>
+          <t xml:space="preserve">,
+</t>
         </r>
         <r>
           <rPr>
@@ -329,7 +322,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>타입으로</t>
+          <t>업체문의를</t>
         </r>
         <r>
           <rPr>
@@ -349,12 +342,8 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>변경</t>
+          <t>통해</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="H165" authorId="1" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
-      <text>
         <r>
           <rPr>
             <sz val="11"/>
@@ -362,13 +351,178 @@
             <rFont val="Calibri"/>
             <scheme val="minor"/>
           </rPr>
-          <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    업체 문의라면 해당 컬럼에 값을 넣음.
-null인 경우에는 관리자문의가 됨.
-테이블은 null 허용으로 하고,
-업체문의를 통해 글을 작성하는 경우 유효성 검증으로 사업자번호를 넣게 할 예정</t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>글을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>작성하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>유효성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>검증으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>사업자번호를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>넣게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>예정</t>
         </r>
       </text>
     </comment>
@@ -377,7 +531,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="238">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -385,9 +539,17 @@
     <t>테이블명</t>
   </si>
   <si>
+    <t>memberT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>테이블설명</t>
   </si>
   <si>
+    <t>회원 정보를 담는 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>컬럼명</t>
   </si>
   <si>
@@ -395,190 +557,578 @@
   </si>
   <si>
     <t>길이</t>
-  </si>
-  <si>
-    <t>Null 여부</t>
-  </si>
-  <si>
-    <t>디폴트값</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>회원가입시 필요한 파트너스의 정보를 담는 테이블</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>not null</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>아이디</t>
-  </si>
-  <si>
-    <t>비밀번호</t>
-  </si>
-  <si>
-    <t>사업자번호</t>
-  </si>
-  <si>
-    <t>대표자이름</t>
-  </si>
-  <si>
-    <t>대표자 연락처</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>영업장 주소</t>
-  </si>
-  <si>
-    <t>partnersT_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">각자 필요한 메서드, 쿼리문 만들어서 기록해두고 나중에 공유해요~~ </t>
-  </si>
-  <si>
-    <t>UI Class</t>
-  </si>
-  <si>
-    <t>DAO Class</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>SQL쿼리문장</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>ImsiDAO</t>
-  </si>
-  <si>
-    <t>logincheck(Login login)</t>
-  </si>
-  <si>
-    <t>insert into imsi_table (m_id) values(?)</t>
-  </si>
-  <si>
-    <t>저장된 값이 없으면 임시테이블에 로그인하는 회원 아이디를 insert하는 메서드</t>
-  </si>
-  <si>
-    <t>check()</t>
-  </si>
-  <si>
-    <t>select count(*) from imsi_table</t>
-  </si>
-  <si>
-    <t>임시 테이블에 레코드가 있는지 확인하는 메서드</t>
-  </si>
-  <si>
-    <t>imsi_delete()</t>
-  </si>
-  <si>
-    <t>delete from imsi_table</t>
-  </si>
-  <si>
-    <t>임시 테이블에 저장되어 있는 값을 제거하는 메서드</t>
-  </si>
-  <si>
-    <t>BuyTicket_Pay</t>
-  </si>
-  <si>
-    <t>imsi_select()</t>
-  </si>
-  <si>
-    <t>select*from imsi_table</t>
-  </si>
-  <si>
-    <t>임시테이블에 저장되어있는 예매 정보를 불러옴</t>
   </si>
   <si>
     <t>key(PK,FK)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Null 여부</t>
+  </si>
+  <si>
+    <t>디폴트값</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>mem_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_pwd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원비밀번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_tel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_email</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_domain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일DOMAIN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_zip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_addr1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_addr2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_joinType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입유형</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_joinDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입날짜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_withdraw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴여부(탈퇴:1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_withdrawDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴날짜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnersT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnersT_sub</t>
+  </si>
+  <si>
+    <t>회원가입시 필요한 파트너스의 정보를 담는 테이블</t>
+  </si>
+  <si>
+    <t>그외 파트너스의 정보를 담는 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>사업자번호</t>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>pPw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>pName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자이름</t>
+  </si>
+  <si>
+    <t>pTel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+  </si>
+  <si>
+    <t>대표자 연락처</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pMail_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자 이메일 ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pMail_domain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자 이메일 도메인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pAddress</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>영업장 주소</t>
+  </si>
+  <si>
+    <t>pDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDeldate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pDelcont</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴사유</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pState</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴여부(가입 1, 탈퇴 2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimateT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적서의 정보를 담는 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_num</t>
+  </si>
+  <si>
+    <t>varchar2</t>
+  </si>
+  <si>
+    <t>고유번호 E00000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_id</t>
+  </si>
+  <si>
+    <t>est_zoning</t>
+  </si>
+  <si>
+    <t>공간 유형(주거, 상가)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_use</t>
+  </si>
+  <si>
+    <t>건물 유형</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_areaP</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>평수(평)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_areaM</t>
+  </si>
+  <si>
+    <t>평수(제곱미터)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_detail01</t>
+  </si>
+  <si>
+    <t>est_detail02</t>
+  </si>
+  <si>
+    <t>est_detail03</t>
+  </si>
+  <si>
+    <t>est_detail04</t>
+  </si>
+  <si>
+    <t>est_detail05</t>
+  </si>
+  <si>
+    <t>est_detail06</t>
+  </si>
+  <si>
+    <t>est_detail07</t>
+  </si>
+  <si>
+    <t>est_detail08</t>
+  </si>
+  <si>
+    <t>est_bud</t>
+  </si>
+  <si>
+    <t>예산</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null </t>
+  </si>
+  <si>
+    <t>희망시공 시작일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_end</t>
+  </si>
+  <si>
+    <t>희망시공 종료일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>견적신청 일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_dateEnd</t>
+  </si>
+  <si>
+    <t>견적신청 마감일자(+10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_name</t>
+  </si>
+  <si>
+    <t>의뢰인 이름 입력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_phone</t>
+  </si>
+  <si>
+    <t>의뢰인 휴대폰 번호 입력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_desc</t>
+  </si>
+  <si>
+    <t>스타일 설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_file</t>
+  </si>
+  <si>
+    <t>파일첨부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_selectCompany</t>
+  </si>
+  <si>
+    <t>업체 선택</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약서의 정보를 담는 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유번호(C000000)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 회원아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 사업자 번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사장소</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사면적</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사기간(착공)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사기간(준공)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>총공사대금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 지급일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>중도금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>중도금 지급일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔금 지급일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발주자 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰에 대한 정보를 담는 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>key (PK,FK)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FK</t>
+    <t>사업자번호</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>not null</t>
+    <t>업체명</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PK</t>
+    <t>업체가 올리는 입찰금액</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>회원아이디</t>
+    <t>공사기간 (7일, 10일 …)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>회원비밀번호</t>
+    <t>어필내용</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
+    <t>마감여부</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>연락처</t>
+    <t>portfolioT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">NULL </t>
+    <t>포트폴리오에 대한 정보를 담는 테이블</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>우편번호</t>
+    <t>글번호(시퀀스)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>주소1</t>
+    <t>파트너스 사업자번호</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>주소2</t>
+    <t>제목</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>이메일ID</t>
+    <t>공사유형</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>이메일DOMAIN</t>
+    <t>공사세부유형</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>대표자 이메일 ID</t>
+    <t>상세주소</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>estimateT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적서의 정보를 담는 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 유형(주거, 상가)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 유형</t>
+    <t>참고항목</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -586,100 +1136,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>평수(평)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>평수(제곱미터)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>원하는공간선택 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>원하는공간선택 2</t>
-  </si>
-  <si>
-    <t>원하는공간선택 3</t>
-  </si>
-  <si>
-    <t>원하는공간선택 4</t>
-  </si>
-  <si>
-    <t>원하는공간선택 5</t>
-  </si>
-  <si>
-    <t>원하는공간선택 6</t>
-  </si>
-  <si>
-    <t>원하는공간선택 7</t>
-  </si>
-  <si>
-    <t>원하는공간선택 8</t>
-  </si>
-  <si>
-    <t>예산</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망시공 시작일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망시공 종료일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적신청 일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>의뢰인 휴대폰 번호 입력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>의뢰인 이름 입력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스타일 설명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일첨부</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체 선택</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적신청 마감일자(+10)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약서의 정보를 담는 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유번호 E00000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업자번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체가 올리는 입찰금액</t>
+    <t>공사비용</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -687,138 +1144,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>공사기간 (7일, 10일 …)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어필내용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감여부</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bidT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰에 대한 정보를 담는 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유번호(C000000)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체 사업자 번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 회원아이디</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사장소</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사면적</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사기간(착공)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사기간(준공)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>총공사대금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>중도금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약금 지급일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>중도금 지급일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔금 지급일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">발주자 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>시공자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오에 대한 정보를 담는 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>portfolioT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>파트너스 사업자번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호(시퀀스)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사유형</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사세부유형</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세주소</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고항목</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사비용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>시공컨셉</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -855,55 +1180,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2</t>
+    <t>작성일자</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>partnersT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_num</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pPw</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pTel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pAddress</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pMail</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그외 파트너스의 정보를 담는 테이블</t>
+    <t>customer_qnaT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -911,6 +1192,94 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>qna_no</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체문의-사업자번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문유형</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_title</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글제목</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_cont</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글내용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_ref</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 ref (그룹번호)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_step</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 step(원본글:0)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 level (정렬순서)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미답변</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변상태</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>customer_review</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -919,6 +1288,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>글번호</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -947,235 +1320,95 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>작성일자</t>
+    <t xml:space="preserve">각자 필요한 메서드, 쿼리문 만들어서 기록해두고 나중에 공유해요~~ </t>
+  </si>
+  <si>
+    <t>UI Class</t>
+  </si>
+  <si>
+    <t>DAO Class</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>SQL쿼리문장</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>ImsiDAO</t>
+  </si>
+  <si>
+    <t>logincheck(Login login)</t>
+  </si>
+  <si>
+    <t>insert into imsi_table (m_id) values(?)</t>
+  </si>
+  <si>
+    <t>저장된 값이 없으면 임시테이블에 로그인하는 회원 아이디를 insert하는 메서드</t>
+  </si>
+  <si>
+    <t>check()</t>
+  </si>
+  <si>
+    <t>select count(*) from imsi_table</t>
+  </si>
+  <si>
+    <t>임시 테이블에 레코드가 있는지 확인하는 메서드</t>
+  </si>
+  <si>
+    <t>imsi_delete()</t>
+  </si>
+  <si>
+    <t>delete from imsi_table</t>
+  </si>
+  <si>
+    <t>임시 테이블에 저장되어 있는 값을 제거하는 메서드</t>
+  </si>
+  <si>
+    <t>BuyTicket_Pay</t>
+  </si>
+  <si>
+    <t>imsi_select()</t>
+  </si>
+  <si>
+    <t>select*from imsi_table</t>
+  </si>
+  <si>
+    <t>임시테이블에 저장되어있는 예매 정보를 불러옴</t>
+  </si>
+  <si>
+    <t>세부인테리어01(도배/벽)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>고객아이디</t>
+    <t>세부인테리어02(바닥)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>설명</t>
+    <t>세부인테리어03(주방)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>mem_id</t>
+    <t>세부인테리어04(욕실)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>mem_pwd</t>
+    <t>세부인테리어05(현관)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>mem_name</t>
+    <t>세부인테리어06(발코니/샷시)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>mem_tel</t>
+    <t>세부인테리어07(조명)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>mem_domain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_zip</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_addr1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_addr2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보를 담는 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_email</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입유형</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_joinType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴여부(탈퇴:1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_withdraw</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_joinDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입날짜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_withdrawDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴날짜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysdate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_qnaT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객아이디</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문유형</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>글제목</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>글내용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글 level (정렬순서)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글 ref (그룹번호)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호(시퀀스)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysdate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변상태</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미답변</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_no</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체문의-사업자번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_title</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_cont</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_ref</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_step</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_level</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_state</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>reply_date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글 step(원본글:0)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴여부(가입 1, 탈퇴 2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pState</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴사유</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pDelcont</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDeldate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pDate</t>
+    <t>세부인테리어08(문)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1247,7 +1480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1293,6 +1526,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,7 +1669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1485,6 +1736,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1495,6 +1761,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1733,10 +2008,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C13" dT="2022-09-18T16:35:04.75" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{429FC897-D674-4B07-BD63-9DF9A7733D31}">
-    <text>Int 타입은 값이 없으면  0으로 나타나서 뷰페이지에서 값이 없으면 0으로 뜸. null값으로 받기 위해서 string 타입으로 변경</text>
-  </threadedComment>
-  <threadedComment ref="H165" dT="2022-09-15T04:33:24.07" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+  <threadedComment ref="H153" dT="2022-09-15T04:33:24.07" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
     <text>업체 문의라면 해당 컬럼에 값을 넣음.
 null인 경우에는 관리자문의가 됨.
 테이블은 null 허용으로 하고,
@@ -1747,47 +2019,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1066"/>
+  <dimension ref="A1:Q1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" customWidth="1"/>
-    <col min="9" max="9" width="5.6328125" style="18" customWidth="1"/>
-    <col min="10" max="25" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="18" customWidth="1"/>
+    <col min="10" max="25" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -1805,302 +2077,302 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D7" s="13">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D8" s="13">
         <v>20</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D9" s="13">
         <v>20</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D10" s="13">
         <v>20</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D11" s="13">
         <v>20</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D12" s="13">
         <v>20</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D14" s="13">
         <v>100</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1">
       <c r="B15" s="20" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D15" s="20">
         <v>100</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1">
       <c r="B16" s="21" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D16" s="21">
         <v>20</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="20" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1">
       <c r="B17" s="21" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D17" s="21">
         <v>20</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1">
       <c r="B18" s="21" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="D18" s="21">
         <v>10</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G18" s="21">
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1">
       <c r="B19" s="21" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D19" s="21">
         <v>20</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1">
@@ -2121,147 +2393,143 @@
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
       <c r="K22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
+      <c r="L22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
       <c r="K23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="16" t="s">
+      <c r="L24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="M24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="N24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="O24" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="D25" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G25" s="13"/>
       <c r="H25" s="13" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="D26" s="13">
         <v>20</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2273,23 +2541,21 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="D27" s="13">
         <v>20</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2301,23 +2567,21 @@
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="D28" s="13">
         <v>20</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2329,23 +2593,21 @@
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="D29" s="13">
         <v>10</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G29" s="13"/>
       <c r="H29" s="13" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="3"/>
@@ -2357,23 +2619,21 @@
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="D30" s="13">
         <v>12</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2385,23 +2645,21 @@
     </row>
     <row r="31" spans="1:17" ht="16.5" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="D31" s="13">
         <v>30</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G31" s="13"/>
       <c r="H31" s="13" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2413,23 +2671,21 @@
     </row>
     <row r="32" spans="1:17" ht="16.5" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="D32" s="13">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G32" s="13"/>
       <c r="H32" s="13" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2442,23 +2698,23 @@
     <row r="33" spans="1:17" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="13" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="D33" s="13">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>177</v>
+        <v>70</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2471,67 +2727,86 @@
     <row r="34" spans="1:17" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="13" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="D34" s="13">
         <v>15</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="H34" s="13" t="s">
-        <v>176</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="13" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="D35" s="13">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>133</v>
+        <v>75</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D36" s="13">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="13">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G36" s="13"/>
       <c r="H36" s="13" t="s">
-        <v>207</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
+      <c r="B37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="13">
+        <v>5</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:17" ht="16.5" customHeight="1">
@@ -2539,355 +2814,635 @@
       <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A40" s="1"/>
+      <c r="B40" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A41" s="1"/>
+      <c r="B41" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="44" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="45" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="46" spans="1:17" ht="16.5" customHeight="1"/>
+      <c r="B42" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="1:17" ht="16.5" customHeight="1">
+      <c r="B43" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="25">
+        <v>12</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="25">
+        <v>20</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="25">
+        <v>20</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="16.5" customHeight="1">
+      <c r="B46" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="25">
+        <v>20</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="47" spans="1:17" ht="16.5" customHeight="1">
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="B47" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="25">
+        <v>12</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="48" spans="1:17" ht="16.5" customHeight="1">
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B50" s="3" t="s">
+      <c r="B48" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="25">
+        <v>12</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B49" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="25">
+        <v>30</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B50" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="25">
+        <v>30</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B51" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="25">
+        <v>30</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B52" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="25">
+        <v>30</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B53" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="25">
+        <v>30</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B54" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="25">
+        <v>30</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B55" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="25">
+        <v>30</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B56" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="25">
+        <v>30</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B57" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="25">
+        <v>12</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B58" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="25">
+        <v>15</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B59" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="25">
+        <v>15</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B60" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="25">
+        <v>15</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B61" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="25">
+        <v>15</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B62" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="25">
+        <v>10</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B63" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="25">
+        <v>12</v>
+      </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B64" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B65" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="25">
+        <v>200</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B66" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="25">
+        <v>50</v>
+      </c>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I66" s="19"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B52" s="3" t="s">
+      <c r="C70" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="30"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C71" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="30"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="E72" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I63" s="19"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I64" s="19"/>
-    </row>
-    <row r="65" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I65" s="19"/>
-    </row>
-    <row r="66" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H72" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="16.5" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A73" s="1"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="E73" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="16.5" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="16.5" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" customHeight="1">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" ht="16.5" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" customHeight="1">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2895,139 +3450,131 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="2:9" ht="16.5" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" customHeight="1">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H77" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" customHeight="1">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="19"/>
-    </row>
-    <row r="79" spans="2:9" ht="16.5" customHeight="1">
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" ht="16.5" customHeight="1">
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" customHeight="1">
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="25"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B84" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H78" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="16.5" customHeight="1">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A86" s="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="16.5" customHeight="1">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A87" s="1"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="16.5" customHeight="1">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="16.5" customHeight="1">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3035,252 +3582,280 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="16.5" customHeight="1">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="2:8" ht="16.5" customHeight="1">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H90" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="16.5" customHeight="1">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" ht="16.5" customHeight="1">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="2:8" ht="16.5" customHeight="1">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="2:8" ht="16.5" customHeight="1">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H94" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="16.5" customHeight="1">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" customHeight="1">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="2:8" ht="16.5" customHeight="1">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" customHeight="1">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" customHeight="1">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-    </row>
-    <row r="105" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="19"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="19"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="19"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="19"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="19"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A104" s="1"/>
+      <c r="B104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="19"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A105" s="1"/>
+      <c r="B105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="19"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" s="19"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" customHeight="1">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H107" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I107" s="19"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" customHeight="1">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H108" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I108" s="19"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" customHeight="1">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="2:9" ht="16.5" customHeight="1">
+      <c r="H109" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I109" s="19"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" customHeight="1">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="2:9" ht="16.5" customHeight="1">
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" ht="16.5" customHeight="1">
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
+      <c r="H110" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B111" s="6"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I111" s="19"/>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="I113" s="19"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
       <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" customHeight="1">
@@ -3289,122 +3864,100 @@
       <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B116" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="25"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
       <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="25"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
       <c r="I117" s="19"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="19"/>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="19"/>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="19"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B121" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="3" t="s">
+      <c r="C121" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="19"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B122" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F118" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I118" s="19"/>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I119" s="19"/>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I121" s="19"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="E122" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H122" s="3" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="I122" s="19"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B123" s="6"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="I123" s="19"/>
     </row>
@@ -3412,11 +3965,13 @@
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="I124" s="19"/>
     </row>
@@ -3428,7 +3983,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="I125" s="19"/>
     </row>
@@ -3439,95 +3994,104 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I128" s="19"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I129" s="19"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="I130" s="19"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="25"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B133" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="25"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B134" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
       <c r="H134" s="3" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="I134" s="19"/>
     </row>
@@ -3535,13 +4099,11 @@
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="I135" s="19"/>
     </row>
@@ -3549,13 +4111,11 @@
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="I136" s="19"/>
     </row>
@@ -3567,7 +4127,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="I137" s="19"/>
     </row>
@@ -3579,7 +4139,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="I138" s="19"/>
     </row>
@@ -3591,7 +4151,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="I139" s="19"/>
     </row>
@@ -3603,7 +4163,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="I140" s="19"/>
     </row>
@@ -3615,7 +4175,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="I141" s="19"/>
     </row>
@@ -3627,7 +4187,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="I142" s="19"/>
     </row>
@@ -3639,11 +4199,12 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="I143" s="19"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A144" s="1"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -3651,11 +4212,12 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -3663,736 +4225,723 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="I145" s="19"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
       <c r="I146" s="19"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
       <c r="I147" s="19"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D148" s="35"/>
+      <c r="E148" s="35"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="36"/>
       <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D149" s="35"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="36"/>
       <c r="I149" s="19"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3" t="s">
-        <v>125</v>
+      <c r="A150" s="1"/>
+      <c r="B150" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="I150" s="19"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3" t="s">
-        <v>126</v>
+      <c r="A151" s="1"/>
+      <c r="B151" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="13">
+        <v>38</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="I151" s="19"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3" t="s">
-        <v>127</v>
+      <c r="A152" s="1"/>
+      <c r="B152" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="13">
+        <v>20</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="I152" s="19"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3" t="s">
-        <v>128</v>
+      <c r="A153" s="1"/>
+      <c r="B153" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" s="13">
+        <v>10</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="I153" s="19"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3" t="s">
-        <v>129</v>
+      <c r="A154" s="1"/>
+      <c r="B154" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="13">
+        <v>20</v>
+      </c>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I154" s="19"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3" t="s">
-        <v>130</v>
+      <c r="A155" s="1"/>
+      <c r="B155" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="13">
+        <v>200</v>
+      </c>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="I155" s="19"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3" t="s">
-        <v>131</v>
+      <c r="A156" s="1"/>
+      <c r="B156" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="I156" s="19"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3" t="s">
-        <v>155</v>
+      <c r="B157" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="13">
+        <v>20</v>
+      </c>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="I157" s="19"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
+      <c r="B158" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="13">
+        <v>38</v>
+      </c>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13" t="s">
+        <v>190</v>
+      </c>
       <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:9" ht="16.5" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
+      <c r="B159" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" s="13">
+        <v>38</v>
+      </c>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="I159" s="19"/>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="28"/>
+      <c r="B160" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" s="13">
+        <v>38</v>
+      </c>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C161" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="28"/>
+      <c r="B161" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="13">
+        <v>20</v>
+      </c>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F162" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G162" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H162" s="16" t="s">
-        <v>8</v>
+      <c r="B162" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="13">
+        <v>20</v>
+      </c>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D163" s="13">
-        <v>38</v>
-      </c>
-      <c r="E163" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F163" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G163" s="13"/>
-      <c r="H163" s="13" t="s">
-        <v>188</v>
-      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
       <c r="I163" s="19"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D164" s="13">
-        <v>20</v>
-      </c>
-      <c r="E164" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F164" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13" t="s">
-        <v>179</v>
-      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
       <c r="I164" s="19"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D165" s="13">
-        <v>10</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F165" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13" t="s">
-        <v>195</v>
-      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
       <c r="I165" s="19"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D166" s="13">
-        <v>20</v>
-      </c>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13" t="s">
-        <v>180</v>
-      </c>
+      <c r="B166" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="30"/>
       <c r="I166" s="19"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D167" s="13">
-        <v>200</v>
-      </c>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G167" s="13"/>
-      <c r="H167" s="13" t="s">
-        <v>181</v>
-      </c>
+      <c r="B167" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="30"/>
       <c r="I167" s="19"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D168" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13" t="s">
-        <v>182</v>
+      <c r="B168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="I168" s="19"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D169" s="13">
-        <v>20</v>
-      </c>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H169" s="13" t="s">
-        <v>183</v>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="I169" s="19"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D170" s="13">
-        <v>38</v>
-      </c>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13" t="s">
-        <v>185</v>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="I170" s="19"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D171" s="13">
-        <v>38</v>
-      </c>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13" t="s">
-        <v>206</v>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="I171" s="19"/>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D172" s="13">
-        <v>38</v>
-      </c>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G172" s="13"/>
-      <c r="H172" s="13" t="s">
-        <v>184</v>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="I172" s="19"/>
     </row>
     <row r="173" spans="1:9" ht="16.5" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D173" s="13">
-        <v>20</v>
-      </c>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G173" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="H173" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="I173" s="19"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D174" s="13">
-        <v>20</v>
-      </c>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G174" s="13"/>
-      <c r="H174" s="13" t="s">
-        <v>200</v>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="I174" s="19"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="I175" s="19"/>
     </row>
     <row r="176" spans="1:9" ht="16.5" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="I176" s="19"/>
     </row>
     <row r="177" spans="1:9" ht="16.5" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="I177" s="19"/>
     </row>
     <row r="178" spans="1:9" ht="16.5" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="25"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="I178" s="19"/>
     </row>
     <row r="179" spans="1:9" ht="16.5" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C179" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
-      <c r="H179" s="25"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="I179" s="19"/>
     </row>
     <row r="180" spans="1:9" ht="16.5" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
       <c r="H180" s="3" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="I180" s="19"/>
     </row>
     <row r="181" spans="1:9" ht="16.5" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
       <c r="I181" s="19"/>
     </row>
     <row r="182" spans="1:9" ht="16.5" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
       <c r="I182" s="19"/>
     </row>
     <row r="183" spans="1:9" ht="16.5" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
       <c r="I183" s="19"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
       <c r="I184" s="19"/>
     </row>
     <row r="185" spans="1:9" ht="16.5" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
       <c r="I185" s="19"/>
     </row>
     <row r="186" spans="1:9" ht="16.5" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
       <c r="I186" s="19"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
       <c r="I187" s="19"/>
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
       <c r="I188" s="19"/>
     </row>
     <row r="189" spans="1:9" ht="16.5" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
       <c r="I189" s="19"/>
     </row>
     <row r="190" spans="1:9" ht="16.5" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
       <c r="I190" s="19"/>
     </row>
     <row r="191" spans="1:9" ht="16.5" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
       <c r="I191" s="19"/>
     </row>
     <row r="192" spans="1:9" ht="16.5" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
       <c r="I192" s="19"/>
     </row>
     <row r="193" spans="1:9" ht="16.5" customHeight="1">
@@ -13426,7 +13975,7 @@
       <c r="H1013" s="1"/>
       <c r="I1013" s="19"/>
     </row>
-    <row r="1014" spans="1:9" ht="16.5" customHeight="1">
+    <row r="1014" spans="1:9" ht="15" customHeight="1">
       <c r="A1014" s="1"/>
       <c r="B1014" s="1"/>
       <c r="C1014" s="1"/>
@@ -13435,9 +13984,8 @@
       <c r="F1014" s="1"/>
       <c r="G1014" s="1"/>
       <c r="H1014" s="1"/>
-      <c r="I1014" s="19"/>
-    </row>
-    <row r="1015" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1015" spans="1:9" ht="15" customHeight="1">
       <c r="A1015" s="1"/>
       <c r="B1015" s="1"/>
       <c r="C1015" s="1"/>
@@ -13446,9 +13994,8 @@
       <c r="F1015" s="1"/>
       <c r="G1015" s="1"/>
       <c r="H1015" s="1"/>
-      <c r="I1015" s="19"/>
-    </row>
-    <row r="1016" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1016" spans="1:9" ht="15" customHeight="1">
       <c r="A1016" s="1"/>
       <c r="B1016" s="1"/>
       <c r="C1016" s="1"/>
@@ -13457,9 +14004,8 @@
       <c r="F1016" s="1"/>
       <c r="G1016" s="1"/>
       <c r="H1016" s="1"/>
-      <c r="I1016" s="19"/>
-    </row>
-    <row r="1017" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1017" spans="1:9" ht="15" customHeight="1">
       <c r="A1017" s="1"/>
       <c r="B1017" s="1"/>
       <c r="C1017" s="1"/>
@@ -13468,9 +14014,8 @@
       <c r="F1017" s="1"/>
       <c r="G1017" s="1"/>
       <c r="H1017" s="1"/>
-      <c r="I1017" s="19"/>
-    </row>
-    <row r="1018" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1018" spans="1:9" ht="15" customHeight="1">
       <c r="A1018" s="1"/>
       <c r="B1018" s="1"/>
       <c r="C1018" s="1"/>
@@ -13479,9 +14024,8 @@
       <c r="F1018" s="1"/>
       <c r="G1018" s="1"/>
       <c r="H1018" s="1"/>
-      <c r="I1018" s="19"/>
-    </row>
-    <row r="1019" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1019" spans="1:9" ht="15" customHeight="1">
       <c r="A1019" s="1"/>
       <c r="B1019" s="1"/>
       <c r="C1019" s="1"/>
@@ -13490,136 +14034,104 @@
       <c r="F1019" s="1"/>
       <c r="G1019" s="1"/>
       <c r="H1019" s="1"/>
-      <c r="I1019" s="19"/>
-    </row>
-    <row r="1020" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1020" spans="1:9" ht="15" customHeight="1">
       <c r="A1020" s="1"/>
       <c r="B1020" s="1"/>
       <c r="C1020" s="1"/>
       <c r="D1020" s="1"/>
       <c r="E1020" s="1"/>
       <c r="F1020" s="1"/>
-      <c r="G1020" s="1"/>
-      <c r="H1020" s="1"/>
-      <c r="I1020" s="19"/>
-    </row>
-    <row r="1021" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1021" spans="1:9" ht="15" customHeight="1">
       <c r="A1021" s="1"/>
       <c r="B1021" s="1"/>
       <c r="C1021" s="1"/>
       <c r="D1021" s="1"/>
       <c r="E1021" s="1"/>
       <c r="F1021" s="1"/>
-      <c r="G1021" s="1"/>
-      <c r="H1021" s="1"/>
-      <c r="I1021" s="19"/>
-    </row>
-    <row r="1022" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1022" spans="1:9" ht="15" customHeight="1">
       <c r="A1022" s="1"/>
       <c r="B1022" s="1"/>
       <c r="C1022" s="1"/>
       <c r="D1022" s="1"/>
       <c r="E1022" s="1"/>
       <c r="F1022" s="1"/>
-      <c r="G1022" s="1"/>
-      <c r="H1022" s="1"/>
-      <c r="I1022" s="19"/>
-    </row>
-    <row r="1023" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1023" spans="1:9" ht="15" customHeight="1">
       <c r="A1023" s="1"/>
       <c r="B1023" s="1"/>
       <c r="C1023" s="1"/>
       <c r="D1023" s="1"/>
       <c r="E1023" s="1"/>
       <c r="F1023" s="1"/>
-      <c r="G1023" s="1"/>
-      <c r="H1023" s="1"/>
-      <c r="I1023" s="19"/>
-    </row>
-    <row r="1024" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1024" spans="1:9" ht="15" customHeight="1">
       <c r="A1024" s="1"/>
       <c r="B1024" s="1"/>
       <c r="C1024" s="1"/>
       <c r="D1024" s="1"/>
       <c r="E1024" s="1"/>
       <c r="F1024" s="1"/>
-      <c r="G1024" s="1"/>
-      <c r="H1024" s="1"/>
-      <c r="I1024" s="19"/>
-    </row>
-    <row r="1025" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1025" spans="1:6" ht="15" customHeight="1">
       <c r="A1025" s="1"/>
       <c r="B1025" s="1"/>
       <c r="C1025" s="1"/>
       <c r="D1025" s="1"/>
       <c r="E1025" s="1"/>
       <c r="F1025" s="1"/>
-      <c r="G1025" s="1"/>
-      <c r="H1025" s="1"/>
-      <c r="I1025" s="19"/>
-    </row>
-    <row r="1026" spans="1:9" ht="16.5" customHeight="1">
+    </row>
+    <row r="1026" spans="1:6" ht="15" customHeight="1">
       <c r="A1026" s="1"/>
       <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
       <c r="D1026" s="1"/>
       <c r="E1026" s="1"/>
       <c r="F1026" s="1"/>
-      <c r="G1026" s="1"/>
-      <c r="H1026" s="1"/>
-      <c r="I1026" s="19"/>
-    </row>
-    <row r="1027" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1027" spans="1:6" ht="15" customHeight="1">
       <c r="A1027" s="1"/>
       <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
       <c r="D1027" s="1"/>
       <c r="E1027" s="1"/>
       <c r="F1027" s="1"/>
-      <c r="G1027" s="1"/>
-      <c r="H1027" s="1"/>
-    </row>
-    <row r="1028" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1028" spans="1:6" ht="15" customHeight="1">
       <c r="A1028" s="1"/>
       <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
       <c r="D1028" s="1"/>
       <c r="E1028" s="1"/>
       <c r="F1028" s="1"/>
-      <c r="G1028" s="1"/>
-      <c r="H1028" s="1"/>
-    </row>
-    <row r="1029" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1029" spans="1:6" ht="15" customHeight="1">
       <c r="A1029" s="1"/>
       <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
       <c r="D1029" s="1"/>
       <c r="E1029" s="1"/>
       <c r="F1029" s="1"/>
-      <c r="G1029" s="1"/>
-      <c r="H1029" s="1"/>
-    </row>
-    <row r="1030" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1030" spans="1:6" ht="15" customHeight="1">
       <c r="A1030" s="1"/>
       <c r="B1030" s="1"/>
       <c r="C1030" s="1"/>
       <c r="D1030" s="1"/>
       <c r="E1030" s="1"/>
       <c r="F1030" s="1"/>
-      <c r="G1030" s="1"/>
-      <c r="H1030" s="1"/>
-    </row>
-    <row r="1031" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1031" spans="1:6" ht="15" customHeight="1">
       <c r="A1031" s="1"/>
       <c r="B1031" s="1"/>
       <c r="C1031" s="1"/>
       <c r="D1031" s="1"/>
       <c r="E1031" s="1"/>
       <c r="F1031" s="1"/>
-      <c r="G1031" s="1"/>
-      <c r="H1031" s="1"/>
-    </row>
-    <row r="1032" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="1032" spans="1:6" ht="15" customHeight="1">
       <c r="A1032" s="1"/>
       <c r="B1032" s="1"/>
       <c r="C1032" s="1"/>
@@ -13627,7 +14139,7 @@
       <c r="E1032" s="1"/>
       <c r="F1032" s="1"/>
     </row>
-    <row r="1033" spans="1:9" ht="15" customHeight="1">
+    <row r="1033" spans="1:6" ht="15" customHeight="1">
       <c r="A1033" s="1"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
@@ -13635,7 +14147,7 @@
       <c r="E1033" s="1"/>
       <c r="F1033" s="1"/>
     </row>
-    <row r="1034" spans="1:9" ht="15" customHeight="1">
+    <row r="1034" spans="1:6" ht="15" customHeight="1">
       <c r="A1034" s="1"/>
       <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
@@ -13643,7 +14155,7 @@
       <c r="E1034" s="1"/>
       <c r="F1034" s="1"/>
     </row>
-    <row r="1035" spans="1:9" ht="15" customHeight="1">
+    <row r="1035" spans="1:6" ht="15" customHeight="1">
       <c r="A1035" s="1"/>
       <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
@@ -13651,7 +14163,7 @@
       <c r="E1035" s="1"/>
       <c r="F1035" s="1"/>
     </row>
-    <row r="1036" spans="1:9" ht="15" customHeight="1">
+    <row r="1036" spans="1:6" ht="15" customHeight="1">
       <c r="A1036" s="1"/>
       <c r="B1036" s="1"/>
       <c r="C1036" s="1"/>
@@ -13659,7 +14171,7 @@
       <c r="E1036" s="1"/>
       <c r="F1036" s="1"/>
     </row>
-    <row r="1037" spans="1:9" ht="15" customHeight="1">
+    <row r="1037" spans="1:6" ht="15" customHeight="1">
       <c r="A1037" s="1"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
@@ -13667,7 +14179,7 @@
       <c r="E1037" s="1"/>
       <c r="F1037" s="1"/>
     </row>
-    <row r="1038" spans="1:9" ht="15" customHeight="1">
+    <row r="1038" spans="1:6" ht="15" customHeight="1">
       <c r="A1038" s="1"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
@@ -13675,7 +14187,7 @@
       <c r="E1038" s="1"/>
       <c r="F1038" s="1"/>
     </row>
-    <row r="1039" spans="1:9" ht="15" customHeight="1">
+    <row r="1039" spans="1:6" ht="15" customHeight="1">
       <c r="A1039" s="1"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
@@ -13683,7 +14195,7 @@
       <c r="E1039" s="1"/>
       <c r="F1039" s="1"/>
     </row>
-    <row r="1040" spans="1:9" ht="15" customHeight="1">
+    <row r="1040" spans="1:6" ht="15" customHeight="1">
       <c r="A1040" s="1"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
@@ -13756,7 +14268,6 @@
       <c r="F1048" s="1"/>
     </row>
     <row r="1049" spans="1:6" ht="15" customHeight="1">
-      <c r="A1049" s="1"/>
       <c r="B1049" s="1"/>
       <c r="C1049" s="1"/>
       <c r="D1049" s="1"/>
@@ -13764,7 +14275,6 @@
       <c r="F1049" s="1"/>
     </row>
     <row r="1050" spans="1:6" ht="15" customHeight="1">
-      <c r="A1050" s="1"/>
       <c r="B1050" s="1"/>
       <c r="C1050" s="1"/>
       <c r="D1050" s="1"/>
@@ -13772,7 +14282,6 @@
       <c r="F1050" s="1"/>
     </row>
     <row r="1051" spans="1:6" ht="15" customHeight="1">
-      <c r="A1051" s="1"/>
       <c r="B1051" s="1"/>
       <c r="C1051" s="1"/>
       <c r="D1051" s="1"/>
@@ -13780,7 +14289,6 @@
       <c r="F1051" s="1"/>
     </row>
     <row r="1052" spans="1:6" ht="15" customHeight="1">
-      <c r="A1052" s="1"/>
       <c r="B1052" s="1"/>
       <c r="C1052" s="1"/>
       <c r="D1052" s="1"/>
@@ -13788,7 +14296,6 @@
       <c r="F1052" s="1"/>
     </row>
     <row r="1053" spans="1:6" ht="15" customHeight="1">
-      <c r="A1053" s="1"/>
       <c r="B1053" s="1"/>
       <c r="C1053" s="1"/>
       <c r="D1053" s="1"/>
@@ -13796,120 +14303,28 @@
       <c r="F1053" s="1"/>
     </row>
     <row r="1054" spans="1:6" ht="15" customHeight="1">
-      <c r="A1054" s="1"/>
       <c r="B1054" s="1"/>
       <c r="C1054" s="1"/>
       <c r="D1054" s="1"/>
       <c r="E1054" s="1"/>
       <c r="F1054" s="1"/>
     </row>
-    <row r="1055" spans="1:6" ht="15" customHeight="1">
-      <c r="A1055" s="1"/>
-      <c r="B1055" s="1"/>
-      <c r="C1055" s="1"/>
-      <c r="D1055" s="1"/>
-      <c r="E1055" s="1"/>
-      <c r="F1055" s="1"/>
-    </row>
-    <row r="1056" spans="1:6" ht="15" customHeight="1">
-      <c r="A1056" s="1"/>
-      <c r="B1056" s="1"/>
-      <c r="C1056" s="1"/>
-      <c r="D1056" s="1"/>
-      <c r="E1056" s="1"/>
-      <c r="F1056" s="1"/>
-    </row>
-    <row r="1057" spans="1:6" ht="15" customHeight="1">
-      <c r="A1057" s="1"/>
-      <c r="B1057" s="1"/>
-      <c r="C1057" s="1"/>
-      <c r="D1057" s="1"/>
-      <c r="E1057" s="1"/>
-      <c r="F1057" s="1"/>
-    </row>
-    <row r="1058" spans="1:6" ht="15" customHeight="1">
-      <c r="A1058" s="1"/>
-      <c r="B1058" s="1"/>
-      <c r="C1058" s="1"/>
-      <c r="D1058" s="1"/>
-      <c r="E1058" s="1"/>
-      <c r="F1058" s="1"/>
-    </row>
-    <row r="1059" spans="1:6" ht="15" customHeight="1">
-      <c r="A1059" s="1"/>
-      <c r="B1059" s="1"/>
-      <c r="C1059" s="1"/>
-      <c r="D1059" s="1"/>
-      <c r="E1059" s="1"/>
-      <c r="F1059" s="1"/>
-    </row>
-    <row r="1060" spans="1:6" ht="15" customHeight="1">
-      <c r="A1060" s="1"/>
-      <c r="B1060" s="1"/>
-      <c r="C1060" s="1"/>
-      <c r="D1060" s="1"/>
-      <c r="E1060" s="1"/>
-      <c r="F1060" s="1"/>
-    </row>
-    <row r="1061" spans="1:6" ht="15" customHeight="1">
-      <c r="A1061" s="1"/>
-      <c r="B1061" s="1"/>
-      <c r="C1061" s="1"/>
-      <c r="D1061" s="1"/>
-      <c r="E1061" s="1"/>
-      <c r="F1061" s="1"/>
-    </row>
-    <row r="1062" spans="1:6" ht="15" customHeight="1">
-      <c r="B1062" s="1"/>
-      <c r="C1062" s="1"/>
-      <c r="D1062" s="1"/>
-      <c r="E1062" s="1"/>
-      <c r="F1062" s="1"/>
-    </row>
-    <row r="1063" spans="1:6" ht="15" customHeight="1">
-      <c r="B1063" s="1"/>
-      <c r="C1063" s="1"/>
-      <c r="D1063" s="1"/>
-      <c r="E1063" s="1"/>
-      <c r="F1063" s="1"/>
-    </row>
-    <row r="1064" spans="1:6" ht="15" customHeight="1">
-      <c r="B1064" s="1"/>
-      <c r="C1064" s="1"/>
-      <c r="D1064" s="1"/>
-      <c r="E1064" s="1"/>
-      <c r="F1064" s="1"/>
-    </row>
-    <row r="1065" spans="1:6" ht="15" customHeight="1">
-      <c r="B1065" s="1"/>
-      <c r="C1065" s="1"/>
-      <c r="D1065" s="1"/>
-      <c r="E1065" s="1"/>
-      <c r="F1065" s="1"/>
-    </row>
-    <row r="1066" spans="1:6" ht="15" customHeight="1">
-      <c r="B1066" s="1"/>
-      <c r="C1066" s="1"/>
-      <c r="D1066" s="1"/>
-      <c r="E1066" s="1"/>
-      <c r="F1066" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="C178:H178"/>
-    <mergeCell ref="C179:H179"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="C167:H167"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C104:H104"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C22:H22"/>
@@ -13931,108 +14346,108 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="69.36328125" customWidth="1"/>
-    <col min="6" max="26" width="8.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="A1" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teamproject\DoZip\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2C9920-B4C2-42EC-8F9A-CDBA4E2B32F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416E3440-8CEB-46A6-9B48-933EE303EBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,114 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>신호철</author>
     <author>tc={6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}</author>
   </authors>
   <commentList>
-    <comment ref="H153" authorId="0" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+    <comment ref="G146" authorId="0" shapeId="0" xr:uid="{9467D4C8-2017-4F2A-8433-36BB173747A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>신호철</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일때는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프리이엄</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> X
+1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일때는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프리미엄광고</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H155" authorId="1" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
       <text>
         <r>
           <rPr>
@@ -531,7 +635,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="265">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -1124,14 +1228,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>상세주소</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고항목</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>평수</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1148,10 +1244,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>디자인</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>인사말</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1409,6 +1501,116 @@
   </si>
   <si>
     <t>세부인테리어08(문)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_no</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_title</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_subtype</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_zipcode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소2</t>
+  </si>
+  <si>
+    <t>주소3</t>
+  </si>
+  <si>
+    <t>pf_addr1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_area</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_cost</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_period</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_concept</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_introduction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pf_closing </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_photo1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_photo2</t>
+  </si>
+  <si>
+    <t>pf_photo3</t>
+  </si>
+  <si>
+    <t>pf_photo4</t>
+  </si>
+  <si>
+    <t>pf_photo5</t>
+  </si>
+  <si>
+    <t>pf_photo6</t>
+  </si>
+  <si>
+    <t>pf_photo7</t>
+  </si>
+  <si>
+    <t>사진6</t>
+  </si>
+  <si>
+    <t>사진7</t>
+  </si>
+  <si>
+    <t>pf_premium</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_regdate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_range</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공범위</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_addr2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf_addr3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1416,7 +1618,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1479,8 +1681,36 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1545,6 +1775,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1669,7 +1905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1751,7 +1987,13 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,6 +2005,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1772,20 +2017,23 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2019,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1054"/>
+  <dimension ref="A1:Q1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F138" sqref="A138:XFD138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2040,26 +2288,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -2077,27 +2325,27 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
@@ -2393,49 +2641,49 @@
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
       <c r="K22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="32"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
@@ -2822,28 +3070,28 @@
       <c r="B40" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:17" ht="16.5" customHeight="1">
       <c r="B41" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:17" ht="16.5" customHeight="1">
@@ -3006,7 +3254,7 @@
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="16.5" customHeight="1">
@@ -3025,7 +3273,7 @@
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="16.5" customHeight="1">
@@ -3044,7 +3292,7 @@
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="16.5" customHeight="1">
@@ -3063,7 +3311,7 @@
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="16.5" customHeight="1">
@@ -3082,7 +3330,7 @@
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="16.5" customHeight="1">
@@ -3101,7 +3349,7 @@
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="16.5" customHeight="1">
@@ -3120,7 +3368,7 @@
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="16.5" customHeight="1">
@@ -3139,7 +3387,7 @@
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="16.5" customHeight="1">
@@ -3350,27 +3598,27 @@
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="30"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="32"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="32"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
       <c r="B72" s="3" t="s">
@@ -3709,14 +3957,14 @@
       <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="30"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="32"/>
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1">
@@ -3724,14 +3972,14 @@
       <c r="B105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="30"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="32"/>
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
@@ -3896,489 +4144,669 @@
       <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="C120" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="30"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="42"/>
       <c r="I120" s="19"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="30"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="42"/>
       <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="15" t="s">
+      <c r="E122" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I122" s="19"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3" t="s">
+      <c r="B123" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="13">
+        <v>38</v>
+      </c>
+      <c r="E123" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3" t="s">
+      <c r="F123" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13" t="s">
         <v>155</v>
       </c>
       <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3" t="s">
+      <c r="B124" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="13">
+        <v>12</v>
+      </c>
+      <c r="E124" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3" t="s">
+      <c r="F124" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13" t="s">
         <v>156</v>
       </c>
       <c r="I124" s="19"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3" t="s">
+      <c r="B125" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="13">
+        <v>50</v>
+      </c>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13" t="s">
         <v>157</v>
       </c>
       <c r="I125" s="19"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3" t="s">
+      <c r="B126" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="13">
+        <v>5</v>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13" t="s">
         <v>158</v>
       </c>
       <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3" t="s">
+      <c r="B127" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="13">
+        <v>5</v>
+      </c>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13" t="s">
         <v>159</v>
       </c>
       <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3" t="s">
+      <c r="B128" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="13">
+        <v>10</v>
+      </c>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="I128" s="19"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B129" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="13">
+        <v>7</v>
+      </c>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I128" s="19"/>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3" t="s">
+      <c r="I129" s="19"/>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B130" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="13">
+        <v>30</v>
+      </c>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I129" s="19"/>
-    </row>
-    <row r="130" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3" t="s">
+      <c r="I130" s="19"/>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B131" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="13">
+        <v>30</v>
+      </c>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="I131" s="19"/>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B132" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="13">
+        <v>20</v>
+      </c>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I132" s="19"/>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B133" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="13">
+        <v>10</v>
+      </c>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="I130" s="19"/>
-    </row>
-    <row r="131" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3" t="s">
+      <c r="I133" s="19"/>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B134" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="13">
+        <v>10</v>
+      </c>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I131" s="19"/>
-    </row>
-    <row r="132" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3" t="s">
+      <c r="I134" s="19"/>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B135" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="13">
+        <v>5</v>
+      </c>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I132" s="19"/>
-    </row>
-    <row r="133" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3" t="s">
+      <c r="I135" s="19"/>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B136" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D136" s="13">
+        <v>30</v>
+      </c>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I133" s="19"/>
-    </row>
-    <row r="134" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3" t="s">
+      <c r="I136"/>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B137" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I134" s="19"/>
-    </row>
-    <row r="135" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3" t="s">
+      <c r="I137" s="19"/>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B138" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I135" s="19"/>
-    </row>
-    <row r="136" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3" t="s">
+      <c r="I138" s="19"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B139" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" s="13">
+        <v>50</v>
+      </c>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I136" s="19"/>
-    </row>
-    <row r="137" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3" t="s">
+      <c r="I139" s="19"/>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B140" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" s="13">
+        <v>50</v>
+      </c>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I137" s="19"/>
-    </row>
-    <row r="138" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3" t="s">
+      <c r="I140" s="19"/>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B141" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D141" s="13">
+        <v>50</v>
+      </c>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="I138" s="19"/>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3" t="s">
+      <c r="I141" s="19"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B142" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D142" s="13">
+        <v>50</v>
+      </c>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="I139" s="19"/>
-    </row>
-    <row r="140" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3" t="s">
+      <c r="I142" s="19"/>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B143" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D143" s="13">
+        <v>50</v>
+      </c>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="I140" s="19"/>
-    </row>
-    <row r="141" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I141" s="19"/>
-    </row>
-    <row r="142" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I142" s="19"/>
-    </row>
-    <row r="143" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="I143" s="19"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3" t="s">
-        <v>174</v>
+      <c r="B144" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D144" s="13">
+        <v>50</v>
+      </c>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3" t="s">
-        <v>175</v>
+      <c r="B145" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D145" s="13">
+        <v>50</v>
+      </c>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="I145" s="19"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
+      <c r="B146" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="13">
+        <v>5</v>
+      </c>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13">
+        <v>0</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="I146" s="19"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
+      <c r="B147" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="13">
+        <v>20</v>
+      </c>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="I147" s="19"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="36"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
       <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="36"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
       <c r="I149" s="19"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
       <c r="A150" s="1"/>
-      <c r="B150" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F150" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G150" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H150" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="B150" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="29"/>
       <c r="I150" s="19"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" customHeight="1">
       <c r="A151" s="1"/>
-      <c r="B151" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D151" s="13">
-        <v>38</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13" t="s">
-        <v>155</v>
-      </c>
+      <c r="B151" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="29"/>
       <c r="I151" s="19"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1">
       <c r="A152" s="1"/>
-      <c r="B152" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="13">
-        <v>20</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13" t="s">
-        <v>179</v>
+      <c r="B152" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="I152" s="19"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="13" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D153" s="13">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E153" s="13" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="G153" s="13"/>
       <c r="H153" s="13" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="I153" s="19"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="13" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>13</v>
@@ -4386,47 +4814,51 @@
       <c r="D154" s="13">
         <v>20</v>
       </c>
-      <c r="E154" s="13"/>
+      <c r="E154" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F154" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G154" s="13"/>
       <c r="H154" s="13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I154" s="19"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="13" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D155" s="13">
-        <v>200</v>
-      </c>
-      <c r="E155" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F155" s="13" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="G155" s="13"/>
       <c r="H155" s="13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I155" s="19"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="13" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="13">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="E156" s="13"/>
       <c r="F156" s="13" t="s">
@@ -4434,79 +4866,79 @@
       </c>
       <c r="G156" s="13"/>
       <c r="H156" s="13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I156" s="19"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="13" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="13">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E157" s="13"/>
       <c r="F157" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G157" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="G157" s="13"/>
       <c r="H157" s="13" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I157" s="19"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D158" s="13">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="E158" s="13"/>
       <c r="F158" s="13" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="G158" s="13"/>
       <c r="H158" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:9" ht="16.5" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D159" s="13">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E159" s="13"/>
       <c r="F159" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G159" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="H159" s="13" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="I159" s="19"/>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>28</v>
@@ -4516,78 +4948,98 @@
       </c>
       <c r="E160" s="13"/>
       <c r="F160" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G160" s="13"/>
       <c r="H160" s="13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D161" s="13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E161" s="13"/>
       <c r="F161" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" s="13" t="s">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G161" s="13"/>
       <c r="H161" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D162" s="13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E162" s="13"/>
       <c r="F162" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="13" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
+      <c r="B163" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="13">
+        <v>20</v>
+      </c>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H163" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="I163" s="19"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
+      <c r="B164" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="13">
+        <v>20</v>
+      </c>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="I164" s="19"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1">
@@ -4603,82 +5055,78 @@
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C166" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="30"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
       <c r="I166" s="19"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="30"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
       <c r="I167" s="19"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="31"/>
+      <c r="H168" s="32"/>
       <c r="I168" s="19"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="B169" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31"/>
+      <c r="H169" s="32"/>
       <c r="I169" s="19"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
+      <c r="B170" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H170" s="3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="I170" s="19"/>
     </row>
@@ -4687,11 +5135,11 @@
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
+      <c r="E171" s="15"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="I171" s="19"/>
     </row>
@@ -4700,11 +5148,11 @@
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
+      <c r="E172" s="15"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="I172" s="19"/>
     </row>
@@ -4717,7 +5165,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I173" s="19"/>
     </row>
@@ -4730,20 +5178,20 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="I174" s="19"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="6"/>
+      <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="I175" s="19"/>
     </row>
@@ -4756,20 +5204,20 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="I176" s="19"/>
     </row>
     <row r="177" spans="1:9" ht="16.5" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="3"/>
+      <c r="B177" s="6"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="I177" s="19"/>
     </row>
@@ -4782,7 +5230,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I178" s="19"/>
     </row>
@@ -4795,7 +5243,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I179" s="19"/>
     </row>
@@ -4808,30 +5256,34 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I180" s="19"/>
     </row>
     <row r="181" spans="1:9" ht="16.5" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="I181" s="19"/>
     </row>
     <row r="182" spans="1:9" ht="16.5" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="I182" s="19"/>
     </row>
     <row r="183" spans="1:9" ht="16.5" customHeight="1">
@@ -14042,6 +14494,8 @@
       <c r="D1020" s="1"/>
       <c r="E1020" s="1"/>
       <c r="F1020" s="1"/>
+      <c r="G1020" s="1"/>
+      <c r="H1020" s="1"/>
     </row>
     <row r="1021" spans="1:9" ht="15" customHeight="1">
       <c r="A1021" s="1"/>
@@ -14050,6 +14504,8 @@
       <c r="D1021" s="1"/>
       <c r="E1021" s="1"/>
       <c r="F1021" s="1"/>
+      <c r="G1021" s="1"/>
+      <c r="H1021" s="1"/>
     </row>
     <row r="1022" spans="1:9" ht="15" customHeight="1">
       <c r="A1022" s="1"/>
@@ -14309,17 +14765,22 @@
       <c r="E1054" s="1"/>
       <c r="F1054" s="1"/>
     </row>
+    <row r="1055" spans="1:6" ht="15" customHeight="1">
+      <c r="B1055" s="1"/>
+      <c r="C1055" s="1"/>
+      <c r="D1055" s="1"/>
+      <c r="E1055" s="1"/>
+      <c r="F1055" s="1"/>
+    </row>
+    <row r="1056" spans="1:6" ht="15" customHeight="1">
+      <c r="B1056" s="1"/>
+      <c r="C1056" s="1"/>
+      <c r="D1056" s="1"/>
+      <c r="E1056" s="1"/>
+      <c r="F1056" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C148:H148"/>
-    <mergeCell ref="C149:H149"/>
-    <mergeCell ref="C166:H166"/>
-    <mergeCell ref="C167:H167"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C105:H105"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="C40:H40"/>
@@ -14330,6 +14791,15 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="C150:H150"/>
+    <mergeCell ref="C151:H151"/>
+    <mergeCell ref="C168:H168"/>
+    <mergeCell ref="C169:H169"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -14358,7 +14828,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -14367,16 +14837,16 @@
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>11</v>
@@ -14384,70 +14854,70 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\teamproject\DoZip\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\boot-3\220607\TeamProject\TeamDoZip\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416E3440-8CEB-46A6-9B48-933EE303EBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17488E6C-6CC8-4D02-B270-15B5AD78F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11625" yWindow="315" windowWidth="17115" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
   <authors>
     <author>신호철</author>
     <author>tc={6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}</author>
+    <author>tc={FEF27765-EAD0-4FE2-88D5-1A2AB5E9533F}</author>
   </authors>
   <commentList>
     <comment ref="G146" authorId="0" shapeId="0" xr:uid="{9467D4C8-2017-4F2A-8433-36BB173747A8}">
@@ -142,492 +143,22 @@
     </comment>
     <comment ref="H155" authorId="1" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>업체</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>문의라면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>컬럼에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>값을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>넣음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>.
-null</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>인</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>경우에는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>관리자문의가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>됨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>테이블은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> null </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>허용으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>하고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>업체문의를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>통해</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>글을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>작성하는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>유효성</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>검증으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>사업자번호를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>넣게</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>예정</t>
-        </r>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    업체 문의라면 해당 컬럼에 값을 넣음.
+null인 경우에는 관리자문의가 됨.
+테이블은 null 허용으로 하고,
+업체문의를 통해 글을 작성하는 경우 유효성 검증으로 사업자번호를 넣게 할 예정</t>
+      </text>
+    </comment>
+    <comment ref="H193" authorId="2" shapeId="0" xr:uid="{FEF27765-EAD0-4FE2-88D5-1A2AB5E9533F}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    마지막으로 수정이 반영된 날짜를 기록
+글을 삭제하면 삭제한 날짜가 마지막 수정일자로 박힘</t>
       </text>
     </comment>
   </commentList>
@@ -635,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="281">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -1276,10 +807,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>customer_qnaT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>고객문의에 대한 정보를 담는 테이블</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1356,10 +883,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>미답변</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>답변상태</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1372,10 +895,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>customer_review</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>고객후기에 대한 정보를 담는 테이블</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1388,26 +907,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>공간정보</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스타일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>별점</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1611,6 +1110,98 @@
   </si>
   <si>
     <t>pf_addr3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰제목</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰내용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_cont</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_no</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_title</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_star</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 조회수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마지막)수정일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_editDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_photo1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_photo2</t>
+  </si>
+  <si>
+    <t>rv_photo3</t>
+  </si>
+  <si>
+    <t>rv_photo4</t>
+  </si>
+  <si>
+    <t>rv_photo5</t>
+  </si>
+  <si>
+    <t>사진1 - 대표사진</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply_state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글상태(삭제:0)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnaT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1618,7 +1209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1672,14 +1263,6 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1987,13 +1570,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,9 +1585,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,13 +1594,13 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2034,6 +1611,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2256,21 +1839,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H153" dT="2022-09-15T04:33:24.07" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+  <threadedComment ref="H155" dT="2022-09-15T04:33:24.07" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
     <text>업체 문의라면 해당 컬럼에 값을 넣음.
 null인 경우에는 관리자문의가 됨.
 테이블은 null 허용으로 하고,
 업체문의를 통해 글을 작성하는 경우 유효성 검증으로 사업자번호를 넣게 할 예정</text>
+  </threadedComment>
+  <threadedComment ref="H193" dT="2022-09-20T05:05:11.72" personId="{FAB73F25-97D6-4B82-B9D3-9CD729B842AF}" id="{FEF27765-EAD0-4FE2-88D5-1A2AB5E9533F}">
+    <text>마지막으로 수정이 반영된 날짜를 기록
+글을 삭제하면 삭제한 날짜가 마지막 수정일자로 박힘</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1056"/>
+  <dimension ref="A1:Q1069"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F138" sqref="A138:XFD138"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2288,26 +1875,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -2325,27 +1912,27 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
@@ -2567,11 +2154,9 @@
         <v>37</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="21">
-        <v>20</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="13" t="s">
         <v>15</v>
@@ -2641,49 +2226,49 @@
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
       <c r="K22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="32"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
@@ -3070,28 +2655,28 @@
       <c r="B40" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
       <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:17" ht="16.5" customHeight="1">
       <c r="B41" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
       <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:17" ht="16.5" customHeight="1">
@@ -3254,7 +2839,7 @@
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="16.5" customHeight="1">
@@ -3273,7 +2858,7 @@
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="16.5" customHeight="1">
@@ -3292,7 +2877,7 @@
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="16.5" customHeight="1">
@@ -3311,7 +2896,7 @@
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="16.5" customHeight="1">
@@ -3330,7 +2915,7 @@
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="16.5" customHeight="1">
@@ -3349,7 +2934,7 @@
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="16.5" customHeight="1">
@@ -3368,7 +2953,7 @@
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="16.5" customHeight="1">
@@ -3387,7 +2972,7 @@
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="16.5" customHeight="1">
@@ -3598,27 +3183,27 @@
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="32"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="32"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="31"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
       <c r="B72" s="3" t="s">
@@ -3957,14 +3542,14 @@
       <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="32"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="31"/>
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1">
@@ -3972,14 +3557,14 @@
       <c r="B105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="32"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="31"/>
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
@@ -4144,31 +3729,31 @@
       <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="40" t="s">
+      <c r="C120" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="40"/>
       <c r="I120" s="19"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B121" s="39" t="s">
+      <c r="B121" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="40" t="s">
+      <c r="C121" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="42"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="40"/>
       <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1">
@@ -4197,7 +3782,7 @@
     </row>
     <row r="123" spans="1:9" ht="16.5" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>28</v>
@@ -4241,7 +3826,7 @@
     </row>
     <row r="125" spans="1:9" ht="16.5" customHeight="1">
       <c r="B125" s="13" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>49</v>
@@ -4261,7 +3846,7 @@
     </row>
     <row r="126" spans="1:9" ht="16.5" customHeight="1">
       <c r="B126" s="13" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>49</v>
@@ -4281,7 +3866,7 @@
     </row>
     <row r="127" spans="1:9" ht="16.5" customHeight="1">
       <c r="B127" s="13" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>49</v>
@@ -4301,7 +3886,7 @@
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1">
       <c r="B128" s="13" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>49</v>
@@ -4315,13 +3900,13 @@
       </c>
       <c r="G128" s="13"/>
       <c r="H128" s="13" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I128" s="19"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" customHeight="1">
       <c r="B129" s="13" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>49</v>
@@ -4341,7 +3926,7 @@
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1">
       <c r="B130" s="13" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>49</v>
@@ -4361,7 +3946,7 @@
     </row>
     <row r="131" spans="1:9" ht="16.5" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>49</v>
@@ -4375,13 +3960,13 @@
       </c>
       <c r="G131" s="13"/>
       <c r="H131" s="13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1">
       <c r="B132" s="13" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>49</v>
@@ -4391,17 +3976,17 @@
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G132" s="13"/>
       <c r="H132" s="13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1">
       <c r="B133" s="13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>28</v>
@@ -4421,7 +4006,7 @@
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
       <c r="B134" s="13" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>28</v>
@@ -4441,7 +4026,7 @@
     </row>
     <row r="135" spans="1:9" ht="16.5" customHeight="1">
       <c r="B135" s="13" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>28</v>
@@ -4461,7 +4046,7 @@
     </row>
     <row r="136" spans="1:9" ht="16.5" customHeight="1">
       <c r="B136" s="13" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>49</v>
@@ -4481,7 +4066,7 @@
     </row>
     <row r="137" spans="1:9" ht="16.5" customHeight="1">
       <c r="B137" s="13" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>49</v>
@@ -4501,7 +4086,7 @@
     </row>
     <row r="138" spans="1:9" ht="16.5" customHeight="1">
       <c r="B138" s="13" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>49</v>
@@ -4521,7 +4106,7 @@
     </row>
     <row r="139" spans="1:9" ht="16.5" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>49</v>
@@ -4531,7 +4116,7 @@
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="13" t="s">
@@ -4541,7 +4126,7 @@
     </row>
     <row r="140" spans="1:9" ht="16.5" customHeight="1">
       <c r="B140" s="13" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>49</v>
@@ -4551,7 +4136,7 @@
       </c>
       <c r="E140" s="13"/>
       <c r="F140" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G140" s="13"/>
       <c r="H140" s="13" t="s">
@@ -4561,7 +4146,7 @@
     </row>
     <row r="141" spans="1:9" ht="16.5" customHeight="1">
       <c r="B141" s="13" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>49</v>
@@ -4571,7 +4156,7 @@
       </c>
       <c r="E141" s="13"/>
       <c r="F141" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G141" s="13"/>
       <c r="H141" s="13" t="s">
@@ -4581,7 +4166,7 @@
     </row>
     <row r="142" spans="1:9" ht="16.5" customHeight="1">
       <c r="B142" s="13" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>49</v>
@@ -4591,7 +4176,7 @@
       </c>
       <c r="E142" s="13"/>
       <c r="F142" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G142" s="13"/>
       <c r="H142" s="13" t="s">
@@ -4601,7 +4186,7 @@
     </row>
     <row r="143" spans="1:9" ht="16.5" customHeight="1">
       <c r="B143" s="13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>49</v>
@@ -4611,7 +4196,7 @@
       </c>
       <c r="E143" s="13"/>
       <c r="F143" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G143" s="13"/>
       <c r="H143" s="13" t="s">
@@ -4622,7 +4207,7 @@
     <row r="144" spans="1:9" ht="16.5" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="13" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>49</v>
@@ -4632,18 +4217,18 @@
       </c>
       <c r="E144" s="13"/>
       <c r="F144" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G144" s="13"/>
       <c r="H144" s="13" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="13" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>49</v>
@@ -4653,18 +4238,18 @@
       </c>
       <c r="E145" s="13"/>
       <c r="F145" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G145" s="13"/>
       <c r="H145" s="13" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I145" s="19"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="13" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>28</v>
@@ -4685,7 +4270,7 @@
     <row r="147" spans="1:9" ht="16.5" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>49</v>
@@ -4730,14 +4315,14 @@
       <c r="B150" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C150" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="29"/>
+      <c r="C150" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="37"/>
       <c r="I150" s="19"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" customHeight="1">
@@ -4745,14 +4330,14 @@
       <c r="B151" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C151" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="28"/>
-      <c r="H151" s="29"/>
+      <c r="C151" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D151" s="36"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="36"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="37"/>
       <c r="I151" s="19"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1">
@@ -4783,7 +4368,7 @@
     <row r="153" spans="1:9" ht="16.5" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>28</v>
@@ -4822,7 +4407,7 @@
       </c>
       <c r="G154" s="13"/>
       <c r="H154" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I154" s="19"/>
     </row>
@@ -4832,33 +4417,33 @@
         <v>48</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D155" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E155" s="13" t="s">
         <v>53</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G155" s="13"/>
       <c r="H155" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I155" s="19"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="13">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E156" s="13"/>
       <c r="F156" s="13" t="s">
@@ -4866,14 +4451,14 @@
       </c>
       <c r="G156" s="13"/>
       <c r="H156" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I156" s="19"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>13</v>
@@ -4887,14 +4472,14 @@
       </c>
       <c r="G157" s="13"/>
       <c r="H157" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I157" s="19"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>13</v>
@@ -4908,14 +4493,14 @@
       </c>
       <c r="G158" s="13"/>
       <c r="H158" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:9" ht="16.5" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>13</v>
@@ -4938,49 +4523,49 @@
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="13" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D160" s="13">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E160" s="13"/>
       <c r="F160" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G160" s="13"/>
       <c r="H160" s="13" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" s="13">
-        <v>38</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G161" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="G161" s="13">
+        <v>1</v>
+      </c>
       <c r="H161" s="13" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>28</v>
@@ -4990,78 +4575,94 @@
       </c>
       <c r="E162" s="13"/>
       <c r="F162" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D163" s="13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E163" s="13"/>
       <c r="F163" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" s="13" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G163" s="13"/>
       <c r="H163" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I163" s="19"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D164" s="13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E164" s="13"/>
       <c r="F164" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G164" s="13"/>
       <c r="H164" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I164" s="19"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
+      <c r="B165" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="13">
+        <v>20</v>
+      </c>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="I165" s="19"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
+      <c r="B166" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="I166" s="19"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
@@ -5077,356 +4678,494 @@
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D168" s="31"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="32"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
       <c r="I168" s="19"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D169" s="31"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="31"/>
-      <c r="H169" s="32"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
       <c r="I169" s="19"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B170" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D170" s="36"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="36"/>
+      <c r="H170" s="37"/>
       <c r="I170" s="19"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="B171" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="36"/>
+      <c r="H171" s="37"/>
       <c r="I171" s="19"/>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3" t="s">
-        <v>176</v>
+      <c r="B172" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="I172" s="19"/>
     </row>
     <row r="173" spans="1:9" ht="16.5" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3" t="s">
-        <v>200</v>
+      <c r="B173" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" s="13">
+        <v>38</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="I173" s="19"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3" t="s">
-        <v>148</v>
+      <c r="B174" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" s="13">
+        <v>10</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="I174" s="19"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3" t="s">
-        <v>201</v>
+      <c r="B175" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="13">
+        <v>20</v>
+      </c>
+      <c r="E175" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F175" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="I175" s="19"/>
     </row>
     <row r="176" spans="1:9" ht="16.5" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
       <c r="I176" s="19"/>
     </row>
     <row r="177" spans="1:9" ht="16.5" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
       <c r="I177" s="19"/>
     </row>
     <row r="178" spans="1:9" ht="16.5" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
       <c r="I178" s="19"/>
     </row>
     <row r="179" spans="1:9" ht="16.5" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
       <c r="I179" s="19"/>
     </row>
     <row r="180" spans="1:9" ht="16.5" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
       <c r="I180" s="19"/>
     </row>
     <row r="181" spans="1:9" ht="16.5" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="B181" s="13"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
       <c r="I181" s="19"/>
     </row>
     <row r="182" spans="1:9" ht="16.5" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3" t="s">
-        <v>206</v>
-      </c>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="13"/>
       <c r="I182" s="19"/>
     </row>
     <row r="183" spans="1:9" ht="16.5" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
+      <c r="B183" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="13">
+        <v>200</v>
+      </c>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="13"/>
+      <c r="H183" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="I183" s="19"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
+      <c r="B184" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" s="13"/>
+      <c r="H184" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="I184" s="19"/>
     </row>
     <row r="185" spans="1:9" ht="16.5" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
+      <c r="B185" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="13">
+        <v>200</v>
+      </c>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13" t="s">
+        <v>273</v>
+      </c>
       <c r="I185" s="19"/>
     </row>
     <row r="186" spans="1:9" ht="16.5" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
+      <c r="B186" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="13">
+        <v>200</v>
+      </c>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G186" s="13"/>
+      <c r="H186" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="I186" s="19"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
+      <c r="B187" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="13">
+        <v>200</v>
+      </c>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G187" s="13"/>
+      <c r="H187" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="I187" s="19"/>
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
+      <c r="B188" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="13">
+        <v>200</v>
+      </c>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G188" s="13"/>
+      <c r="H188" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="I188" s="19"/>
     </row>
     <row r="189" spans="1:9" ht="16.5" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
+      <c r="B189" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="13">
+        <v>200</v>
+      </c>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="I189" s="19"/>
     </row>
     <row r="190" spans="1:9" ht="16.5" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
+      <c r="B190" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" s="13">
+        <v>10</v>
+      </c>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" s="13"/>
+      <c r="H190" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="I190" s="19"/>
     </row>
     <row r="191" spans="1:9" ht="16.5" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
+      <c r="B191" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" s="13">
+        <v>38</v>
+      </c>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191" s="13">
+        <v>0</v>
+      </c>
+      <c r="H191" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="I191" s="19"/>
     </row>
     <row r="192" spans="1:9" ht="16.5" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
+      <c r="B192" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" s="13">
+        <v>20</v>
+      </c>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H192" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="I192" s="19"/>
     </row>
     <row r="193" spans="1:9" ht="16.5" customHeight="1">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
+      <c r="B193" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="13">
+        <v>20</v>
+      </c>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G193" s="13"/>
+      <c r="H193" s="13" t="s">
+        <v>264</v>
+      </c>
       <c r="I193" s="19"/>
     </row>
     <row r="194" spans="1:9" ht="16.5" customHeight="1">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
+      <c r="B194" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" s="13">
+        <v>10</v>
+      </c>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" s="13">
+        <v>1</v>
+      </c>
+      <c r="H194" s="13" t="s">
+        <v>276</v>
+      </c>
       <c r="I194" s="19"/>
     </row>
     <row r="195" spans="1:9" ht="16.5" customHeight="1">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
+      <c r="B195" s="13"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="13"/>
       <c r="I195" s="19"/>
     </row>
     <row r="196" spans="1:9" ht="16.5" customHeight="1">
@@ -14427,7 +14166,7 @@
       <c r="H1013" s="1"/>
       <c r="I1013" s="19"/>
     </row>
-    <row r="1014" spans="1:9" ht="15" customHeight="1">
+    <row r="1014" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1014" s="1"/>
       <c r="B1014" s="1"/>
       <c r="C1014" s="1"/>
@@ -14436,8 +14175,9 @@
       <c r="F1014" s="1"/>
       <c r="G1014" s="1"/>
       <c r="H1014" s="1"/>
-    </row>
-    <row r="1015" spans="1:9" ht="15" customHeight="1">
+      <c r="I1014" s="19"/>
+    </row>
+    <row r="1015" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1015" s="1"/>
       <c r="B1015" s="1"/>
       <c r="C1015" s="1"/>
@@ -14446,8 +14186,9 @@
       <c r="F1015" s="1"/>
       <c r="G1015" s="1"/>
       <c r="H1015" s="1"/>
-    </row>
-    <row r="1016" spans="1:9" ht="15" customHeight="1">
+      <c r="I1015" s="19"/>
+    </row>
+    <row r="1016" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1016" s="1"/>
       <c r="B1016" s="1"/>
       <c r="C1016" s="1"/>
@@ -14456,8 +14197,9 @@
       <c r="F1016" s="1"/>
       <c r="G1016" s="1"/>
       <c r="H1016" s="1"/>
-    </row>
-    <row r="1017" spans="1:9" ht="15" customHeight="1">
+      <c r="I1016" s="19"/>
+    </row>
+    <row r="1017" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1017" s="1"/>
       <c r="B1017" s="1"/>
       <c r="C1017" s="1"/>
@@ -14466,8 +14208,9 @@
       <c r="F1017" s="1"/>
       <c r="G1017" s="1"/>
       <c r="H1017" s="1"/>
-    </row>
-    <row r="1018" spans="1:9" ht="15" customHeight="1">
+      <c r="I1017" s="19"/>
+    </row>
+    <row r="1018" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1018" s="1"/>
       <c r="B1018" s="1"/>
       <c r="C1018" s="1"/>
@@ -14476,8 +14219,9 @@
       <c r="F1018" s="1"/>
       <c r="G1018" s="1"/>
       <c r="H1018" s="1"/>
-    </row>
-    <row r="1019" spans="1:9" ht="15" customHeight="1">
+      <c r="I1018" s="19"/>
+    </row>
+    <row r="1019" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1019" s="1"/>
       <c r="B1019" s="1"/>
       <c r="C1019" s="1"/>
@@ -14486,8 +14230,9 @@
       <c r="F1019" s="1"/>
       <c r="G1019" s="1"/>
       <c r="H1019" s="1"/>
-    </row>
-    <row r="1020" spans="1:9" ht="15" customHeight="1">
+      <c r="I1019" s="19"/>
+    </row>
+    <row r="1020" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1020" s="1"/>
       <c r="B1020" s="1"/>
       <c r="C1020" s="1"/>
@@ -14496,8 +14241,9 @@
       <c r="F1020" s="1"/>
       <c r="G1020" s="1"/>
       <c r="H1020" s="1"/>
-    </row>
-    <row r="1021" spans="1:9" ht="15" customHeight="1">
+      <c r="I1020" s="19"/>
+    </row>
+    <row r="1021" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1021" s="1"/>
       <c r="B1021" s="1"/>
       <c r="C1021" s="1"/>
@@ -14506,112 +14252,144 @@
       <c r="F1021" s="1"/>
       <c r="G1021" s="1"/>
       <c r="H1021" s="1"/>
-    </row>
-    <row r="1022" spans="1:9" ht="15" customHeight="1">
+      <c r="I1021" s="19"/>
+    </row>
+    <row r="1022" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1022" s="1"/>
       <c r="B1022" s="1"/>
       <c r="C1022" s="1"/>
       <c r="D1022" s="1"/>
       <c r="E1022" s="1"/>
       <c r="F1022" s="1"/>
-    </row>
-    <row r="1023" spans="1:9" ht="15" customHeight="1">
+      <c r="G1022" s="1"/>
+      <c r="H1022" s="1"/>
+      <c r="I1022" s="19"/>
+    </row>
+    <row r="1023" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1023" s="1"/>
       <c r="B1023" s="1"/>
       <c r="C1023" s="1"/>
       <c r="D1023" s="1"/>
       <c r="E1023" s="1"/>
       <c r="F1023" s="1"/>
-    </row>
-    <row r="1024" spans="1:9" ht="15" customHeight="1">
+      <c r="G1023" s="1"/>
+      <c r="H1023" s="1"/>
+      <c r="I1023" s="19"/>
+    </row>
+    <row r="1024" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1024" s="1"/>
       <c r="B1024" s="1"/>
       <c r="C1024" s="1"/>
       <c r="D1024" s="1"/>
       <c r="E1024" s="1"/>
       <c r="F1024" s="1"/>
-    </row>
-    <row r="1025" spans="1:6" ht="15" customHeight="1">
+      <c r="G1024" s="1"/>
+      <c r="H1024" s="1"/>
+      <c r="I1024" s="19"/>
+    </row>
+    <row r="1025" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1025" s="1"/>
       <c r="B1025" s="1"/>
       <c r="C1025" s="1"/>
       <c r="D1025" s="1"/>
       <c r="E1025" s="1"/>
       <c r="F1025" s="1"/>
-    </row>
-    <row r="1026" spans="1:6" ht="15" customHeight="1">
+      <c r="G1025" s="1"/>
+      <c r="H1025" s="1"/>
+      <c r="I1025" s="19"/>
+    </row>
+    <row r="1026" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1026" s="1"/>
       <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
       <c r="D1026" s="1"/>
       <c r="E1026" s="1"/>
       <c r="F1026" s="1"/>
-    </row>
-    <row r="1027" spans="1:6" ht="15" customHeight="1">
+      <c r="G1026" s="1"/>
+      <c r="H1026" s="1"/>
+      <c r="I1026" s="19"/>
+    </row>
+    <row r="1027" spans="1:9" ht="15" customHeight="1">
       <c r="A1027" s="1"/>
       <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
       <c r="D1027" s="1"/>
       <c r="E1027" s="1"/>
       <c r="F1027" s="1"/>
-    </row>
-    <row r="1028" spans="1:6" ht="15" customHeight="1">
+      <c r="G1027" s="1"/>
+      <c r="H1027" s="1"/>
+    </row>
+    <row r="1028" spans="1:9" ht="15" customHeight="1">
       <c r="A1028" s="1"/>
       <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
       <c r="D1028" s="1"/>
       <c r="E1028" s="1"/>
       <c r="F1028" s="1"/>
-    </row>
-    <row r="1029" spans="1:6" ht="15" customHeight="1">
+      <c r="G1028" s="1"/>
+      <c r="H1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:9" ht="15" customHeight="1">
       <c r="A1029" s="1"/>
       <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
       <c r="D1029" s="1"/>
       <c r="E1029" s="1"/>
       <c r="F1029" s="1"/>
-    </row>
-    <row r="1030" spans="1:6" ht="15" customHeight="1">
+      <c r="G1029" s="1"/>
+      <c r="H1029" s="1"/>
+    </row>
+    <row r="1030" spans="1:9" ht="15" customHeight="1">
       <c r="A1030" s="1"/>
       <c r="B1030" s="1"/>
       <c r="C1030" s="1"/>
       <c r="D1030" s="1"/>
       <c r="E1030" s="1"/>
       <c r="F1030" s="1"/>
-    </row>
-    <row r="1031" spans="1:6" ht="15" customHeight="1">
+      <c r="G1030" s="1"/>
+      <c r="H1030" s="1"/>
+    </row>
+    <row r="1031" spans="1:9" ht="15" customHeight="1">
       <c r="A1031" s="1"/>
       <c r="B1031" s="1"/>
       <c r="C1031" s="1"/>
       <c r="D1031" s="1"/>
       <c r="E1031" s="1"/>
       <c r="F1031" s="1"/>
-    </row>
-    <row r="1032" spans="1:6" ht="15" customHeight="1">
+      <c r="G1031" s="1"/>
+      <c r="H1031" s="1"/>
+    </row>
+    <row r="1032" spans="1:9" ht="15" customHeight="1">
       <c r="A1032" s="1"/>
       <c r="B1032" s="1"/>
       <c r="C1032" s="1"/>
       <c r="D1032" s="1"/>
       <c r="E1032" s="1"/>
       <c r="F1032" s="1"/>
-    </row>
-    <row r="1033" spans="1:6" ht="15" customHeight="1">
+      <c r="G1032" s="1"/>
+      <c r="H1032" s="1"/>
+    </row>
+    <row r="1033" spans="1:9" ht="15" customHeight="1">
       <c r="A1033" s="1"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
       <c r="D1033" s="1"/>
       <c r="E1033" s="1"/>
       <c r="F1033" s="1"/>
-    </row>
-    <row r="1034" spans="1:6" ht="15" customHeight="1">
+      <c r="G1033" s="1"/>
+      <c r="H1033" s="1"/>
+    </row>
+    <row r="1034" spans="1:9" ht="15" customHeight="1">
       <c r="A1034" s="1"/>
       <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
       <c r="D1034" s="1"/>
       <c r="E1034" s="1"/>
       <c r="F1034" s="1"/>
-    </row>
-    <row r="1035" spans="1:6" ht="15" customHeight="1">
+      <c r="G1034" s="1"/>
+      <c r="H1034" s="1"/>
+    </row>
+    <row r="1035" spans="1:9" ht="15" customHeight="1">
       <c r="A1035" s="1"/>
       <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
@@ -14619,7 +14397,7 @@
       <c r="E1035" s="1"/>
       <c r="F1035" s="1"/>
     </row>
-    <row r="1036" spans="1:6" ht="15" customHeight="1">
+    <row r="1036" spans="1:9" ht="15" customHeight="1">
       <c r="A1036" s="1"/>
       <c r="B1036" s="1"/>
       <c r="C1036" s="1"/>
@@ -14627,7 +14405,7 @@
       <c r="E1036" s="1"/>
       <c r="F1036" s="1"/>
     </row>
-    <row r="1037" spans="1:6" ht="15" customHeight="1">
+    <row r="1037" spans="1:9" ht="15" customHeight="1">
       <c r="A1037" s="1"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
@@ -14635,7 +14413,7 @@
       <c r="E1037" s="1"/>
       <c r="F1037" s="1"/>
     </row>
-    <row r="1038" spans="1:6" ht="15" customHeight="1">
+    <row r="1038" spans="1:9" ht="15" customHeight="1">
       <c r="A1038" s="1"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
@@ -14643,7 +14421,7 @@
       <c r="E1038" s="1"/>
       <c r="F1038" s="1"/>
     </row>
-    <row r="1039" spans="1:6" ht="15" customHeight="1">
+    <row r="1039" spans="1:9" ht="15" customHeight="1">
       <c r="A1039" s="1"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
@@ -14651,7 +14429,7 @@
       <c r="E1039" s="1"/>
       <c r="F1039" s="1"/>
     </row>
-    <row r="1040" spans="1:6" ht="15" customHeight="1">
+    <row r="1040" spans="1:9" ht="15" customHeight="1">
       <c r="A1040" s="1"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
@@ -14724,6 +14502,7 @@
       <c r="F1048" s="1"/>
     </row>
     <row r="1049" spans="1:6" ht="15" customHeight="1">
+      <c r="A1049" s="1"/>
       <c r="B1049" s="1"/>
       <c r="C1049" s="1"/>
       <c r="D1049" s="1"/>
@@ -14731,6 +14510,7 @@
       <c r="F1049" s="1"/>
     </row>
     <row r="1050" spans="1:6" ht="15" customHeight="1">
+      <c r="A1050" s="1"/>
       <c r="B1050" s="1"/>
       <c r="C1050" s="1"/>
       <c r="D1050" s="1"/>
@@ -14738,6 +14518,7 @@
       <c r="F1050" s="1"/>
     </row>
     <row r="1051" spans="1:6" ht="15" customHeight="1">
+      <c r="A1051" s="1"/>
       <c r="B1051" s="1"/>
       <c r="C1051" s="1"/>
       <c r="D1051" s="1"/>
@@ -14745,6 +14526,7 @@
       <c r="F1051" s="1"/>
     </row>
     <row r="1052" spans="1:6" ht="15" customHeight="1">
+      <c r="A1052" s="1"/>
       <c r="B1052" s="1"/>
       <c r="C1052" s="1"/>
       <c r="D1052" s="1"/>
@@ -14752,6 +14534,7 @@
       <c r="F1052" s="1"/>
     </row>
     <row r="1053" spans="1:6" ht="15" customHeight="1">
+      <c r="A1053" s="1"/>
       <c r="B1053" s="1"/>
       <c r="C1053" s="1"/>
       <c r="D1053" s="1"/>
@@ -14759,6 +14542,7 @@
       <c r="F1053" s="1"/>
     </row>
     <row r="1054" spans="1:6" ht="15" customHeight="1">
+      <c r="A1054" s="1"/>
       <c r="B1054" s="1"/>
       <c r="C1054" s="1"/>
       <c r="D1054" s="1"/>
@@ -14766,6 +14550,7 @@
       <c r="F1054" s="1"/>
     </row>
     <row r="1055" spans="1:6" ht="15" customHeight="1">
+      <c r="A1055" s="1"/>
       <c r="B1055" s="1"/>
       <c r="C1055" s="1"/>
       <c r="D1055" s="1"/>
@@ -14773,14 +14558,120 @@
       <c r="F1055" s="1"/>
     </row>
     <row r="1056" spans="1:6" ht="15" customHeight="1">
+      <c r="A1056" s="1"/>
       <c r="B1056" s="1"/>
       <c r="C1056" s="1"/>
       <c r="D1056" s="1"/>
       <c r="E1056" s="1"/>
       <c r="F1056" s="1"/>
     </row>
+    <row r="1057" spans="1:6" ht="15" customHeight="1">
+      <c r="A1057" s="1"/>
+      <c r="B1057" s="1"/>
+      <c r="C1057" s="1"/>
+      <c r="D1057" s="1"/>
+      <c r="E1057" s="1"/>
+      <c r="F1057" s="1"/>
+    </row>
+    <row r="1058" spans="1:6" ht="15" customHeight="1">
+      <c r="A1058" s="1"/>
+      <c r="B1058" s="1"/>
+      <c r="C1058" s="1"/>
+      <c r="D1058" s="1"/>
+      <c r="E1058" s="1"/>
+      <c r="F1058" s="1"/>
+    </row>
+    <row r="1059" spans="1:6" ht="15" customHeight="1">
+      <c r="A1059" s="1"/>
+      <c r="B1059" s="1"/>
+      <c r="C1059" s="1"/>
+      <c r="D1059" s="1"/>
+      <c r="E1059" s="1"/>
+      <c r="F1059" s="1"/>
+    </row>
+    <row r="1060" spans="1:6" ht="15" customHeight="1">
+      <c r="A1060" s="1"/>
+      <c r="B1060" s="1"/>
+      <c r="C1060" s="1"/>
+      <c r="D1060" s="1"/>
+      <c r="E1060" s="1"/>
+      <c r="F1060" s="1"/>
+    </row>
+    <row r="1061" spans="1:6" ht="15" customHeight="1">
+      <c r="A1061" s="1"/>
+      <c r="B1061" s="1"/>
+      <c r="C1061" s="1"/>
+      <c r="D1061" s="1"/>
+      <c r="E1061" s="1"/>
+      <c r="F1061" s="1"/>
+    </row>
+    <row r="1062" spans="1:6" ht="15" customHeight="1">
+      <c r="B1062" s="1"/>
+      <c r="C1062" s="1"/>
+      <c r="D1062" s="1"/>
+      <c r="E1062" s="1"/>
+      <c r="F1062" s="1"/>
+    </row>
+    <row r="1063" spans="1:6" ht="15" customHeight="1">
+      <c r="B1063" s="1"/>
+      <c r="C1063" s="1"/>
+      <c r="D1063" s="1"/>
+      <c r="E1063" s="1"/>
+      <c r="F1063" s="1"/>
+    </row>
+    <row r="1064" spans="1:6" ht="15" customHeight="1">
+      <c r="B1064" s="1"/>
+      <c r="C1064" s="1"/>
+      <c r="D1064" s="1"/>
+      <c r="E1064" s="1"/>
+      <c r="F1064" s="1"/>
+    </row>
+    <row r="1065" spans="1:6" ht="15" customHeight="1">
+      <c r="B1065" s="1"/>
+      <c r="C1065" s="1"/>
+      <c r="D1065" s="1"/>
+      <c r="E1065" s="1"/>
+      <c r="F1065" s="1"/>
+    </row>
+    <row r="1066" spans="1:6" ht="15" customHeight="1">
+      <c r="B1066" s="1"/>
+      <c r="C1066" s="1"/>
+      <c r="D1066" s="1"/>
+      <c r="E1066" s="1"/>
+      <c r="F1066" s="1"/>
+    </row>
+    <row r="1067" spans="1:6" ht="15" customHeight="1">
+      <c r="B1067" s="1"/>
+      <c r="C1067" s="1"/>
+      <c r="D1067" s="1"/>
+      <c r="E1067" s="1"/>
+      <c r="F1067" s="1"/>
+    </row>
+    <row r="1068" spans="1:6" ht="15" customHeight="1">
+      <c r="B1068" s="1"/>
+      <c r="C1068" s="1"/>
+      <c r="D1068" s="1"/>
+      <c r="E1068" s="1"/>
+      <c r="F1068" s="1"/>
+    </row>
+    <row r="1069" spans="1:6" ht="15" customHeight="1">
+      <c r="B1069" s="1"/>
+      <c r="C1069" s="1"/>
+      <c r="D1069" s="1"/>
+      <c r="E1069" s="1"/>
+      <c r="F1069" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C150:H150"/>
+    <mergeCell ref="C151:H151"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="C171:H171"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="C40:H40"/>
@@ -14791,15 +14682,6 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="C150:H150"/>
-    <mergeCell ref="C151:H151"/>
-    <mergeCell ref="C168:H168"/>
-    <mergeCell ref="C169:H169"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C105:H105"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -14827,26 +14709,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="A1" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>11</v>
@@ -14854,70 +14736,70 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\teamproject\DoZip\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\20220607\프로젝트 관련\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416E3440-8CEB-46A6-9B48-933EE303EBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AAC734-153F-47CF-99B7-2DF8CDD5C619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="1320" windowWidth="15210" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -33,11 +33,438 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>1202-26</author>
     <author>신호철</author>
     <author>tc={6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}</author>
   </authors>
   <commentList>
-    <comment ref="G146" authorId="0" shapeId="0" xr:uid="{9467D4C8-2017-4F2A-8433-36BB173747A8}">
+    <comment ref="H108" authorId="0" shapeId="0" xr:uid="{111746AF-901C-41A9-A9AE-57F47C690977}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">estimateT </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>테이블에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가져와야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">정보
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>희망</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예산</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>희망시공시작일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>희망시공종료일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모집마감일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>견적신청일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">+7 or 10)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공간유형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물유형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인테리어종류</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>세부선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시공규모</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">희망스타일
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">contractT </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>테이블에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가져와야할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">정보
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사업자번호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상호명</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G153" authorId="1" shapeId="0" xr:uid="{9467D4C8-2017-4F2A-8433-36BB173747A8}">
       <text>
         <r>
           <rPr>
@@ -140,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H155" authorId="1" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+    <comment ref="H162" authorId="2" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
       <text>
         <r>
           <rPr>
@@ -635,7 +1062,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="294">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -1100,10 +1527,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>업체 사업자 번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>공사명</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1116,14 +1539,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>공사기간(착공)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사기간(준공)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>총공사대금</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1156,14 +1571,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">발주자 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>시공자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>bidT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1184,18 +1591,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>업체가 올리는 입찰금액</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>공사기간 (7일, 10일 …)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>어필내용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>마감여부</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1611,6 +2010,150 @@
   </si>
   <si>
     <t>pf_addr3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가 한마디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 인테리어 이미지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트너스 로고 이미지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제공 서비스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>예치금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체사진(실내)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체사진(실외)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주거-가능공간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주거-건물유형</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상업-건물유형</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상업-가능공간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주거 담당자명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 연락처</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상업 담당자명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금계산서 이메일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금계좌(은행명)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금계좌(예금주)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금계좌(계좌번호)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>통장 사본</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자등록증 사본</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체의 입찰가</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>희망 스타일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 사업자번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 주민등록번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사시작일(착공)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사종료일(준공)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 주소</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업장(업체) 주소</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 연락처</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 이름(상호명)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1618,7 +2161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1706,6 +2249,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1987,6 +2537,9 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2003,6 +2556,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2022,18 +2584,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2267,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1056"/>
+  <dimension ref="A1:Q1063"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F138" sqref="A138:XFD138"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2284,30 +2834,32 @@
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="18" customWidth="1"/>
-    <col min="10" max="25" width="15.42578125" customWidth="1"/>
+    <col min="10" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -2325,27 +2877,27 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
@@ -2641,49 +3193,49 @@
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
       <c r="K22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
@@ -2749,16 +3301,20 @@
       <c r="H25" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1">
@@ -2783,9 +3339,13 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="O26" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
       <c r="B27" s="13" t="s">
@@ -2809,9 +3369,13 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="O27" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="Q27" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
       <c r="B28" s="13" t="s">
@@ -2835,9 +3399,13 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="O28" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
       <c r="B29" s="13" t="s">
@@ -2863,7 +3431,9 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="Q29" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
       <c r="B30" s="13" t="s">
@@ -2889,7 +3459,9 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="Q30" s="3" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" customHeight="1">
       <c r="B31" s="13" t="s">
@@ -2915,7 +3487,9 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="Q31" s="3" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" customHeight="1">
       <c r="B32" s="13" t="s">
@@ -2941,7 +3515,9 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="Q32" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
@@ -2970,7 +3546,9 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="Q33" s="3" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
@@ -2993,6 +3571,15 @@
       <c r="H34" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
@@ -3013,6 +3600,15 @@
       <c r="H35" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" customHeight="1">
       <c r="A36" s="1"/>
@@ -3033,6 +3629,15 @@
       <c r="H36" s="13" t="s">
         <v>76</v>
       </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
@@ -3056,43 +3661,88 @@
         <v>78</v>
       </c>
       <c r="I37" s="19"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="I38" s="19"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" customHeight="1">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="19"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="40" spans="1:17" ht="16.5" customHeight="1">
       <c r="B40" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="19"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" customHeight="1">
       <c r="B41" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="19"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" customHeight="1">
       <c r="B42" s="23" t="s">
@@ -3117,6 +3767,15 @@
         <v>11</v>
       </c>
       <c r="I42" s="19"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" customHeight="1">
       <c r="B43" s="25" t="s">
@@ -3137,6 +3796,15 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25" t="s">
         <v>83</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" customHeight="1">
@@ -3160,6 +3828,15 @@
       <c r="H44" s="25" t="s">
         <v>16</v>
       </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" customHeight="1">
       <c r="A45" s="1"/>
@@ -3180,6 +3857,15 @@
       <c r="H45" s="25" t="s">
         <v>86</v>
       </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" customHeight="1">
       <c r="B46" s="25" t="s">
@@ -3199,6 +3885,15 @@
       <c r="H46" s="25" t="s">
         <v>88</v>
       </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="47" spans="1:17" ht="16.5" customHeight="1">
       <c r="B47" s="25" t="s">
@@ -3218,6 +3913,15 @@
       <c r="H47" s="25" t="s">
         <v>91</v>
       </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="48" spans="1:17" ht="16.5" customHeight="1">
       <c r="B48" s="25" t="s">
@@ -3254,7 +3958,7 @@
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="16.5" customHeight="1">
@@ -3273,7 +3977,7 @@
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="16.5" customHeight="1">
@@ -3292,7 +3996,7 @@
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="16.5" customHeight="1">
@@ -3311,7 +4015,7 @@
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="16.5" customHeight="1">
@@ -3330,7 +4034,7 @@
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="16.5" customHeight="1">
@@ -3349,7 +4053,7 @@
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="16.5" customHeight="1">
@@ -3368,7 +4072,7 @@
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="16.5" customHeight="1">
@@ -3387,7 +4091,7 @@
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="16.5" customHeight="1">
@@ -3598,27 +4302,27 @@
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
       <c r="B72" s="3" t="s">
@@ -3687,7 +4391,7 @@
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" customHeight="1">
@@ -3698,7 +4402,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5" customHeight="1">
@@ -3709,7 +4413,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" customHeight="1">
@@ -3720,7 +4424,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5" customHeight="1">
@@ -3731,7 +4435,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>132</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" customHeight="1">
@@ -3742,7 +4446,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>133</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="16.5" customHeight="1">
@@ -3753,7 +4457,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="16.5" customHeight="1">
@@ -3764,7 +4468,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="16.5" customHeight="1">
@@ -3775,7 +4479,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="16.5" customHeight="1">
@@ -3786,7 +4490,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="16.5" customHeight="1">
@@ -3797,7 +4501,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="16.5" customHeight="1">
@@ -3808,7 +4512,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="16.5" customHeight="1">
@@ -3819,7 +4523,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="16.5" customHeight="1">
@@ -3830,7 +4534,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="16.5" customHeight="1">
@@ -3840,7 +4544,9 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="H89" s="11" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="90" spans="2:8" ht="16.5" customHeight="1">
       <c r="B90" s="3"/>
@@ -3849,8 +4555,8 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="11" t="s">
-        <v>142</v>
+      <c r="H90" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="16.5" customHeight="1">
@@ -3860,7 +4566,9 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="92" spans="2:8" ht="16.5" customHeight="1">
       <c r="B92" s="3"/>
@@ -3869,7 +4577,9 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="H92" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="93" spans="2:8" ht="16.5" customHeight="1">
       <c r="B93" s="3"/>
@@ -3878,7 +4588,9 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="H93" s="11" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="94" spans="2:8" ht="16.5" customHeight="1">
       <c r="B94" s="3"/>
@@ -3887,8 +4599,8 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="11" t="s">
-        <v>143</v>
+      <c r="H94" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="16.5" customHeight="1">
@@ -3957,14 +4669,14 @@
       <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="32"/>
+      <c r="C104" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1">
@@ -3972,14 +4684,14 @@
       <c r="B105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="32"/>
+      <c r="C105" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="33"/>
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
@@ -3993,7 +4705,7 @@
         <v>7</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>9</v>
@@ -4011,7 +4723,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -4030,7 +4742,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I108" s="19"/>
     </row>
@@ -4044,7 +4756,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="I109" s="19"/>
     </row>
@@ -4056,7 +4768,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="I110" s="19"/>
     </row>
@@ -4068,7 +4780,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I111" s="19"/>
     </row>
@@ -4080,7 +4792,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="I112" s="19"/>
     </row>
@@ -4092,7 +4804,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I113" s="19"/>
     </row>
@@ -4107,307 +4819,237 @@
       <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
       <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
       <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
       <c r="I117" s="19"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
       <c r="I118" s="19"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
       <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="19"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="19"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="19"/>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="19"/>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" customHeight="1">
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="19"/>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="19"/>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="19"/>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B127" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B121" s="39" t="s">
+      <c r="C127" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="19"/>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B128" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="19"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B122" s="16" t="s">
+      <c r="C128" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="19"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B129" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C129" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D129" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F122" s="16" t="s">
+      <c r="E129" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="G129" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H122" s="16" t="s">
+      <c r="H129" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="I122" s="19"/>
-    </row>
-    <row r="123" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B123" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="13">
-        <v>38</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="I123" s="19"/>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B124" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="13">
-        <v>12</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="I124" s="19"/>
-    </row>
-    <row r="125" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B125" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="13">
-        <v>50</v>
-      </c>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="I125" s="19"/>
-    </row>
-    <row r="126" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B126" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="13">
-        <v>5</v>
-      </c>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="I126" s="19"/>
-    </row>
-    <row r="127" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B127" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="13">
-        <v>5</v>
-      </c>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="I127" s="19"/>
-    </row>
-    <row r="128" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B128" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="13">
-        <v>10</v>
-      </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="I128" s="19"/>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B129" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="13">
-        <v>7</v>
-      </c>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="I129" s="19"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1">
       <c r="B130" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D130" s="13">
-        <v>30</v>
-      </c>
-      <c r="E130" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F130" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="13"/>
       <c r="H130" s="13" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="I130" s="19"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D131" s="13">
-        <v>30</v>
-      </c>
-      <c r="E131" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F131" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="13"/>
       <c r="H131" s="13" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1">
       <c r="B132" s="13" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D132" s="13">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="13" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="G132" s="13"/>
       <c r="H132" s="13" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1">
       <c r="B133" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D133" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="13" t="s">
@@ -4415,19 +5057,19 @@
       </c>
       <c r="G133" s="13"/>
       <c r="H133" s="13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
       <c r="B134" s="13" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D134" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E134" s="13"/>
       <c r="F134" s="13" t="s">
@@ -4435,19 +5077,19 @@
       </c>
       <c r="G134" s="13"/>
       <c r="H134" s="13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I134" s="19"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" customHeight="1">
       <c r="B135" s="13" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D135" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E135" s="13"/>
       <c r="F135" s="13" t="s">
@@ -4455,19 +5097,19 @@
       </c>
       <c r="G135" s="13"/>
       <c r="H135" s="13" t="s">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="I135" s="19"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" customHeight="1">
       <c r="B136" s="13" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D136" s="13">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E136" s="13"/>
       <c r="F136" s="13" t="s">
@@ -4475,19 +5117,19 @@
       </c>
       <c r="G136" s="13"/>
       <c r="H136" s="13" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="I136"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" customHeight="1">
       <c r="B137" s="13" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D137" s="13">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="13" t="s">
@@ -4495,19 +5137,19 @@
       </c>
       <c r="G137" s="13"/>
       <c r="H137" s="13" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="I137" s="19"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" customHeight="1">
       <c r="B138" s="13" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D138" s="13">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E138" s="13"/>
       <c r="F138" s="13" t="s">
@@ -4515,430 +5157,422 @@
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="13" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="I138" s="19"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D139" s="13">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="13" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="13" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="I139" s="19"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" customHeight="1">
       <c r="B140" s="13" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D140" s="13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E140" s="13"/>
       <c r="F140" s="13" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="G140" s="13"/>
       <c r="H140" s="13" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I140" s="19"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" customHeight="1">
       <c r="B141" s="13" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D141" s="13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E141" s="13"/>
       <c r="F141" s="13" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="G141" s="13"/>
       <c r="H141" s="13" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="I141" s="19"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" customHeight="1">
       <c r="B142" s="13" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D142" s="13">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E142" s="13"/>
       <c r="F142" s="13" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="G142" s="13"/>
       <c r="H142" s="13" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I142" s="19"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" customHeight="1">
       <c r="B143" s="13" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D143" s="13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E143" s="13"/>
       <c r="F143" s="13" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="G143" s="13"/>
       <c r="H143" s="13" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="I143" s="19"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="13" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D144" s="13">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="E144" s="13"/>
       <c r="F144" s="13" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="G144" s="13"/>
       <c r="H144" s="13" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="13" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D145" s="13">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="E145" s="13"/>
       <c r="F145" s="13" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="G145" s="13"/>
       <c r="H145" s="13" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="I145" s="19"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="13" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D146" s="13">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13">
-        <v>0</v>
-      </c>
+      <c r="F146" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G146" s="13"/>
       <c r="H146" s="13" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I146" s="19"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="13" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D147" s="13">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="G147" s="13"/>
       <c r="H147" s="13" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I147" s="19"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
+      <c r="B148" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" s="13">
+        <v>50</v>
+      </c>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
+      <c r="B149" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="13">
+        <v>50</v>
+      </c>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I149" s="19"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
       <c r="A150" s="1"/>
-      <c r="B150" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="29"/>
+      <c r="B150" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="13">
+        <v>50</v>
+      </c>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="I150" s="19"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" customHeight="1">
       <c r="A151" s="1"/>
-      <c r="B151" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="28"/>
-      <c r="H151" s="29"/>
+      <c r="B151" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D151" s="13">
+        <v>50</v>
+      </c>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13" t="s">
+        <v>249</v>
+      </c>
       <c r="I151" s="19"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1">
       <c r="A152" s="1"/>
-      <c r="B152" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F152" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G152" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H152" s="16" t="s">
-        <v>11</v>
+      <c r="B152" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="13">
+        <v>50</v>
+      </c>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="I152" s="19"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="13" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D153" s="13">
-        <v>38</v>
-      </c>
-      <c r="E153" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13">
+        <v>0</v>
+      </c>
       <c r="H153" s="13" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I153" s="19"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="13" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D154" s="13">
         <v>20</v>
       </c>
-      <c r="E154" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="E154" s="13"/>
       <c r="F154" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G154" s="13"/>
       <c r="H154" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="I154" s="19"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" s="13">
-        <v>10</v>
-      </c>
-      <c r="E155" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F155" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13" t="s">
-        <v>178</v>
-      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
       <c r="I155" s="19"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" s="13">
-        <v>20</v>
-      </c>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" s="13"/>
-      <c r="H156" s="13" t="s">
-        <v>180</v>
-      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
       <c r="I156" s="19"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157" s="13">
-        <v>200</v>
-      </c>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G157" s="13"/>
-      <c r="H157" s="13" t="s">
-        <v>182</v>
-      </c>
+      <c r="B157" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="30"/>
       <c r="I157" s="19"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" s="13"/>
-      <c r="H158" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="B158" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="30"/>
       <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:9" ht="16.5" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D159" s="13">
-        <v>20</v>
-      </c>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H159" s="13" t="s">
-        <v>172</v>
+      <c r="B159" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="I159" s="19"/>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="13" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>28</v>
@@ -4946,62 +5580,68 @@
       <c r="D160" s="13">
         <v>38</v>
       </c>
-      <c r="E160" s="13"/>
+      <c r="E160" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F160" s="13" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G160" s="13"/>
       <c r="H160" s="13" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="13" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D161" s="13">
-        <v>38</v>
-      </c>
-      <c r="E161" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F161" s="13" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G161" s="13"/>
       <c r="H161" s="13" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="13" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D162" s="13">
-        <v>38</v>
-      </c>
-      <c r="E162" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F162" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="13" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="13" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>13</v>
@@ -5013,211 +5653,269 @@
       <c r="F163" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="13" t="s">
-        <v>193</v>
-      </c>
+      <c r="G163" s="13"/>
       <c r="H163" s="13" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="I163" s="19"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="13" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="13">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E164" s="13"/>
       <c r="F164" s="13" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G164" s="13"/>
       <c r="H164" s="13" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I164" s="19"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
+      <c r="B165" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="I165" s="19"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
+      <c r="B166" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="13">
+        <v>20</v>
+      </c>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="I166" s="19"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
+      <c r="B167" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" s="13">
+        <v>38</v>
+      </c>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="I167" s="19"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D168" s="31"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="32"/>
+      <c r="B168" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" s="13">
+        <v>38</v>
+      </c>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="I168" s="19"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D169" s="31"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="31"/>
-      <c r="H169" s="32"/>
+      <c r="B169" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" s="13">
+        <v>38</v>
+      </c>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="I169" s="19"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>199</v>
+      <c r="B170" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="13">
+        <v>20</v>
+      </c>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H170" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="I170" s="19"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3" t="s">
-        <v>147</v>
+      <c r="B171" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="13">
+        <v>20</v>
+      </c>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="I171" s="19"/>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
       <c r="I172" s="19"/>
     </row>
     <row r="173" spans="1:9" ht="16.5" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
       <c r="I173" s="19"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
       <c r="I174" s="19"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="B175" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="33"/>
       <c r="I175" s="19"/>
     </row>
     <row r="176" spans="1:9" ht="16.5" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="B176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="33"/>
       <c r="I176" s="19"/>
     </row>
     <row r="177" spans="1:9" ht="16.5" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+      <c r="B177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H177" s="3" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="I177" s="19"/>
     </row>
@@ -5226,11 +5924,11 @@
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
+      <c r="E178" s="15"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="I178" s="19"/>
     </row>
@@ -5239,11 +5937,11 @@
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
+      <c r="E179" s="15"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="I179" s="19"/>
     </row>
@@ -5256,7 +5954,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="I180" s="19"/>
     </row>
@@ -5269,7 +5967,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="I181" s="19"/>
     </row>
@@ -5282,85 +5980,99 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="I182" s="19"/>
     </row>
     <row r="183" spans="1:9" ht="16.5" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="I183" s="19"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="I184" s="19"/>
     </row>
     <row r="185" spans="1:9" ht="16.5" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="I185" s="19"/>
     </row>
     <row r="186" spans="1:9" ht="16.5" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="I186" s="19"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="I187" s="19"/>
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="I188" s="19"/>
     </row>
     <row r="189" spans="1:9" ht="16.5" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="I189" s="19"/>
     </row>
     <row r="190" spans="1:9" ht="16.5" customHeight="1">
@@ -14514,6 +15226,8 @@
       <c r="D1022" s="1"/>
       <c r="E1022" s="1"/>
       <c r="F1022" s="1"/>
+      <c r="G1022" s="1"/>
+      <c r="H1022" s="1"/>
     </row>
     <row r="1023" spans="1:9" ht="15" customHeight="1">
       <c r="A1023" s="1"/>
@@ -14522,6 +15236,8 @@
       <c r="D1023" s="1"/>
       <c r="E1023" s="1"/>
       <c r="F1023" s="1"/>
+      <c r="G1023" s="1"/>
+      <c r="H1023" s="1"/>
     </row>
     <row r="1024" spans="1:9" ht="15" customHeight="1">
       <c r="A1024" s="1"/>
@@ -14530,40 +15246,50 @@
       <c r="D1024" s="1"/>
       <c r="E1024" s="1"/>
       <c r="F1024" s="1"/>
-    </row>
-    <row r="1025" spans="1:6" ht="15" customHeight="1">
+      <c r="G1024" s="1"/>
+      <c r="H1024" s="1"/>
+    </row>
+    <row r="1025" spans="1:8" ht="15" customHeight="1">
       <c r="A1025" s="1"/>
       <c r="B1025" s="1"/>
       <c r="C1025" s="1"/>
       <c r="D1025" s="1"/>
       <c r="E1025" s="1"/>
       <c r="F1025" s="1"/>
-    </row>
-    <row r="1026" spans="1:6" ht="15" customHeight="1">
+      <c r="G1025" s="1"/>
+      <c r="H1025" s="1"/>
+    </row>
+    <row r="1026" spans="1:8" ht="15" customHeight="1">
       <c r="A1026" s="1"/>
       <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
       <c r="D1026" s="1"/>
       <c r="E1026" s="1"/>
       <c r="F1026" s="1"/>
-    </row>
-    <row r="1027" spans="1:6" ht="15" customHeight="1">
+      <c r="G1026" s="1"/>
+      <c r="H1026" s="1"/>
+    </row>
+    <row r="1027" spans="1:8" ht="15" customHeight="1">
       <c r="A1027" s="1"/>
       <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
       <c r="D1027" s="1"/>
       <c r="E1027" s="1"/>
       <c r="F1027" s="1"/>
-    </row>
-    <row r="1028" spans="1:6" ht="15" customHeight="1">
+      <c r="G1027" s="1"/>
+      <c r="H1027" s="1"/>
+    </row>
+    <row r="1028" spans="1:8" ht="15" customHeight="1">
       <c r="A1028" s="1"/>
       <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
       <c r="D1028" s="1"/>
       <c r="E1028" s="1"/>
       <c r="F1028" s="1"/>
-    </row>
-    <row r="1029" spans="1:6" ht="15" customHeight="1">
+      <c r="G1028" s="1"/>
+      <c r="H1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:8" ht="15" customHeight="1">
       <c r="A1029" s="1"/>
       <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
@@ -14571,7 +15297,7 @@
       <c r="E1029" s="1"/>
       <c r="F1029" s="1"/>
     </row>
-    <row r="1030" spans="1:6" ht="15" customHeight="1">
+    <row r="1030" spans="1:8" ht="15" customHeight="1">
       <c r="A1030" s="1"/>
       <c r="B1030" s="1"/>
       <c r="C1030" s="1"/>
@@ -14579,7 +15305,7 @@
       <c r="E1030" s="1"/>
       <c r="F1030" s="1"/>
     </row>
-    <row r="1031" spans="1:6" ht="15" customHeight="1">
+    <row r="1031" spans="1:8" ht="15" customHeight="1">
       <c r="A1031" s="1"/>
       <c r="B1031" s="1"/>
       <c r="C1031" s="1"/>
@@ -14587,7 +15313,7 @@
       <c r="E1031" s="1"/>
       <c r="F1031" s="1"/>
     </row>
-    <row r="1032" spans="1:6" ht="15" customHeight="1">
+    <row r="1032" spans="1:8" ht="15" customHeight="1">
       <c r="A1032" s="1"/>
       <c r="B1032" s="1"/>
       <c r="C1032" s="1"/>
@@ -14595,7 +15321,7 @@
       <c r="E1032" s="1"/>
       <c r="F1032" s="1"/>
     </row>
-    <row r="1033" spans="1:6" ht="15" customHeight="1">
+    <row r="1033" spans="1:8" ht="15" customHeight="1">
       <c r="A1033" s="1"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
@@ -14603,7 +15329,7 @@
       <c r="E1033" s="1"/>
       <c r="F1033" s="1"/>
     </row>
-    <row r="1034" spans="1:6" ht="15" customHeight="1">
+    <row r="1034" spans="1:8" ht="15" customHeight="1">
       <c r="A1034" s="1"/>
       <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
@@ -14611,7 +15337,7 @@
       <c r="E1034" s="1"/>
       <c r="F1034" s="1"/>
     </row>
-    <row r="1035" spans="1:6" ht="15" customHeight="1">
+    <row r="1035" spans="1:8" ht="15" customHeight="1">
       <c r="A1035" s="1"/>
       <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
@@ -14619,7 +15345,7 @@
       <c r="E1035" s="1"/>
       <c r="F1035" s="1"/>
     </row>
-    <row r="1036" spans="1:6" ht="15" customHeight="1">
+    <row r="1036" spans="1:8" ht="15" customHeight="1">
       <c r="A1036" s="1"/>
       <c r="B1036" s="1"/>
       <c r="C1036" s="1"/>
@@ -14627,7 +15353,7 @@
       <c r="E1036" s="1"/>
       <c r="F1036" s="1"/>
     </row>
-    <row r="1037" spans="1:6" ht="15" customHeight="1">
+    <row r="1037" spans="1:8" ht="15" customHeight="1">
       <c r="A1037" s="1"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
@@ -14635,7 +15361,7 @@
       <c r="E1037" s="1"/>
       <c r="F1037" s="1"/>
     </row>
-    <row r="1038" spans="1:6" ht="15" customHeight="1">
+    <row r="1038" spans="1:8" ht="15" customHeight="1">
       <c r="A1038" s="1"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
@@ -14643,7 +15369,7 @@
       <c r="E1038" s="1"/>
       <c r="F1038" s="1"/>
     </row>
-    <row r="1039" spans="1:6" ht="15" customHeight="1">
+    <row r="1039" spans="1:8" ht="15" customHeight="1">
       <c r="A1039" s="1"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
@@ -14651,7 +15377,7 @@
       <c r="E1039" s="1"/>
       <c r="F1039" s="1"/>
     </row>
-    <row r="1040" spans="1:6" ht="15" customHeight="1">
+    <row r="1040" spans="1:8" ht="15" customHeight="1">
       <c r="A1040" s="1"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
@@ -14778,6 +15504,55 @@
       <c r="D1056" s="1"/>
       <c r="E1056" s="1"/>
       <c r="F1056" s="1"/>
+    </row>
+    <row r="1057" spans="2:6" ht="15" customHeight="1">
+      <c r="B1057" s="1"/>
+      <c r="C1057" s="1"/>
+      <c r="D1057" s="1"/>
+      <c r="E1057" s="1"/>
+      <c r="F1057" s="1"/>
+    </row>
+    <row r="1058" spans="2:6" ht="15" customHeight="1">
+      <c r="B1058" s="1"/>
+      <c r="C1058" s="1"/>
+      <c r="D1058" s="1"/>
+      <c r="E1058" s="1"/>
+      <c r="F1058" s="1"/>
+    </row>
+    <row r="1059" spans="2:6" ht="15" customHeight="1">
+      <c r="B1059" s="1"/>
+      <c r="C1059" s="1"/>
+      <c r="D1059" s="1"/>
+      <c r="E1059" s="1"/>
+      <c r="F1059" s="1"/>
+    </row>
+    <row r="1060" spans="2:6" ht="15" customHeight="1">
+      <c r="B1060" s="1"/>
+      <c r="C1060" s="1"/>
+      <c r="D1060" s="1"/>
+      <c r="E1060" s="1"/>
+      <c r="F1060" s="1"/>
+    </row>
+    <row r="1061" spans="2:6" ht="15" customHeight="1">
+      <c r="B1061" s="1"/>
+      <c r="C1061" s="1"/>
+      <c r="D1061" s="1"/>
+      <c r="E1061" s="1"/>
+      <c r="F1061" s="1"/>
+    </row>
+    <row r="1062" spans="2:6" ht="15" customHeight="1">
+      <c r="B1062" s="1"/>
+      <c r="C1062" s="1"/>
+      <c r="D1062" s="1"/>
+      <c r="E1062" s="1"/>
+      <c r="F1062" s="1"/>
+    </row>
+    <row r="1063" spans="2:6" ht="15" customHeight="1">
+      <c r="B1063" s="1"/>
+      <c r="C1063" s="1"/>
+      <c r="D1063" s="1"/>
+      <c r="E1063" s="1"/>
+      <c r="F1063" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -14791,14 +15566,14 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="C150:H150"/>
-    <mergeCell ref="C151:H151"/>
-    <mergeCell ref="C168:H168"/>
-    <mergeCell ref="C169:H169"/>
+    <mergeCell ref="C157:H157"/>
+    <mergeCell ref="C158:H158"/>
+    <mergeCell ref="C175:H175"/>
+    <mergeCell ref="C176:H176"/>
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:H128"/>
     <mergeCell ref="C105:H105"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -14827,26 +15602,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="A1" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>11</v>
@@ -14854,70 +15629,70 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>220</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shc72\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E6A458B-1F32-4E19-92FE-01AE3C7CCD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB280BD7-D9FD-4CA4-BDAC-6C541FAB706C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7455" yWindow="1740" windowWidth="17955" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G153" authorId="1" shapeId="0" xr:uid="{9467D4C8-2017-4F2A-8433-36BB173747A8}">
+    <comment ref="G151" authorId="1" shapeId="0" xr:uid="{9467D4C8-2017-4F2A-8433-36BB173747A8}">
       <text>
         <r>
           <rPr>
@@ -567,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H162" authorId="2" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+    <comment ref="H160" authorId="2" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="290">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -1971,18 +1971,6 @@
   </si>
   <si>
     <t>pf_photo5</t>
-  </si>
-  <si>
-    <t>pf_photo6</t>
-  </si>
-  <si>
-    <t>pf_photo7</t>
-  </si>
-  <si>
-    <t>사진6</t>
-  </si>
-  <si>
-    <t>사진7</t>
   </si>
   <si>
     <t>pf_premium</t>
@@ -2540,7 +2528,13 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2552,6 +2546,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2559,24 +2565,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2817,10 +2805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1063"/>
+  <dimension ref="A1:Q1061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2840,26 +2828,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -2877,27 +2865,27 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
@@ -3193,49 +3181,49 @@
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
       <c r="K22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
@@ -3302,7 +3290,7 @@
         <v>52</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3310,11 +3298,11 @@
         <v>53</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1">
@@ -3340,11 +3328,11 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
@@ -3370,11 +3358,11 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
@@ -3400,11 +3388,11 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
@@ -3432,7 +3420,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
@@ -3460,7 +3448,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" customHeight="1">
@@ -3488,7 +3476,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" customHeight="1">
@@ -3516,7 +3504,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" customHeight="1">
@@ -3547,7 +3535,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" customHeight="1">
@@ -3578,7 +3566,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1">
@@ -3607,7 +3595,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" customHeight="1">
@@ -3636,7 +3624,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" customHeight="1">
@@ -3668,7 +3656,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" customHeight="1">
@@ -3681,7 +3669,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" customHeight="1">
@@ -3695,21 +3683,21 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.5" customHeight="1">
       <c r="B40" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="19"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3718,21 +3706,21 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" customHeight="1">
       <c r="B41" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="19"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3741,7 +3729,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" customHeight="1">
@@ -3774,7 +3762,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" customHeight="1">
@@ -3804,7 +3792,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" customHeight="1">
@@ -3835,7 +3823,7 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" customHeight="1">
@@ -3864,7 +3852,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" customHeight="1">
@@ -3892,7 +3880,7 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="16.5" customHeight="1">
@@ -3920,7 +3908,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="16.5" customHeight="1">
@@ -4302,27 +4290,27 @@
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="33"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
       <c r="B72" s="3" t="s">
@@ -4391,7 +4379,7 @@
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" customHeight="1">
@@ -4435,7 +4423,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" customHeight="1">
@@ -4446,7 +4434,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="16.5" customHeight="1">
@@ -4545,7 +4533,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="16.5" customHeight="1">
@@ -4556,7 +4544,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="16.5" customHeight="1">
@@ -4567,7 +4555,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="16.5" customHeight="1">
@@ -4578,7 +4566,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="16.5" customHeight="1">
@@ -4589,7 +4577,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="16.5" customHeight="1">
@@ -4600,7 +4588,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="16.5" customHeight="1">
@@ -4669,14 +4657,14 @@
       <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="31"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1">
@@ -4684,14 +4672,14 @@
       <c r="B105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="31"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="33"/>
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
@@ -4768,7 +4756,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I110" s="19"/>
     </row>
@@ -4792,7 +4780,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I112" s="19"/>
     </row>
@@ -4929,28 +4917,28 @@
       <c r="B127" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C127" s="38" t="s">
+      <c r="C127" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="40"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="36"/>
       <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1">
       <c r="B128" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D128" s="39"/>
-      <c r="E128" s="39"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="40"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="36"/>
       <c r="I128" s="19"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" customHeight="1">
@@ -5083,7 +5071,7 @@
     </row>
     <row r="135" spans="1:9" ht="16.5" customHeight="1">
       <c r="B135" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>49</v>
@@ -5097,7 +5085,7 @@
       </c>
       <c r="G135" s="13"/>
       <c r="H135" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I135" s="19"/>
     </row>
@@ -5143,7 +5131,7 @@
     </row>
     <row r="138" spans="1:9" ht="16.5" customHeight="1">
       <c r="B138" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>49</v>
@@ -5163,7 +5151,7 @@
     </row>
     <row r="139" spans="1:9" ht="16.5" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>49</v>
@@ -5173,7 +5161,7 @@
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="13" t="s">
@@ -5312,11 +5300,11 @@
         <v>49</v>
       </c>
       <c r="D146" s="13">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E146" s="13"/>
       <c r="F146" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G146" s="13"/>
       <c r="H146" s="13" t="s">
@@ -5333,11 +5321,11 @@
         <v>49</v>
       </c>
       <c r="D147" s="13">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G147" s="13"/>
       <c r="H147" s="13" t="s">
@@ -5354,11 +5342,11 @@
         <v>49</v>
       </c>
       <c r="D148" s="13">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E148" s="13"/>
       <c r="F148" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G148" s="13"/>
       <c r="H148" s="13" t="s">
@@ -5375,11 +5363,11 @@
         <v>49</v>
       </c>
       <c r="D149" s="13">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E149" s="13"/>
       <c r="F149" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G149" s="13"/>
       <c r="H149" s="13" t="s">
@@ -5396,11 +5384,11 @@
         <v>49</v>
       </c>
       <c r="D150" s="13">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E150" s="13"/>
       <c r="F150" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G150" s="13"/>
       <c r="H150" s="13" t="s">
@@ -5414,18 +5402,18 @@
         <v>247</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D151" s="13">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E151" s="13"/>
-      <c r="F151" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="G151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13">
+        <v>0</v>
+      </c>
       <c r="H151" s="13" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="I151" s="19"/>
     </row>
@@ -5438,164 +5426,168 @@
         <v>49</v>
       </c>
       <c r="D152" s="13">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="13" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="G152" s="13"/>
       <c r="H152" s="13" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="I152" s="19"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" s="13">
-        <v>5</v>
-      </c>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13">
-        <v>0</v>
-      </c>
-      <c r="H153" s="13" t="s">
-        <v>164</v>
-      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
       <c r="I153" s="19"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D154" s="13">
-        <v>20</v>
-      </c>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13" t="s">
-        <v>165</v>
-      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
       <c r="I154" s="19"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
+      <c r="B155" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="30"/>
       <c r="I155" s="19"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
+      <c r="B156" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="30"/>
       <c r="I156" s="19"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D157" s="36"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="36"/>
-      <c r="G157" s="36"/>
-      <c r="H157" s="37"/>
+      <c r="B157" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="I157" s="19"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="37"/>
+      <c r="B158" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="13">
+        <v>38</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:9" ht="16.5" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F159" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G159" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H159" s="16" t="s">
-        <v>11</v>
+      <c r="B159" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="13">
+        <v>20</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="I159" s="19"/>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="13" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D160" s="13">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="G160" s="13"/>
       <c r="H160" s="13" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="13" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>13</v>
@@ -5603,51 +5595,47 @@
       <c r="D161" s="13">
         <v>20</v>
       </c>
-      <c r="E161" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="E161" s="13"/>
       <c r="F161" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G161" s="13"/>
       <c r="H161" s="13" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="13" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D162" s="13">
-        <v>10</v>
-      </c>
-      <c r="E162" s="13" t="s">
-        <v>53</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E162" s="13"/>
       <c r="F162" s="13" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="13">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="E163" s="13"/>
       <c r="F163" s="13" t="s">
@@ -5655,79 +5643,79 @@
       </c>
       <c r="G163" s="13"/>
       <c r="H163" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I163" s="19"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="13">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E164" s="13"/>
       <c r="F164" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G164" s="13"/>
+      <c r="G164" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="H164" s="13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I164" s="19"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D165" s="13">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="E165" s="13"/>
       <c r="F165" s="13" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="G165" s="13"/>
       <c r="H165" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I165" s="19"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D166" s="13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E166" s="13"/>
       <c r="F166" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G166" s="13"/>
       <c r="H166" s="13" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="I166" s="19"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>28</v>
@@ -5741,41 +5729,43 @@
       </c>
       <c r="G167" s="13"/>
       <c r="H167" s="13" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I167" s="19"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D168" s="13">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E168" s="13"/>
       <c r="F168" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G168" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>186</v>
+      </c>
       <c r="H168" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I168" s="19"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="13" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D169" s="13">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13" t="s">
@@ -5783,52 +5773,30 @@
       </c>
       <c r="G169" s="13"/>
       <c r="H169" s="13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I169" s="19"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" s="13">
-        <v>20</v>
-      </c>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H170" s="13" t="s">
-        <v>187</v>
-      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
       <c r="I170" s="19"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D171" s="13">
-        <v>20</v>
-      </c>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13" t="s">
-        <v>189</v>
-      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
       <c r="I171" s="19"/>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1">
@@ -5844,78 +5812,82 @@
     </row>
     <row r="173" spans="1:9" ht="16.5" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
+      <c r="B173" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="33"/>
       <c r="I173" s="19"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
+      <c r="B174" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="33"/>
       <c r="I174" s="19"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D175" s="30"/>
-      <c r="E175" s="30"/>
-      <c r="F175" s="30"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="31"/>
+        <v>5</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="I175" s="19"/>
     </row>
     <row r="176" spans="1:9" ht="16.5" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D176" s="30"/>
-      <c r="E176" s="30"/>
-      <c r="F176" s="30"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="31"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="I176" s="19"/>
     </row>
     <row r="177" spans="1:9" ht="16.5" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E177" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
       <c r="H177" s="3" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="I177" s="19"/>
     </row>
@@ -5924,11 +5896,11 @@
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="15"/>
+      <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="I178" s="19"/>
     </row>
@@ -5937,11 +5909,11 @@
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="15"/>
+      <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="I179" s="19"/>
     </row>
@@ -5954,7 +5926,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I180" s="19"/>
     </row>
@@ -5967,20 +5939,20 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I181" s="19"/>
     </row>
     <row r="182" spans="1:9" ht="16.5" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="3"/>
+      <c r="B182" s="6"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="I182" s="19"/>
     </row>
@@ -5993,20 +5965,20 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="I183" s="19"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="6"/>
+      <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="I184" s="19"/>
     </row>
@@ -6019,7 +5991,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I185" s="19"/>
     </row>
@@ -6032,7 +6004,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I186" s="19"/>
     </row>
@@ -6045,34 +6017,30 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I187" s="19"/>
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
       <c r="I188" s="19"/>
     </row>
     <row r="189" spans="1:9" ht="16.5" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
       <c r="I189" s="19"/>
     </row>
     <row r="190" spans="1:9" ht="16.5" customHeight="1">
@@ -15276,8 +15244,6 @@
       <c r="D1027" s="1"/>
       <c r="E1027" s="1"/>
       <c r="F1027" s="1"/>
-      <c r="G1027" s="1"/>
-      <c r="H1027" s="1"/>
     </row>
     <row r="1028" spans="1:8" ht="15" customHeight="1">
       <c r="A1028" s="1"/>
@@ -15286,8 +15252,6 @@
       <c r="D1028" s="1"/>
       <c r="E1028" s="1"/>
       <c r="F1028" s="1"/>
-      <c r="G1028" s="1"/>
-      <c r="H1028" s="1"/>
     </row>
     <row r="1029" spans="1:8" ht="15" customHeight="1">
       <c r="A1029" s="1"/>
@@ -15540,31 +15504,8 @@
       <c r="E1061" s="1"/>
       <c r="F1061" s="1"/>
     </row>
-    <row r="1062" spans="2:6" ht="15" customHeight="1">
-      <c r="B1062" s="1"/>
-      <c r="C1062" s="1"/>
-      <c r="D1062" s="1"/>
-      <c r="E1062" s="1"/>
-      <c r="F1062" s="1"/>
-    </row>
-    <row r="1063" spans="2:6" ht="15" customHeight="1">
-      <c r="B1063" s="1"/>
-      <c r="C1063" s="1"/>
-      <c r="D1063" s="1"/>
-      <c r="E1063" s="1"/>
-      <c r="F1063" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C157:H157"/>
-    <mergeCell ref="C158:H158"/>
-    <mergeCell ref="C175:H175"/>
-    <mergeCell ref="C176:H176"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C105:H105"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="C40:H40"/>
@@ -15575,6 +15516,15 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="C155:H155"/>
+    <mergeCell ref="C156:H156"/>
+    <mergeCell ref="C173:H173"/>
+    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C105:H105"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\teamproject\DoZip\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB280BD7-D9FD-4CA4-BDAC-6C541FAB706C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28470127-1852-4947-BCE8-E483A7EEC8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="1740" windowWidth="17955" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="289">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -1235,9 +1235,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>partnersT_sub</t>
-  </si>
-  <si>
     <t>회원가입시 필요한 파트너스의 정보를 담는 테이블</t>
   </si>
   <si>
@@ -2001,10 +1998,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>사업자번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>전문가 한마디</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2142,6 +2135,10 @@
   </si>
   <si>
     <t>업체 이름(상호명)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnersT_sub</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2528,13 +2525,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2546,6 +2537,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2553,18 +2562,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2807,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155:H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2828,26 +2825,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -2865,27 +2862,27 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="16" t="s">
@@ -3181,49 +3178,49 @@
       <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
       <c r="K22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="33"/>
+      <c r="L22" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="C23" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="33"/>
+      <c r="L23" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="16" t="s">
@@ -3271,147 +3268,147 @@
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1">
       <c r="B25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="D25" s="13">
         <v>12</v>
       </c>
       <c r="E25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="13">
         <v>20</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="13">
         <v>20</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="13">
         <v>20</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="13">
         <v>10</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="3"/>
@@ -3420,26 +3417,26 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
       <c r="B30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="D30" s="13">
         <v>12</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3448,15 +3445,15 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="13">
         <v>30</v>
@@ -3467,7 +3464,7 @@
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3476,15 +3473,15 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="13">
         <v>30</v>
@@ -3495,7 +3492,7 @@
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3504,29 +3501,29 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="13">
         <v>500</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3535,23 +3532,23 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="13">
         <v>15</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>38</v>
@@ -3566,23 +3563,23 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="13">
         <v>15</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
@@ -3595,27 +3592,27 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="13">
         <v>400</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3624,13 +3621,13 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>28</v>
@@ -3640,13 +3637,13 @@
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" s="13">
         <v>1</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I37" s="19"/>
       <c r="K37" s="3"/>
@@ -3656,7 +3653,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" customHeight="1">
@@ -3669,7 +3666,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" customHeight="1">
@@ -3683,21 +3680,21 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.5" customHeight="1">
       <c r="B40" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
+      <c r="C40" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
       <c r="I40" s="19"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3706,21 +3703,21 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" customHeight="1">
       <c r="B41" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
+      <c r="C41" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
       <c r="I41" s="19"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3729,7 +3726,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" customHeight="1">
@@ -3762,15 +3759,15 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" customHeight="1">
       <c r="B43" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>82</v>
       </c>
       <c r="D43" s="25">
         <v>12</v>
@@ -3783,7 +3780,7 @@
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3792,22 +3789,22 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="25">
         <v>20</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>15</v>
@@ -3823,16 +3820,16 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="25">
         <v>20</v>
@@ -3843,7 +3840,7 @@
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3852,15 +3849,15 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" customHeight="1">
       <c r="B46" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="25">
         <v>20</v>
@@ -3871,7 +3868,7 @@
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3880,15 +3877,15 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="16.5" customHeight="1">
       <c r="B47" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>90</v>
       </c>
       <c r="D47" s="25">
         <v>12</v>
@@ -3899,7 +3896,7 @@
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3908,15 +3905,15 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="16.5" customHeight="1">
       <c r="B48" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="25">
         <v>12</v>
@@ -3927,167 +3924,167 @@
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="16.5" customHeight="1">
       <c r="B49" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" s="25">
         <v>30</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="16.5" customHeight="1">
       <c r="B50" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="25">
         <v>30</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="16.5" customHeight="1">
       <c r="B51" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" s="25">
         <v>30</v>
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="16.5" customHeight="1">
       <c r="B52" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="25">
         <v>30</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="16.5" customHeight="1">
       <c r="B53" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="25">
         <v>30</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="16.5" customHeight="1">
       <c r="B54" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="25">
         <v>30</v>
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="16.5" customHeight="1">
       <c r="B55" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="25">
         <v>30</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="16.5" customHeight="1">
       <c r="B56" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="25">
         <v>30</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="16.5" customHeight="1">
       <c r="B57" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="25">
         <v>12</v>
@@ -4098,179 +4095,179 @@
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="16.5" customHeight="1">
       <c r="B58" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="25">
         <v>15</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="16.5" customHeight="1">
       <c r="B59" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" s="25">
         <v>15</v>
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="16.5" customHeight="1">
       <c r="B60" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="D60" s="25">
         <v>15</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="16.5" customHeight="1">
       <c r="B61" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61" s="25">
         <v>15</v>
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="16.5" customHeight="1">
       <c r="B62" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="25">
         <v>10</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="16.5" customHeight="1">
       <c r="B63" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D63" s="25">
         <v>12</v>
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63" s="25"/>
       <c r="H63" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="16.5" customHeight="1">
       <c r="B64" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" s="25">
         <v>3000</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" customHeight="1">
       <c r="B65" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="25">
         <v>200</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" customHeight="1">
       <c r="B66" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="25">
         <v>50</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I66" s="19"/>
     </row>
@@ -4290,27 +4287,27 @@
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="33"/>
+      <c r="C70" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="33"/>
+      <c r="C71" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="31"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
       <c r="B72" s="3" t="s">
@@ -4348,38 +4345,42 @@
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B75" s="3"/>
+      <c r="B75" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" customHeight="1">
@@ -4390,7 +4391,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5" customHeight="1">
@@ -4401,7 +4402,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" customHeight="1">
@@ -4412,7 +4413,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5" customHeight="1">
@@ -4423,7 +4424,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" customHeight="1">
@@ -4434,7 +4435,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="16.5" customHeight="1">
@@ -4445,7 +4446,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="16.5" customHeight="1">
@@ -4456,7 +4457,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="16.5" customHeight="1">
@@ -4467,7 +4468,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="16.5" customHeight="1">
@@ -4478,7 +4479,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="16.5" customHeight="1">
@@ -4489,7 +4490,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="16.5" customHeight="1">
@@ -4500,7 +4501,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="16.5" customHeight="1">
@@ -4511,7 +4512,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="16.5" customHeight="1">
@@ -4522,7 +4523,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="16.5" customHeight="1">
@@ -4533,7 +4534,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="16.5" customHeight="1">
@@ -4544,7 +4545,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="16.5" customHeight="1">
@@ -4555,7 +4556,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="16.5" customHeight="1">
@@ -4566,7 +4567,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="16.5" customHeight="1">
@@ -4577,7 +4578,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="16.5" customHeight="1">
@@ -4588,7 +4589,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="16.5" customHeight="1">
@@ -4657,14 +4658,14 @@
       <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="33"/>
+      <c r="C104" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="31"/>
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1">
@@ -4672,14 +4673,14 @@
       <c r="B105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="33"/>
+      <c r="C105" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="31"/>
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
@@ -4693,7 +4694,7 @@
         <v>7</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>9</v>
@@ -4716,7 +4717,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I107" s="19"/>
     </row>
@@ -4725,12 +4726,12 @@
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I108" s="19"/>
     </row>
@@ -4739,12 +4740,12 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I109" s="19"/>
     </row>
@@ -4756,7 +4757,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I110" s="19"/>
     </row>
@@ -4768,7 +4769,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I111" s="19"/>
     </row>
@@ -4780,7 +4781,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I112" s="19"/>
     </row>
@@ -4792,7 +4793,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I113" s="19"/>
     </row>
@@ -4917,28 +4918,28 @@
       <c r="B127" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C127" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="36"/>
+      <c r="C127" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="40"/>
       <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1">
       <c r="B128" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="36"/>
+      <c r="C128" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D128" s="39"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="40"/>
       <c r="I128" s="19"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" customHeight="1">
@@ -4952,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>9</v>
@@ -4967,7 +4968,7 @@
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1">
       <c r="B130" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>28</v>
@@ -4983,38 +4984,38 @@
       </c>
       <c r="G130" s="13"/>
       <c r="H130" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I130" s="19"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" customHeight="1">
       <c r="B131" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="D131" s="13">
         <v>12</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F131" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="13"/>
       <c r="H131" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1">
       <c r="B132" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D132" s="13">
         <v>50</v>
@@ -5025,16 +5026,16 @@
       </c>
       <c r="G132" s="13"/>
       <c r="H132" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1">
       <c r="B133" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D133" s="13">
         <v>5</v>
@@ -5045,16 +5046,16 @@
       </c>
       <c r="G133" s="13"/>
       <c r="H133" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
       <c r="B134" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D134" s="13">
         <v>5</v>
@@ -5065,16 +5066,16 @@
       </c>
       <c r="G134" s="13"/>
       <c r="H134" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I134" s="19"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" customHeight="1">
       <c r="B135" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D135" s="13">
         <v>10</v>
@@ -5085,16 +5086,16 @@
       </c>
       <c r="G135" s="13"/>
       <c r="H135" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I135" s="19"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" customHeight="1">
       <c r="B136" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D136" s="13">
         <v>7</v>
@@ -5111,10 +5112,10 @@
     </row>
     <row r="137" spans="1:9" ht="16.5" customHeight="1">
       <c r="B137" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D137" s="13">
         <v>30</v>
@@ -5131,10 +5132,10 @@
     </row>
     <row r="138" spans="1:9" ht="16.5" customHeight="1">
       <c r="B138" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D138" s="13">
         <v>30</v>
@@ -5145,33 +5146,33 @@
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I138" s="19"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D139" s="13">
         <v>20</v>
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I139" s="19"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" customHeight="1">
       <c r="B140" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>28</v>
@@ -5185,13 +5186,13 @@
       </c>
       <c r="G140" s="13"/>
       <c r="H140" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I140" s="19"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" customHeight="1">
       <c r="B141" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>28</v>
@@ -5205,13 +5206,13 @@
       </c>
       <c r="G141" s="13"/>
       <c r="H141" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I141" s="19"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" customHeight="1">
       <c r="B142" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>28</v>
@@ -5225,16 +5226,16 @@
       </c>
       <c r="G142" s="13"/>
       <c r="H142" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I142" s="19"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" customHeight="1">
       <c r="B143" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D143" s="13">
         <v>30</v>
@@ -5245,17 +5246,17 @@
       </c>
       <c r="G143" s="13"/>
       <c r="H143" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I143" s="19"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D144" s="13">
         <v>1000</v>
@@ -5266,17 +5267,17 @@
       </c>
       <c r="G144" s="13"/>
       <c r="H144" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D145" s="13">
         <v>1000</v>
@@ -5287,119 +5288,119 @@
       </c>
       <c r="G145" s="13"/>
       <c r="H145" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I145" s="19"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D146" s="13">
         <v>70</v>
       </c>
       <c r="E146" s="13"/>
       <c r="F146" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G146" s="13"/>
       <c r="H146" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I146" s="19"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D147" s="13">
         <v>70</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G147" s="13"/>
       <c r="H147" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I147" s="19"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D148" s="13">
         <v>70</v>
       </c>
       <c r="E148" s="13"/>
       <c r="F148" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G148" s="13"/>
       <c r="H148" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D149" s="13">
         <v>70</v>
       </c>
       <c r="E149" s="13"/>
       <c r="F149" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G149" s="13"/>
       <c r="H149" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I149" s="19"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D150" s="13">
         <v>70</v>
       </c>
       <c r="E150" s="13"/>
       <c r="F150" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G150" s="13"/>
       <c r="H150" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I150" s="19"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>28</v>
@@ -5413,17 +5414,17 @@
         <v>0</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I151" s="19"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D152" s="13">
         <v>20</v>
@@ -5434,7 +5435,7 @@
       </c>
       <c r="G152" s="13"/>
       <c r="H152" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I152" s="19"/>
     </row>
@@ -5465,14 +5466,14 @@
       <c r="B155" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C155" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="30"/>
+      <c r="C155" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="36"/>
+      <c r="G155" s="36"/>
+      <c r="H155" s="37"/>
       <c r="I155" s="19"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
@@ -5480,14 +5481,14 @@
       <c r="B156" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="30"/>
+      <c r="C156" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="37"/>
       <c r="I156" s="19"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" customHeight="1">
@@ -5502,7 +5503,7 @@
         <v>7</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F157" s="16" t="s">
         <v>9</v>
@@ -5518,7 +5519,7 @@
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>28</v>
@@ -5534,7 +5535,7 @@
       </c>
       <c r="G158" s="13"/>
       <c r="H158" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I158" s="19"/>
     </row>
@@ -5550,21 +5551,21 @@
         <v>20</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F159" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G159" s="13"/>
       <c r="H159" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I159" s="19"/>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>28</v>
@@ -5573,21 +5574,21 @@
         <v>10</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G160" s="13"/>
       <c r="H160" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>13</v>
@@ -5601,14 +5602,14 @@
       </c>
       <c r="G161" s="13"/>
       <c r="H161" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>13</v>
@@ -5622,14 +5623,14 @@
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>13</v>
@@ -5643,14 +5644,14 @@
       </c>
       <c r="G163" s="13"/>
       <c r="H163" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I163" s="19"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>13</v>
@@ -5666,14 +5667,14 @@
         <v>38</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I164" s="19"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>28</v>
@@ -5683,18 +5684,18 @@
       </c>
       <c r="E165" s="13"/>
       <c r="F165" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G165" s="13"/>
       <c r="H165" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I165" s="19"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>28</v>
@@ -5704,18 +5705,18 @@
       </c>
       <c r="E166" s="13"/>
       <c r="F166" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G166" s="13"/>
       <c r="H166" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I166" s="19"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>28</v>
@@ -5725,18 +5726,18 @@
       </c>
       <c r="E167" s="13"/>
       <c r="F167" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G167" s="13"/>
       <c r="H167" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I167" s="19"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>13</v>
@@ -5749,17 +5750,17 @@
         <v>15</v>
       </c>
       <c r="G168" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H168" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="H168" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="I168" s="19"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>13</v>
@@ -5769,11 +5770,11 @@
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G169" s="13"/>
       <c r="H169" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I169" s="19"/>
     </row>
@@ -5815,14 +5816,14 @@
       <c r="B173" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C173" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D173" s="32"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
-      <c r="G173" s="32"/>
-      <c r="H173" s="33"/>
+      <c r="C173" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="31"/>
       <c r="I173" s="19"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
@@ -5830,14 +5831,14 @@
       <c r="B174" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C174" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D174" s="32"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="32"/>
-      <c r="G174" s="32"/>
-      <c r="H174" s="33"/>
+      <c r="C174" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="30"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="31"/>
       <c r="I174" s="19"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1">
@@ -5852,7 +5853,7 @@
         <v>7</v>
       </c>
       <c r="E175" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>9</v>
@@ -5861,7 +5862,7 @@
         <v>10</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I175" s="19"/>
     </row>
@@ -5874,7 +5875,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I176" s="19"/>
     </row>
@@ -5887,7 +5888,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I177" s="19"/>
     </row>
@@ -5900,7 +5901,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I178" s="19"/>
     </row>
@@ -5913,7 +5914,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I179" s="19"/>
     </row>
@@ -5926,7 +5927,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I180" s="19"/>
     </row>
@@ -5939,7 +5940,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I181" s="19"/>
     </row>
@@ -5952,7 +5953,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I182" s="19"/>
     </row>
@@ -5965,7 +5966,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I183" s="19"/>
     </row>
@@ -5978,7 +5979,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I184" s="19"/>
     </row>
@@ -5991,7 +5992,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I185" s="19"/>
     </row>
@@ -6004,7 +6005,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I186" s="19"/>
     </row>
@@ -6017,7 +6018,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I187" s="19"/>
     </row>
@@ -15506,6 +15507,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C155:H155"/>
+    <mergeCell ref="C156:H156"/>
+    <mergeCell ref="C173:H173"/>
+    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C105:H105"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="C40:H40"/>
@@ -15516,15 +15526,6 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="C155:H155"/>
-    <mergeCell ref="C156:H156"/>
-    <mergeCell ref="C173:H173"/>
-    <mergeCell ref="C174:H174"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C105:H105"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15553,7 +15554,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -15562,16 +15563,16 @@
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>11</v>
@@ -15579,70 +15580,70 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="C4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="C5" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shc72\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bootcamp\프로젝트 관련\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{953B9029-FA7A-4C8F-89C2-53E5AD7A870C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088D7C9-CE36-4AB0-B74F-D113F480B3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20595" yWindow="-105" windowWidth="20700" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,16 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>1202-26</author>
+    <author>Minu</author>
     <author>신호철</author>
     <author>tc={6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}</author>
   </authors>
   <commentList>
-    <comment ref="H108" authorId="0" shapeId="0" xr:uid="{111746AF-901C-41A9-A9AE-57F47C690977}">
+    <comment ref="H114" authorId="0" shapeId="0" xr:uid="{37895534-8FF2-4B48-BC79-983DEE7FEFF8}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -51,7 +51,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -61,7 +61,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -70,7 +70,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -80,7 +80,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -89,7 +89,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -99,7 +99,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -108,7 +108,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -119,7 +119,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -128,7 +128,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -138,7 +138,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -147,7 +147,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -157,7 +157,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -166,7 +166,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -176,7 +176,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -185,7 +185,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -195,7 +195,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -204,7 +204,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -214,7 +214,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -223,7 +223,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -233,7 +233,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -243,7 +243,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -253,7 +253,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -262,7 +262,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -272,7 +272,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -281,7 +281,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -291,7 +291,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -300,7 +300,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -310,7 +310,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -319,7 +319,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -329,7 +329,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -338,7 +338,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -349,7 +349,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -358,7 +358,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -368,7 +368,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -377,7 +377,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -387,7 +387,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -396,7 +396,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -407,7 +407,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -416,7 +416,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -426,7 +426,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -435,7 +435,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -445,26 +445,16 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
       </text>
     </comment>
-    <comment ref="G151" authorId="1" shapeId="0" xr:uid="{9467D4C8-2017-4F2A-8433-36BB173747A8}">
+    <comment ref="G144" authorId="1" shapeId="0" xr:uid="{9467D4C8-2017-4F2A-8433-36BB173747A8}">
       <text>
         <r>
           <rPr>
@@ -567,494 +557,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="H160" authorId="2" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
+    <comment ref="H153" authorId="2" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>업체</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>문의라면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>컬럼에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>값을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>넣음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>.
-null</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>인</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>경우에는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>관리자문의가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>됨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>테이블은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> null </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>허용으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>하고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>업체문의를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>통해</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>글을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>작성하는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>유효성</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>검증으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>사업자번호를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>넣게</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>예정</t>
-        </r>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    업체 문의라면 해당 컬럼에 값을 넣음.
+null인 경우에는 관리자문의가 됨.
+테이블은 null 허용으로 하고,
+업체문의를 통해 글을 작성하는 경우 유효성 검증으로 사업자번호를 넣게 할 예정</t>
       </text>
     </comment>
   </commentList>
@@ -1062,7 +573,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="309">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -1588,14 +1099,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>공사기간 (7일, 10일 …)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감여부</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>portfolioT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2070,10 +1573,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>희망 스타일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>업체 사업자번호</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2195,6 +1694,42 @@
   </si>
   <si>
     <t>pBusiness_lic_file</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 공사기간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid_price</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid_period</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid_detail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid_end</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감여부(진행중:0/ 마감:1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유번호 B00000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 공사 스타일 설명</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2258,14 +1793,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -2294,7 +1821,13 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="81"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -2502,7 +2035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2588,6 +2121,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2867,51 +2406,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1061"/>
+  <dimension ref="A1:Q1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="15.44140625" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="15.42578125" customWidth="1"/>
+    <col min="18" max="25" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -2929,27 +2468,27 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="14" t="s">
@@ -3245,49 +2784,49 @@
       <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
       <c r="K22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
+      <c r="L22" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
       <c r="K23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="14" t="s">
@@ -3392,7 +2931,7 @@
         <v>54</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>48</v>
@@ -3402,11 +2941,11 @@
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
@@ -3428,7 +2967,7 @@
         <v>56</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>48</v>
@@ -3438,11 +2977,11 @@
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
@@ -3464,7 +3003,7 @@
         <v>58</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>48</v>
@@ -3474,11 +3013,11 @@
       </c>
       <c r="N28" s="11"/>
       <c r="O28" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
@@ -3500,7 +3039,7 @@
         <v>60</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>48</v>
@@ -3510,11 +3049,11 @@
       </c>
       <c r="N29" s="11"/>
       <c r="O29" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
@@ -3536,7 +3075,7 @@
         <v>63</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>48</v>
@@ -3546,11 +3085,11 @@
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" customHeight="1">
@@ -3572,7 +3111,7 @@
         <v>65</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>48</v>
@@ -3586,7 +3125,7 @@
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" customHeight="1">
@@ -3608,7 +3147,7 @@
         <v>67</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>48</v>
@@ -3622,7 +3161,7 @@
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" customHeight="1">
@@ -3647,7 +3186,7 @@
         <v>71</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>48</v>
@@ -3661,7 +3200,7 @@
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" customHeight="1">
@@ -3686,7 +3225,7 @@
         <v>39</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>48</v>
@@ -3700,7 +3239,7 @@
       </c>
       <c r="P34" s="11"/>
       <c r="Q34" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1">
@@ -3723,7 +3262,7 @@
         <v>43</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>48</v>
@@ -3733,11 +3272,11 @@
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P35" s="11"/>
       <c r="Q35" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" customHeight="1">
@@ -3760,7 +3299,7 @@
         <v>75</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L36" s="11" t="s">
         <v>48</v>
@@ -3770,11 +3309,11 @@
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" customHeight="1">
@@ -3800,7 +3339,7 @@
       </c>
       <c r="I37" s="17"/>
       <c r="K37" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>48</v>
@@ -3810,18 +3349,18 @@
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="I38" s="17"/>
       <c r="K38" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>48</v>
@@ -3831,11 +3370,11 @@
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" customHeight="1">
@@ -3843,7 +3382,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="17"/>
       <c r="K39" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L39" s="11" t="s">
         <v>28</v>
@@ -3853,28 +3392,28 @@
       </c>
       <c r="N39" s="11"/>
       <c r="O39" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.5" customHeight="1">
       <c r="B40" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="17"/>
       <c r="K40" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L40" s="11" t="s">
         <v>48</v>
@@ -3888,24 +3427,24 @@
       </c>
       <c r="P40" s="11"/>
       <c r="Q40" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" customHeight="1">
       <c r="B41" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="17"/>
       <c r="K41" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L41" s="11" t="s">
         <v>48</v>
@@ -3919,7 +3458,7 @@
       </c>
       <c r="P41" s="11"/>
       <c r="Q41" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" customHeight="1">
@@ -3946,7 +3485,7 @@
       </c>
       <c r="I42" s="17"/>
       <c r="K42" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>48</v>
@@ -3960,7 +3499,7 @@
       </c>
       <c r="P42" s="11"/>
       <c r="Q42" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" customHeight="1">
@@ -3984,7 +3523,7 @@
         <v>82</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>48</v>
@@ -3998,7 +3537,7 @@
       </c>
       <c r="P43" s="11"/>
       <c r="Q43" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" customHeight="1">
@@ -4023,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>48</v>
@@ -4037,7 +3576,7 @@
       </c>
       <c r="P44" s="11"/>
       <c r="Q44" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" customHeight="1">
@@ -4133,7 +3672,7 @@
       </c>
       <c r="G49" s="23"/>
       <c r="H49" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="16.5" customHeight="1">
@@ -4152,7 +3691,7 @@
       </c>
       <c r="G50" s="23"/>
       <c r="H50" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="16.5" customHeight="1">
@@ -4171,7 +3710,7 @@
       </c>
       <c r="G51" s="23"/>
       <c r="H51" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="16.5" customHeight="1">
@@ -4190,7 +3729,7 @@
       </c>
       <c r="G52" s="23"/>
       <c r="H52" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="16.5" customHeight="1">
@@ -4209,7 +3748,7 @@
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="16.5" customHeight="1">
@@ -4228,7 +3767,7 @@
       </c>
       <c r="G54" s="23"/>
       <c r="H54" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="16.5" customHeight="1">
@@ -4247,7 +3786,7 @@
       </c>
       <c r="G55" s="23"/>
       <c r="H55" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="16.5" customHeight="1">
@@ -4266,7 +3805,7 @@
       </c>
       <c r="G56" s="23"/>
       <c r="H56" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="16.5" customHeight="1">
@@ -4477,27 +4016,27 @@
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="40"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="40"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
       <c r="B72" s="3" t="s">
@@ -4566,7 +4105,7 @@
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" customHeight="1">
@@ -4610,7 +4149,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" customHeight="1">
@@ -4621,7 +4160,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="16.5" customHeight="1">
@@ -4720,7 +4259,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="16.5" customHeight="1">
@@ -4731,7 +4270,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="16.5" customHeight="1">
@@ -4742,7 +4281,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="16.5" customHeight="1">
@@ -4753,7 +4292,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="16.5" customHeight="1">
@@ -4764,7 +4303,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="16.5" customHeight="1">
@@ -4775,7 +4314,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="16.5" customHeight="1">
@@ -4841,145 +4380,201 @@
     </row>
     <row r="104" spans="1:9" ht="16.5" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="38"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="34"/>
       <c r="I104" s="17"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="38"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="34"/>
       <c r="I105" s="17"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="E106" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H106" s="29" t="s">
         <v>11</v>
       </c>
       <c r="I106" s="17"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
+      <c r="B107" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="23">
+        <v>12</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3" t="s">
+      <c r="F107" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B108" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="11">
+        <v>12</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I108" s="17"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B109" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="23">
+        <v>12</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I107" s="17"/>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I108" s="17"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="I109" s="17"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3" t="s">
-        <v>270</v>
+      <c r="B110" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="11">
+        <v>20</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11" t="s">
+        <v>268</v>
       </c>
       <c r="I110" s="17"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B111" s="4"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3" t="s">
-        <v>143</v>
+      <c r="B111" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="11">
+        <v>5</v>
+      </c>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11" t="s">
+        <v>300</v>
       </c>
       <c r="I111" s="17"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3" t="s">
-        <v>271</v>
+      <c r="B112" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="23">
+        <v>3000</v>
+      </c>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="I112" s="17"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3" t="s">
-        <v>144</v>
+      <c r="B113" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="11">
+        <v>5</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="I113" s="17"/>
     </row>
@@ -4994,237 +4589,307 @@
       <c r="I114" s="17"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
       <c r="I115" s="17"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
       <c r="I116" s="17"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
       <c r="I117" s="17"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
       <c r="I118" s="17"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
       <c r="I119" s="17"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
+      <c r="B120" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="42"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="42"/>
+      <c r="H120" s="43"/>
       <c r="I120" s="17"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
+      <c r="B121" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" s="42"/>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="43"/>
       <c r="I121" s="17"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
+      <c r="B122" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="I122" s="17"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
+      <c r="B123" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="11">
+        <v>38</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="I123" s="17"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
+      <c r="B124" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="11">
+        <v>12</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="I124" s="17"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
+      <c r="B125" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="11">
+        <v>50</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="I125" s="17"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
+      <c r="B126" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="11">
+        <v>5</v>
+      </c>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="I126" s="17"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B127" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" s="40"/>
-      <c r="E127" s="40"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="40"/>
-      <c r="H127" s="41"/>
+      <c r="B127" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="11">
+        <v>5</v>
+      </c>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="I127" s="17"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B128" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D128" s="40"/>
-      <c r="E128" s="40"/>
-      <c r="F128" s="40"/>
-      <c r="G128" s="40"/>
-      <c r="H128" s="41"/>
+      <c r="B128" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="11">
+        <v>10</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="I128" s="17"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B129" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="14" t="s">
+      <c r="B129" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="11">
         <v>7</v>
       </c>
-      <c r="E129" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="14" t="s">
-        <v>11</v>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I129" s="17"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1">
       <c r="B130" s="11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D130" s="11">
-        <v>38</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="11"/>
       <c r="H130" s="11" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="I130" s="17"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" customHeight="1">
       <c r="B131" s="11" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="11">
-        <v>12</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E131" s="11"/>
       <c r="F131" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="11"/>
       <c r="H131" s="11" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="I131" s="17"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1">
       <c r="B132" s="11" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D132" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="G132" s="11"/>
       <c r="H132" s="11" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="I132" s="17"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" customHeight="1">
       <c r="B133" s="11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D133" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
@@ -5238,13 +4903,13 @@
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
       <c r="B134" s="11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D134" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
@@ -5258,13 +4923,13 @@
     </row>
     <row r="135" spans="1:9" ht="16.5" customHeight="1">
       <c r="B135" s="11" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D135" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11" t="s">
@@ -5272,19 +4937,19 @@
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="I135" s="17"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" customHeight="1">
       <c r="B136" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D136" s="11">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11" t="s">
@@ -5292,19 +4957,19 @@
       </c>
       <c r="G136" s="11"/>
       <c r="H136" s="11" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="I136"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" customHeight="1">
       <c r="B137" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D137" s="11">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11" t="s">
@@ -5312,19 +4977,19 @@
       </c>
       <c r="G137" s="11"/>
       <c r="H137" s="11" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="I137" s="17"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" customHeight="1">
       <c r="B138" s="11" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D138" s="11">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11" t="s">
@@ -5332,141 +4997,141 @@
       </c>
       <c r="G138" s="11"/>
       <c r="H138" s="11" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="I138" s="17"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" customHeight="1">
       <c r="B139" s="11" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D139" s="11">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="I139" s="17"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D140" s="11">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E140" s="11"/>
       <c r="F140" s="11" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I140" s="17"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" customHeight="1">
       <c r="B141" s="11" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D141" s="11">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I141" s="17"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" customHeight="1">
       <c r="B142" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D142" s="11">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="11" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="G142" s="11"/>
       <c r="H142" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I142" s="17"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" customHeight="1">
       <c r="B143" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D143" s="11">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="11" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="G143" s="11"/>
       <c r="H143" s="11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I143" s="17"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D144" s="11">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="E144" s="11"/>
-      <c r="F144" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11">
+        <v>0</v>
+      </c>
       <c r="H144" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I144" s="17"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D145" s="11">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11" t="s">
@@ -5474,238 +5139,246 @@
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I145" s="17"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D146" s="11">
-        <v>70</v>
-      </c>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11" t="s">
-        <v>158</v>
-      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
       <c r="I146" s="17"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D147" s="11">
-        <v>70</v>
-      </c>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
       <c r="I147" s="17"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D148" s="11">
-        <v>70</v>
-      </c>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="B148" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="34"/>
       <c r="I148" s="17"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" s="11">
-        <v>70</v>
-      </c>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11" t="s">
-        <v>161</v>
-      </c>
+      <c r="B149" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="34"/>
       <c r="I149" s="17"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
       <c r="A150" s="1"/>
-      <c r="B150" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D150" s="11">
-        <v>70</v>
-      </c>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11" t="s">
-        <v>162</v>
+      <c r="B150" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="I150" s="17"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="11" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D151" s="11">
-        <v>5</v>
-      </c>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="11"/>
       <c r="H151" s="11" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="I151" s="17"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="11" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D152" s="11">
         <v>20</v>
       </c>
-      <c r="E152" s="11"/>
+      <c r="E152" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="F152" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I152" s="17"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
+      <c r="B153" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" s="11">
+        <v>10</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="I153" s="17"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
+      <c r="B154" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="11">
+        <v>20</v>
+      </c>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="I154" s="17"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="31"/>
-      <c r="H155" s="32"/>
+      <c r="B155" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="11">
+        <v>200</v>
+      </c>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="I155" s="17"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D156" s="31"/>
-      <c r="E156" s="31"/>
-      <c r="F156" s="31"/>
-      <c r="G156" s="31"/>
-      <c r="H156" s="32"/>
+      <c r="B156" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="11">
+        <v>4000</v>
+      </c>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="I156" s="17"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H157" s="14" t="s">
-        <v>11</v>
+      <c r="B157" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="11">
+        <v>20</v>
+      </c>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="I157" s="17"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>28</v>
@@ -5713,68 +5386,62 @@
       <c r="D158" s="11">
         <v>38</v>
       </c>
-      <c r="E158" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="E158" s="11"/>
       <c r="F158" s="11" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="G158" s="11"/>
       <c r="H158" s="11" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="I158" s="17"/>
     </row>
     <row r="159" spans="1:9" ht="16.5" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="11" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D159" s="11">
-        <v>20</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E159" s="11"/>
       <c r="F159" s="11" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="G159" s="11"/>
       <c r="H159" s="11" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="I159" s="17"/>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="11" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D160" s="11">
-        <v>10</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E160" s="11"/>
       <c r="F160" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G160" s="11"/>
       <c r="H160" s="11" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="I160" s="17"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="11" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>13</v>
@@ -5786,269 +5453,211 @@
       <c r="F161" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="11"/>
+      <c r="G161" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="H161" s="11" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I161" s="17"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="11" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="11">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E162" s="11"/>
       <c r="F162" s="11" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="G162" s="11"/>
       <c r="H162" s="11" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="I162" s="17"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" s="11">
-        <v>4000</v>
-      </c>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11" t="s">
-        <v>176</v>
-      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
       <c r="I163" s="17"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" s="11">
-        <v>20</v>
-      </c>
-      <c r="E164" s="11"/>
-      <c r="F164" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H164" s="11" t="s">
-        <v>164</v>
-      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
       <c r="I164" s="17"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D165" s="11">
-        <v>38</v>
-      </c>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11" t="s">
-        <v>179</v>
-      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
       <c r="I165" s="17"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D166" s="11">
-        <v>38</v>
-      </c>
-      <c r="E166" s="11"/>
-      <c r="F166" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G166" s="11"/>
-      <c r="H166" s="11" t="s">
-        <v>181</v>
-      </c>
+      <c r="B166" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="40"/>
       <c r="I166" s="17"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D167" s="11">
-        <v>38</v>
-      </c>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11" t="s">
-        <v>183</v>
-      </c>
+      <c r="B167" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="40"/>
       <c r="I167" s="17"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" s="11">
-        <v>20</v>
-      </c>
-      <c r="E168" s="11"/>
-      <c r="F168" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>186</v>
+      <c r="B168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="I168" s="17"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D169" s="11">
-        <v>20</v>
-      </c>
-      <c r="E169" s="11"/>
-      <c r="F169" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G169" s="11"/>
-      <c r="H169" s="11" t="s">
-        <v>188</v>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="I169" s="17"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="I170" s="17"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="I171" s="17"/>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="I172" s="17"/>
     </row>
     <row r="173" spans="1:9" ht="16.5" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="37"/>
-      <c r="H173" s="38"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="I173" s="17"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D174" s="37"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="37"/>
-      <c r="G174" s="37"/>
-      <c r="H174" s="38"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="I174" s="17"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
       <c r="H175" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="I175" s="17"/>
     </row>
@@ -6057,11 +5666,11 @@
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="13"/>
+      <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="I176" s="17"/>
     </row>
@@ -6070,11 +5679,11 @@
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="13"/>
+      <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="I177" s="17"/>
     </row>
@@ -6087,7 +5696,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I178" s="17"/>
     </row>
@@ -6100,7 +5709,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="I179" s="17"/>
     </row>
@@ -6113,99 +5722,85 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I180" s="17"/>
     </row>
     <row r="181" spans="1:9" ht="16.5" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
       <c r="I181" s="17"/>
     </row>
     <row r="182" spans="1:9" ht="16.5" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
       <c r="I182" s="17"/>
     </row>
     <row r="183" spans="1:9" ht="16.5" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
       <c r="I183" s="17"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
       <c r="I184" s="17"/>
     </row>
     <row r="185" spans="1:9" ht="16.5" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
       <c r="I185" s="17"/>
     </row>
     <row r="186" spans="1:9" ht="16.5" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
       <c r="I186" s="17"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
       <c r="I187" s="17"/>
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1">
@@ -15361,8 +14956,6 @@
       <c r="D1020" s="1"/>
       <c r="E1020" s="1"/>
       <c r="F1020" s="1"/>
-      <c r="G1020" s="1"/>
-      <c r="H1020" s="1"/>
     </row>
     <row r="1021" spans="1:9" ht="15" customHeight="1">
       <c r="A1021" s="1"/>
@@ -15371,8 +14964,6 @@
       <c r="D1021" s="1"/>
       <c r="E1021" s="1"/>
       <c r="F1021" s="1"/>
-      <c r="G1021" s="1"/>
-      <c r="H1021" s="1"/>
     </row>
     <row r="1022" spans="1:9" ht="15" customHeight="1">
       <c r="A1022" s="1"/>
@@ -15381,8 +14972,6 @@
       <c r="D1022" s="1"/>
       <c r="E1022" s="1"/>
       <c r="F1022" s="1"/>
-      <c r="G1022" s="1"/>
-      <c r="H1022" s="1"/>
     </row>
     <row r="1023" spans="1:9" ht="15" customHeight="1">
       <c r="A1023" s="1"/>
@@ -15391,8 +14980,6 @@
       <c r="D1023" s="1"/>
       <c r="E1023" s="1"/>
       <c r="F1023" s="1"/>
-      <c r="G1023" s="1"/>
-      <c r="H1023" s="1"/>
     </row>
     <row r="1024" spans="1:9" ht="15" customHeight="1">
       <c r="A1024" s="1"/>
@@ -15401,30 +14988,24 @@
       <c r="D1024" s="1"/>
       <c r="E1024" s="1"/>
       <c r="F1024" s="1"/>
-      <c r="G1024" s="1"/>
-      <c r="H1024" s="1"/>
-    </row>
-    <row r="1025" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="1025" spans="1:6" ht="15" customHeight="1">
       <c r="A1025" s="1"/>
       <c r="B1025" s="1"/>
       <c r="C1025" s="1"/>
       <c r="D1025" s="1"/>
       <c r="E1025" s="1"/>
       <c r="F1025" s="1"/>
-      <c r="G1025" s="1"/>
-      <c r="H1025" s="1"/>
-    </row>
-    <row r="1026" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="1026" spans="1:6" ht="15" customHeight="1">
       <c r="A1026" s="1"/>
       <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
       <c r="D1026" s="1"/>
       <c r="E1026" s="1"/>
       <c r="F1026" s="1"/>
-      <c r="G1026" s="1"/>
-      <c r="H1026" s="1"/>
-    </row>
-    <row r="1027" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="1027" spans="1:6" ht="15" customHeight="1">
       <c r="A1027" s="1"/>
       <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
@@ -15432,7 +15013,7 @@
       <c r="E1027" s="1"/>
       <c r="F1027" s="1"/>
     </row>
-    <row r="1028" spans="1:8" ht="15" customHeight="1">
+    <row r="1028" spans="1:6" ht="15" customHeight="1">
       <c r="A1028" s="1"/>
       <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
@@ -15440,7 +15021,7 @@
       <c r="E1028" s="1"/>
       <c r="F1028" s="1"/>
     </row>
-    <row r="1029" spans="1:8" ht="15" customHeight="1">
+    <row r="1029" spans="1:6" ht="15" customHeight="1">
       <c r="A1029" s="1"/>
       <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
@@ -15448,7 +15029,7 @@
       <c r="E1029" s="1"/>
       <c r="F1029" s="1"/>
     </row>
-    <row r="1030" spans="1:8" ht="15" customHeight="1">
+    <row r="1030" spans="1:6" ht="15" customHeight="1">
       <c r="A1030" s="1"/>
       <c r="B1030" s="1"/>
       <c r="C1030" s="1"/>
@@ -15456,7 +15037,7 @@
       <c r="E1030" s="1"/>
       <c r="F1030" s="1"/>
     </row>
-    <row r="1031" spans="1:8" ht="15" customHeight="1">
+    <row r="1031" spans="1:6" ht="15" customHeight="1">
       <c r="A1031" s="1"/>
       <c r="B1031" s="1"/>
       <c r="C1031" s="1"/>
@@ -15464,7 +15045,7 @@
       <c r="E1031" s="1"/>
       <c r="F1031" s="1"/>
     </row>
-    <row r="1032" spans="1:8" ht="15" customHeight="1">
+    <row r="1032" spans="1:6" ht="15" customHeight="1">
       <c r="A1032" s="1"/>
       <c r="B1032" s="1"/>
       <c r="C1032" s="1"/>
@@ -15472,7 +15053,7 @@
       <c r="E1032" s="1"/>
       <c r="F1032" s="1"/>
     </row>
-    <row r="1033" spans="1:8" ht="15" customHeight="1">
+    <row r="1033" spans="1:6" ht="15" customHeight="1">
       <c r="A1033" s="1"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
@@ -15480,7 +15061,7 @@
       <c r="E1033" s="1"/>
       <c r="F1033" s="1"/>
     </row>
-    <row r="1034" spans="1:8" ht="15" customHeight="1">
+    <row r="1034" spans="1:6" ht="15" customHeight="1">
       <c r="A1034" s="1"/>
       <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
@@ -15488,7 +15069,7 @@
       <c r="E1034" s="1"/>
       <c r="F1034" s="1"/>
     </row>
-    <row r="1035" spans="1:8" ht="15" customHeight="1">
+    <row r="1035" spans="1:6" ht="15" customHeight="1">
       <c r="A1035" s="1"/>
       <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
@@ -15496,7 +15077,7 @@
       <c r="E1035" s="1"/>
       <c r="F1035" s="1"/>
     </row>
-    <row r="1036" spans="1:8" ht="15" customHeight="1">
+    <row r="1036" spans="1:6" ht="15" customHeight="1">
       <c r="A1036" s="1"/>
       <c r="B1036" s="1"/>
       <c r="C1036" s="1"/>
@@ -15504,7 +15085,7 @@
       <c r="E1036" s="1"/>
       <c r="F1036" s="1"/>
     </row>
-    <row r="1037" spans="1:8" ht="15" customHeight="1">
+    <row r="1037" spans="1:6" ht="15" customHeight="1">
       <c r="A1037" s="1"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
@@ -15512,7 +15093,7 @@
       <c r="E1037" s="1"/>
       <c r="F1037" s="1"/>
     </row>
-    <row r="1038" spans="1:8" ht="15" customHeight="1">
+    <row r="1038" spans="1:6" ht="15" customHeight="1">
       <c r="A1038" s="1"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
@@ -15520,7 +15101,7 @@
       <c r="E1038" s="1"/>
       <c r="F1038" s="1"/>
     </row>
-    <row r="1039" spans="1:8" ht="15" customHeight="1">
+    <row r="1039" spans="1:6" ht="15" customHeight="1">
       <c r="A1039" s="1"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
@@ -15528,7 +15109,7 @@
       <c r="E1039" s="1"/>
       <c r="F1039" s="1"/>
     </row>
-    <row r="1040" spans="1:8" ht="15" customHeight="1">
+    <row r="1040" spans="1:6" ht="15" customHeight="1">
       <c r="A1040" s="1"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
@@ -15642,65 +15223,16 @@
       <c r="E1054" s="1"/>
       <c r="F1054" s="1"/>
     </row>
-    <row r="1055" spans="1:6" ht="15" customHeight="1">
-      <c r="B1055" s="1"/>
-      <c r="C1055" s="1"/>
-      <c r="D1055" s="1"/>
-      <c r="E1055" s="1"/>
-      <c r="F1055" s="1"/>
-    </row>
-    <row r="1056" spans="1:6" ht="15" customHeight="1">
-      <c r="B1056" s="1"/>
-      <c r="C1056" s="1"/>
-      <c r="D1056" s="1"/>
-      <c r="E1056" s="1"/>
-      <c r="F1056" s="1"/>
-    </row>
-    <row r="1057" spans="2:6" ht="15" customHeight="1">
-      <c r="B1057" s="1"/>
-      <c r="C1057" s="1"/>
-      <c r="D1057" s="1"/>
-      <c r="E1057" s="1"/>
-      <c r="F1057" s="1"/>
-    </row>
-    <row r="1058" spans="2:6" ht="15" customHeight="1">
-      <c r="B1058" s="1"/>
-      <c r="C1058" s="1"/>
-      <c r="D1058" s="1"/>
-      <c r="E1058" s="1"/>
-      <c r="F1058" s="1"/>
-    </row>
-    <row r="1059" spans="2:6" ht="15" customHeight="1">
-      <c r="B1059" s="1"/>
-      <c r="C1059" s="1"/>
-      <c r="D1059" s="1"/>
-      <c r="E1059" s="1"/>
-      <c r="F1059" s="1"/>
-    </row>
-    <row r="1060" spans="2:6" ht="15" customHeight="1">
-      <c r="B1060" s="1"/>
-      <c r="C1060" s="1"/>
-      <c r="D1060" s="1"/>
-      <c r="E1060" s="1"/>
-      <c r="F1060" s="1"/>
-    </row>
-    <row r="1061" spans="2:6" ht="15" customHeight="1">
-      <c r="B1061" s="1"/>
-      <c r="C1061" s="1"/>
-      <c r="D1061" s="1"/>
-      <c r="E1061" s="1"/>
-      <c r="F1061" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C155:H155"/>
-    <mergeCell ref="C156:H156"/>
-    <mergeCell ref="C173:H173"/>
-    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="C167:H167"/>
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
     <mergeCell ref="C105:H105"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
@@ -15728,37 +15260,37 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="69.28515625" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="69.33203125" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -15766,70 +15298,70 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bootcamp\프로젝트 관련\teamproject\DoZip\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\20220607\프로젝트 관련\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088D7C9-CE36-4AB0-B74F-D113F480B3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADCEB05-B8F4-4C56-9334-B465BE356ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20595" yWindow="-105" windowWidth="20700" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13545" yWindow="645" windowWidth="15210" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -559,13 +559,21 @@
     </comment>
     <comment ref="H153" authorId="2" shapeId="0" xr:uid="{6F704D55-1DCD-4E32-B38D-9BCAFFDACB06}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     업체 문의라면 해당 컬럼에 값을 넣음.
 null인 경우에는 관리자문의가 됨.
 테이블은 null 허용으로 하고,
 업체문의를 통해 글을 작성하는 경우 유효성 검증으로 사업자번호를 넣게 할 예정</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -573,7 +581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="309">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -2129,9 +2137,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2139,15 +2144,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,6 +2162,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2408,49 +2416,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="15.42578125" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="15.44140625" customWidth="1"/>
+    <col min="18" max="25" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -2468,27 +2476,27 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="14" t="s">
@@ -2784,49 +2792,49 @@
       <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
       <c r="K22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="34"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
       <c r="K23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="34"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="14" t="s">
@@ -2931,21 +2939,23 @@
         <v>54</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>278</v>
+        <v>68</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M26" s="11">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="P26" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="Q26" s="11" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
@@ -2967,13 +2977,13 @@
         <v>56</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M27" s="11">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11" t="s">
@@ -2981,7 +2991,7 @@
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
@@ -3003,7 +3013,7 @@
         <v>58</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>48</v>
@@ -3017,7 +3027,7 @@
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
@@ -3038,14 +3048,14 @@
       <c r="H29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="26" t="s">
-        <v>281</v>
+      <c r="K29" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M29" s="11">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N29" s="11"/>
       <c r="O29" s="11" t="s">
@@ -3053,7 +3063,7 @@
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
@@ -3074,14 +3084,14 @@
       <c r="H30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>282</v>
+      <c r="K30" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M30" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="11" t="s">
@@ -3089,7 +3099,7 @@
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" customHeight="1">
@@ -3111,7 +3121,7 @@
         <v>65</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>48</v>
@@ -3121,11 +3131,11 @@
       </c>
       <c r="N31" s="11"/>
       <c r="O31" s="11" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" customHeight="1">
@@ -3147,13 +3157,13 @@
         <v>67</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M32" s="11">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="11" t="s">
@@ -3161,7 +3171,7 @@
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" customHeight="1">
@@ -3186,13 +3196,13 @@
         <v>71</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M33" s="11">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11" t="s">
@@ -3200,7 +3210,7 @@
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" customHeight="1">
@@ -3225,13 +3235,13 @@
         <v>39</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M34" s="11">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="11" t="s">
@@ -3239,7 +3249,7 @@
       </c>
       <c r="P34" s="11"/>
       <c r="Q34" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1">
@@ -3262,21 +3272,21 @@
         <v>43</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M35" s="11">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="11" t="s">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="P35" s="11"/>
       <c r="Q35" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" customHeight="1">
@@ -3299,13 +3309,13 @@
         <v>75</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L36" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M36" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="11" t="s">
@@ -3313,7 +3323,7 @@
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" customHeight="1">
@@ -3339,13 +3349,13 @@
       </c>
       <c r="I37" s="17"/>
       <c r="K37" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M37" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="11" t="s">
@@ -3353,20 +3363,20 @@
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="I38" s="17"/>
       <c r="K38" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M38" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="11" t="s">
@@ -3374,7 +3384,7 @@
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" customHeight="1">
@@ -3382,13 +3392,13 @@
       <c r="H39" s="1"/>
       <c r="I39" s="17"/>
       <c r="K39" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M39" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N39" s="11"/>
       <c r="O39" s="11" t="s">
@@ -3396,55 +3406,55 @@
       </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="11" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.5" customHeight="1">
       <c r="B40" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="K40" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M40" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="11" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="P40" s="11"/>
       <c r="Q40" s="11" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" customHeight="1">
       <c r="B41" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="17"/>
       <c r="K41" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L41" s="11" t="s">
         <v>48</v>
@@ -3458,7 +3468,7 @@
       </c>
       <c r="P41" s="11"/>
       <c r="Q41" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" customHeight="1">
@@ -3485,13 +3495,13 @@
       </c>
       <c r="I42" s="17"/>
       <c r="K42" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M42" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="11" t="s">
@@ -3499,7 +3509,7 @@
       </c>
       <c r="P42" s="11"/>
       <c r="Q42" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" customHeight="1">
@@ -3523,13 +3533,13 @@
         <v>82</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M43" s="11">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N43" s="11"/>
       <c r="O43" s="11" t="s">
@@ -3537,7 +3547,7 @@
       </c>
       <c r="P43" s="11"/>
       <c r="Q43" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" customHeight="1">
@@ -3562,7 +3572,7 @@
         <v>16</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>48</v>
@@ -3576,7 +3586,7 @@
       </c>
       <c r="P44" s="11"/>
       <c r="Q44" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" customHeight="1">
@@ -3598,6 +3608,23 @@
       <c r="H45" s="23" t="s">
         <v>85</v>
       </c>
+      <c r="K45" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M45" s="11">
+        <v>70</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" customHeight="1">
       <c r="B46" s="23" t="s">
@@ -4016,27 +4043,27 @@
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="40"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="36"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="40"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="36"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
       <c r="B72" s="3" t="s">
@@ -4383,14 +4410,14 @@
       <c r="B104" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C104" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="34"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="17"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1">
@@ -4398,14 +4425,14 @@
       <c r="B105" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C105" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="34"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="33"/>
       <c r="I105" s="17"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
@@ -4629,28 +4656,28 @@
       <c r="B120" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="41" t="s">
+      <c r="C120" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="D120" s="42"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="43"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="39"/>
       <c r="I120" s="17"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" customHeight="1">
       <c r="B121" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="41" t="s">
+      <c r="C121" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="D121" s="42"/>
-      <c r="E121" s="42"/>
-      <c r="F121" s="42"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="43"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="39"/>
       <c r="I121" s="17"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1">
@@ -5170,14 +5197,14 @@
       <c r="B148" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="32" t="s">
+      <c r="C148" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="34"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="33"/>
       <c r="I148" s="17"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1">
@@ -5185,14 +5212,14 @@
       <c r="B149" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="32" t="s">
+      <c r="C149" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="34"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="33"/>
       <c r="I149" s="17"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
@@ -5520,14 +5547,14 @@
       <c r="B166" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="38" t="s">
+      <c r="C166" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="39"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="40"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="36"/>
       <c r="I166" s="17"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
@@ -5535,14 +5562,14 @@
       <c r="B167" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="38" t="s">
+      <c r="C167" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
-      <c r="F167" s="39"/>
-      <c r="G167" s="39"/>
-      <c r="H167" s="40"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="36"/>
       <c r="I167" s="17"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
@@ -15225,15 +15252,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C148:H148"/>
-    <mergeCell ref="C149:H149"/>
-    <mergeCell ref="C166:H166"/>
-    <mergeCell ref="C167:H167"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C105:H105"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="C40:H40"/>
@@ -15244,6 +15262,15 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="C167:H167"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15260,14 +15287,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="69.33203125" customWidth="1"/>
-    <col min="6" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\20220607\프로젝트 관련\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADCEB05-B8F4-4C56-9334-B465BE356ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D68CA7-B2C2-4174-A8CE-DBF637D38DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13545" yWindow="645" windowWidth="15210" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8160" yWindow="855" windowWidth="15210" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="309">
   <si>
     <t>테이블 정의서(명세서)</t>
   </si>
@@ -2137,6 +2137,9 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2144,6 +2147,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2162,18 +2174,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2416,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2439,26 +2439,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -2476,27 +2476,27 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="14" t="s">
@@ -2792,49 +2792,49 @@
       <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
       <c r="K22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
       <c r="K23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="14" t="s">
@@ -2939,23 +2939,21 @@
         <v>54</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>68</v>
+        <v>278</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M26" s="11">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>70</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P26" s="11"/>
       <c r="Q26" s="11" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
@@ -2977,13 +2975,13 @@
         <v>56</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M27" s="11">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11" t="s">
@@ -2991,7 +2989,7 @@
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
@@ -3013,7 +3011,7 @@
         <v>58</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>48</v>
@@ -3027,7 +3025,7 @@
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
@@ -3048,14 +3046,14 @@
       <c r="H29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>280</v>
+      <c r="K29" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M29" s="11">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N29" s="11"/>
       <c r="O29" s="11" t="s">
@@ -3063,7 +3061,7 @@
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
@@ -3084,14 +3082,14 @@
       <c r="H30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="26" t="s">
-        <v>281</v>
+      <c r="K30" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M30" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="11" t="s">
@@ -3099,7 +3097,7 @@
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" customHeight="1">
@@ -3121,7 +3119,7 @@
         <v>65</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>48</v>
@@ -3131,11 +3129,11 @@
       </c>
       <c r="N31" s="11"/>
       <c r="O31" s="11" t="s">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" customHeight="1">
@@ -3157,13 +3155,13 @@
         <v>67</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M32" s="11">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="11" t="s">
@@ -3171,7 +3169,7 @@
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" customHeight="1">
@@ -3196,13 +3194,13 @@
         <v>71</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M33" s="11">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11" t="s">
@@ -3210,7 +3208,7 @@
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" customHeight="1">
@@ -3235,13 +3233,13 @@
         <v>39</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M34" s="11">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="11" t="s">
@@ -3249,7 +3247,7 @@
       </c>
       <c r="P34" s="11"/>
       <c r="Q34" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1">
@@ -3272,21 +3270,21 @@
         <v>43</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M35" s="11">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="11" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="P35" s="11"/>
       <c r="Q35" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" customHeight="1">
@@ -3309,13 +3307,13 @@
         <v>75</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L36" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M36" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="11" t="s">
@@ -3323,7 +3321,7 @@
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" customHeight="1">
@@ -3349,13 +3347,13 @@
       </c>
       <c r="I37" s="17"/>
       <c r="K37" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M37" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="11" t="s">
@@ -3363,20 +3361,20 @@
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="I38" s="17"/>
       <c r="K38" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M38" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="11" t="s">
@@ -3384,7 +3382,7 @@
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" customHeight="1">
@@ -3392,13 +3390,13 @@
       <c r="H39" s="1"/>
       <c r="I39" s="17"/>
       <c r="K39" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M39" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N39" s="11"/>
       <c r="O39" s="11" t="s">
@@ -3406,55 +3404,55 @@
       </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="11" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.5" customHeight="1">
       <c r="B40" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="17"/>
       <c r="K40" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M40" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="11" t="s">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="P40" s="11"/>
       <c r="Q40" s="11" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" customHeight="1">
       <c r="B41" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="17"/>
       <c r="K41" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L41" s="11" t="s">
         <v>48</v>
@@ -3468,7 +3466,7 @@
       </c>
       <c r="P41" s="11"/>
       <c r="Q41" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" customHeight="1">
@@ -3495,13 +3493,13 @@
       </c>
       <c r="I42" s="17"/>
       <c r="K42" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M42" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="11" t="s">
@@ -3509,7 +3507,7 @@
       </c>
       <c r="P42" s="11"/>
       <c r="Q42" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" customHeight="1">
@@ -3533,13 +3531,13 @@
         <v>82</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M43" s="11">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N43" s="11"/>
       <c r="O43" s="11" t="s">
@@ -3547,7 +3545,7 @@
       </c>
       <c r="P43" s="11"/>
       <c r="Q43" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" customHeight="1">
@@ -3572,7 +3570,7 @@
         <v>16</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>48</v>
@@ -3586,7 +3584,7 @@
       </c>
       <c r="P44" s="11"/>
       <c r="Q44" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" customHeight="1">
@@ -3608,23 +3606,6 @@
       <c r="H45" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M45" s="11">
-        <v>70</v>
-      </c>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" customHeight="1">
       <c r="B46" s="23" t="s">
@@ -4043,27 +4024,27 @@
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="40"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="40"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
       <c r="B72" s="3" t="s">
@@ -4410,14 +4391,14 @@
       <c r="B104" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="31" t="s">
+      <c r="C104" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="34"/>
       <c r="I104" s="17"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1">
@@ -4425,14 +4406,14 @@
       <c r="B105" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="31" t="s">
+      <c r="C105" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="34"/>
       <c r="I105" s="17"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
@@ -4656,28 +4637,28 @@
       <c r="B120" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="37" t="s">
+      <c r="C120" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="39"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="42"/>
+      <c r="H120" s="43"/>
       <c r="I120" s="17"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" customHeight="1">
       <c r="B121" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="37" t="s">
+      <c r="C121" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="39"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="43"/>
       <c r="I121" s="17"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1">
@@ -5197,14 +5178,14 @@
       <c r="B148" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="31" t="s">
+      <c r="C148" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="34"/>
       <c r="I148" s="17"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1">
@@ -5212,14 +5193,14 @@
       <c r="B149" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="31" t="s">
+      <c r="C149" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D149" s="32"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
-      <c r="G149" s="32"/>
-      <c r="H149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="34"/>
       <c r="I149" s="17"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
@@ -5547,14 +5528,14 @@
       <c r="B166" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="34" t="s">
+      <c r="C166" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D166" s="35"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="35"/>
-      <c r="G166" s="35"/>
-      <c r="H166" s="36"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="40"/>
       <c r="I166" s="17"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
@@ -5562,14 +5543,14 @@
       <c r="B167" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="34" t="s">
+      <c r="C167" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="36"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="40"/>
       <c r="I167" s="17"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
@@ -15252,6 +15233,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="C167:H167"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="C40:H40"/>
@@ -15262,15 +15252,6 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="C148:H148"/>
-    <mergeCell ref="C149:H149"/>
-    <mergeCell ref="C166:H166"/>
-    <mergeCell ref="C167:H167"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C105:H105"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/DoZip/memo/테이블 정의서.xlsx
+++ b/DoZip/memo/테이블 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\20220607\프로젝트 관련\teamproject\DoZip\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D68CA7-B2C2-4174-A8CE-DBF637D38DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83F0B82-BD9F-4212-9103-D6037D8B7128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="855" windowWidth="15210" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13425" yWindow="705" windowWidth="15210" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -2137,9 +2137,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2147,15 +2144,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2174,6 +2162,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2416,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2439,26 +2439,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -2476,27 +2476,27 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="B6" s="14" t="s">
@@ -2792,49 +2792,49 @@
       <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
       <c r="K22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="34"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
       <c r="K23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="34"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1">
       <c r="B24" s="14" t="s">
@@ -3411,14 +3411,14 @@
       <c r="B40" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="K40" s="11" t="s">
         <v>292</v>
@@ -3442,14 +3442,14 @@
       <c r="B41" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="17"/>
       <c r="K41" s="11" t="s">
         <v>293</v>
@@ -4024,27 +4024,27 @@
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="40"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="36"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="40"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="36"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
       <c r="B72" s="3" t="s">
@@ -4391,14 +4391,14 @@
       <c r="B104" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C104" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="34"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="17"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1">
@@ -4406,14 +4406,14 @@
       <c r="B105" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C105" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="34"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="33"/>
       <c r="I105" s="17"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
@@ -4637,28 +4637,28 @@
       <c r="B120" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="41" t="s">
+      <c r="C120" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="D120" s="42"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="43"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="39"/>
       <c r="I120" s="17"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" customHeight="1">
       <c r="B121" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="41" t="s">
+      <c r="C121" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="D121" s="42"/>
-      <c r="E121" s="42"/>
-      <c r="F121" s="42"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="43"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="39"/>
       <c r="I121" s="17"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1">
@@ -5178,14 +5178,14 @@
       <c r="B148" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="32" t="s">
+      <c r="C148" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="34"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="33"/>
       <c r="I148" s="17"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1">
@@ -5193,14 +5193,14 @@
       <c r="B149" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="32" t="s">
+      <c r="C149" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="34"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="33"/>
       <c r="I149" s="17"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
@@ -5528,14 +5528,14 @@
       <c r="B166" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="38" t="s">
+      <c r="C166" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="39"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="40"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="36"/>
       <c r="I166" s="17"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1">
@@ -5543,14 +5543,14 @@
       <c r="B167" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="38" t="s">
+      <c r="C167" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
-      <c r="F167" s="39"/>
-      <c r="G167" s="39"/>
-      <c r="H167" s="40"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="36"/>
       <c r="I167" s="17"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
@@ -15233,15 +15233,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C148:H148"/>
-    <mergeCell ref="C149:H149"/>
-    <mergeCell ref="C166:H166"/>
-    <mergeCell ref="C167:H167"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C105:H105"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="C40:H40"/>
@@ -15252,6 +15243,15 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="C167:H167"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C105:H105"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
